--- a/regulations outputs/in family connection statistics test new NLP based.xlsx
+++ b/regulations outputs/in family connection statistics test new NLP based.xlsx
@@ -493,7 +493,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -521,7 +521,7 @@
         <v>25.72727272727273</v>
       </c>
       <c r="D3" t="n">
-        <v>25.72727272727273</v>
+        <v>28.3</v>
       </c>
       <c r="E3" t="n">
         <v>14.15</v>
@@ -549,10 +549,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -577,10 +577,10 @@
         <v>21.02898432683286</v>
       </c>
       <c r="D5" t="n">
-        <v>13.37976762945388</v>
+        <v>14.15823278363354</v>
       </c>
       <c r="E5" t="n">
-        <v>5.254321529640349</v>
+        <v>5.018649430400888</v>
       </c>
       <c r="F5" t="n">
         <v>17.07036521053527</v>
@@ -605,10 +605,10 @@
         <v>28.5</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="F6" t="n">
         <v>13.25</v>
@@ -661,10 +661,10 @@
         <v>1.223419653912856</v>
       </c>
       <c r="D8" t="n">
-        <v>1.922848994076501</v>
+        <v>1.99883703231055</v>
       </c>
       <c r="E8" t="n">
-        <v>2.693021338754758</v>
+        <v>2.819483647191054</v>
       </c>
       <c r="F8" t="n">
         <v>0.8289219255407075</v>
@@ -689,10 +689,10 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="E9" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0.5283018867924528</v>
@@ -717,10 +717,10 @@
         <v>1458</v>
       </c>
       <c r="D10" t="n">
-        <v>1311</v>
+        <v>1179</v>
       </c>
       <c r="E10" t="n">
-        <v>1559</v>
+        <v>1517</v>
       </c>
       <c r="F10" t="n">
         <v>1774</v>
@@ -745,10 +745,10 @@
         <v>1852</v>
       </c>
       <c r="D11" t="n">
-        <v>1999</v>
+        <v>2131</v>
       </c>
       <c r="E11" t="n">
-        <v>1751</v>
+        <v>1793</v>
       </c>
       <c r="F11" t="n">
         <v>1536</v>
@@ -773,10 +773,10 @@
         <v>0.4404833836858006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3960725075528701</v>
+        <v>0.3561933534743202</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4709969788519637</v>
+        <v>0.4583081570996979</v>
       </c>
       <c r="F12" t="n">
         <v>0.5359516616314199</v>
@@ -801,10 +801,10 @@
         <v>0.3214727722893929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3505614485710191</v>
+        <v>0.284813043613242</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3670429279680813</v>
+        <v>0.3814083638037606</v>
       </c>
       <c r="F13" t="n">
         <v>0.3963493621651885</v>
@@ -829,10 +829,10 @@
         <v>0.1276707530647986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1491807009558489</v>
+        <v>0.1237145855194124</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3671691003297221</v>
+        <v>0.3611904761904762</v>
       </c>
       <c r="F14" t="n">
         <v>0.1916180600561676</v>
@@ -857,10 +857,10 @@
         <v>0.2187558898781865</v>
       </c>
       <c r="D15" t="n">
-        <v>0.174993612119668</v>
+        <v>0.1191449610218494</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2831503820026692</v>
+        <v>0.2847248411662712</v>
       </c>
       <c r="F15" t="n">
         <v>0.3846796646141455</v>
@@ -885,10 +885,10 @@
         <v>0.02696458339426198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02803514601931905</v>
+        <v>0.03020945984404349</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02306776071995765</v>
+        <v>0.02360923736211412</v>
       </c>
       <c r="F16" t="n">
         <v>0.02165901230367976</v>
@@ -913,10 +913,10 @@
         <v>0.02429993018275806</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02508948463935876</v>
+        <v>0.02953495047054957</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02178926784063555</v>
+        <v>0.02222775084772873</v>
       </c>
       <c r="F17" t="n">
         <v>0.01610291678083747</v>
@@ -941,10 +941,10 @@
         <v>0.6512493973018799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6836045252403705</v>
+        <v>0.6074757550360522</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8817755931210149</v>
+        <v>0.8772907747558005</v>
       </c>
       <c r="F18" t="n">
         <v>0.7968931956536235</v>
@@ -969,10 +969,10 @@
         <v>0.8000465063814146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7492093530561887</v>
+        <v>0.6027042231315896</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8570912778851021</v>
+        <v>0.8551714406326635</v>
       </c>
       <c r="F19" t="n">
         <v>0.9196426315495604</v>
@@ -997,10 +997,10 @@
         <v>0.709131756335776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.687735467310962</v>
+        <v>0.5961277568977837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8455623849245837</v>
+        <v>0.8531628272188968</v>
       </c>
       <c r="F20" t="n">
         <v>0.8571048425844081</v>
@@ -2311,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2379,35 +2379,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-10' 'AC-12' 'AC-17' 'AC-23' 'AC-25' 'AU-2' 'AU-5' 'CA-7'
- 'CP-10' 'IA-4' 'IA-5' 'IA-6' 'IA-9' 'IA-11' 'MA-4' 'MA-6' 'SC-5' 'SC-7'
- 'SC-10' 'SC-11' 'SC-23' 'SC-24' 'SC-46' 'SC-47' 'SC-51' 'SI-13']</t>
+          <t>['AC-10' 'AC-17' 'AC-23' 'AC-25' 'CA-7' 'CA-9' 'IA-4' 'IA-6' 'IA-9' 'SC-5'
+ 'SC-7' 'SC-10' 'SC-23' 'SC-42' 'SC-46' 'SC-51' 'SI-19']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>702</v>
+        <v>272</v>
       </c>
       <c r="E2" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09829059829059829</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G2" t="n">
-        <v>6912</v>
+        <v>4522</v>
       </c>
       <c r="H2" t="n">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02170138888888889</v>
+        <v>0.0258735072976559</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3150684931506849</v>
+        <v>0.2147651006711409</v>
       </c>
     </row>
     <row r="3">
@@ -2415,35 +2414,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-3' 'AC-4' 'AC-19' 'AU-4' 'AU-9' 'AU-10' 'AU-16' 'CM-10' 'PE-21'
- 'PM-32' 'PS-6' 'SA-17' 'SC-13' 'SC-28' 'SC-32' 'SC-34' 'SC-40' 'SC-49'
- 'SC-50' 'SI-3' 'SI-10' 'SI-14' 'SI-21' 'SR-4']</t>
+          <t>['AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-18' 'AC-19' 'AC-22' 'AC-24' 'IA-1'
+ 'IA-2' 'IA-3' 'IA-5' 'IA-7' 'IA-8' 'IA-11' 'IA-12' 'MA-4' 'PE-4' 'PE-5'
+ 'PM-17' 'RA-2' 'SA-5' 'SC-2' 'SC-3' 'SC-4' 'SC-8' 'SC-11' 'SC-37' 'SC-47'
+ 'SI-15']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>552</v>
+        <v>870</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1123188405797101</v>
+        <v>0.1057471264367816</v>
       </c>
       <c r="G3" t="n">
-        <v>6216</v>
+        <v>7590</v>
       </c>
       <c r="H3" t="n">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02847490347490347</v>
+        <v>0.02661396574440053</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2594142259414226</v>
+        <v>0.3129251700680272</v>
       </c>
     </row>
     <row r="4">
@@ -2451,33 +2451,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['CP-12' 'SI-17']</t>
+          <t>['AC-6' 'AU-5' 'AU-6' 'CA-2' 'CM-11' 'CP-6' 'CP-7' 'CP-10' 'CP-12' 'MA-6'
+ 'PE-17' 'PL-9' 'PM-31' 'RA-5' 'SC-24' 'SC-39' 'SI-2' 'SI-8' 'SI-13'
+ 'SI-17']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="G4" t="n">
-        <v>562</v>
+        <v>5260</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001779359430604982</v>
+        <v>0.02395437262357415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -2485,36 +2487,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-8' 'AU-8' 'CM-6' 'CM-7' 'CM-8' 'MP-3' 'MP-7' 'PE-2' 'PE-10' 'PE-11'
- 'PE-12' 'PE-16' 'PE-18' 'PE-22' 'PL-4' 'PS-2' 'PS-9' 'SA-20' 'SA-22'
- 'SC-15' 'SC-25' 'SC-29' 'SC-30' 'SC-36' 'SC-41' 'SC-43' 'SC-45' 'SI-20'
- 'SI-23']</t>
+          <t>['AC-4' 'AC-9' 'AC-20' 'AU-2' 'AU-3' 'AU-7' 'AU-9' 'AU-13' 'CA-3' 'CA-5'
+ 'CA-6' 'CM-5' 'IR-5' 'IR-7' 'IR-8' 'MA-3' 'MA-7' 'MP-6' 'PE-6' 'PE-20'
+ 'PE-21' 'PS-4' 'PT-3' 'RA-10' 'SC-13' 'SC-28' 'SC-32' 'SC-40' 'SI-3'
+ 'SI-4' 'SI-5' 'SI-7' 'SR-3']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>812</v>
+        <v>1056</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06527093596059114</v>
+        <v>0.1117424242424242</v>
       </c>
       <c r="G5" t="n">
-        <v>7366</v>
+        <v>8250</v>
       </c>
       <c r="H5" t="n">
-        <v>124</v>
+        <v>323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01683410263372251</v>
+        <v>0.03915151515151515</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2994350282485876</v>
+        <v>0.2675736961451247</v>
       </c>
     </row>
     <row r="6">
@@ -2522,35 +2524,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AC-11' 'AC-16' 'AC-18' 'AC-22' 'AC-24' 'CP-9' 'IA-2' 'IA-3' 'IA-8'
- 'IA-12' 'IR-9' 'PE-4' 'PE-5' 'RA-2' 'SA-5' 'SC-2' 'SC-3' 'SC-4' 'SC-8'
- 'SC-37' 'SI-15' 'SI-16']</t>
+          <t>['AC-2' 'AC-8' 'AC-16' 'AU-8' 'AU-11' 'AU-12' 'CM-7' 'CM-8' 'MP-2' 'MP-3'
+ 'MP-5' 'MP-7' 'PE-2' 'PE-10' 'PE-11' 'PE-12' 'PE-15' 'PE-16' 'PE-18'
+ 'PE-22' 'PL-4' 'PS-2' 'PS-5' 'PS-9' 'SA-20' 'SA-22' 'SC-15' 'SC-30'
+ 'SC-36' 'SC-41' 'SC-43' 'SC-45' 'SI-20' 'SI-23']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>462</v>
+        <v>1122</v>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="F6" t="n">
-        <v>0.132034632034632</v>
+        <v>0.06506238859180036</v>
       </c>
       <c r="G6" t="n">
-        <v>5742</v>
+        <v>8466</v>
       </c>
       <c r="H6" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02803901079763149</v>
+        <v>0.02031656035908339</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2747747747747748</v>
+        <v>0.2979591836734694</v>
       </c>
     </row>
     <row r="7">
@@ -2558,36 +2561,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-6' 'AC-9' 'AC-20' 'AU-3' 'AU-6' 'AU-7' 'AU-13' 'CA-2' 'CA-5'
- 'CA-6' 'CM-2' 'CM-5' 'CM-11' 'IR-1' 'IR-2' 'IR-3' 'IR-5' 'IR-7' 'IR-8'
- 'MP-2' 'MP-5' 'MP-6' 'MP-8' 'PE-6' 'PE-15' 'PE-20' 'PL-9' 'PM-31' 'PS-4'
- 'PS-5' 'RA-5' 'RA-10' 'SC-39' 'SI-2' 'SI-4' 'SI-5' 'SI-7' 'SI-8' 'SR-11']</t>
+          <t>['AC-5' 'AT-1' 'AT-3' 'AT-6' 'AU-1' 'AU-14' 'CM-1' 'CM-9' 'CM-12' 'CP-1'
+ 'CP-3' 'CP-8' 'CP-11' 'CP-13' 'IA-10' 'IR-1' 'IR-2' 'IR-3' 'IR-9' 'MP-8'
+ 'PE-1' 'PE-9' 'PE-13' 'PE-14' 'PL-11' 'PM-5' 'PM-21' 'PM-22' 'PM-25'
+ 'PS-3' 'PS-6' 'PT-1' 'PT-2' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SA-15' 'SA-16'
+ 'SC-38' 'SI-1' 'SI-12' 'SI-18' 'SI-22' 'SR-6' 'SR-9' 'SR-10']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1560</v>
+        <v>2162</v>
       </c>
       <c r="E7" t="n">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1262820512820513</v>
+        <v>0.1211840888066605</v>
       </c>
       <c r="G7" t="n">
-        <v>9720</v>
+        <v>11092</v>
       </c>
       <c r="H7" t="n">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03405349794238683</v>
+        <v>0.03461954561846376</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3731060606060606</v>
+        <v>0.4055727554179567</v>
       </c>
     </row>
     <row r="8">
@@ -2595,38 +2599,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-1' 'AC-14' 'AT-4' 'CA-1' 'CM-9' 'CP-2' 'IA-1' 'IA-7' 'MA-1' 'MA-5'
- 'MP-1' 'PE-19' 'PE-23' 'PL-1' 'PL-2' 'PL-8' 'PM-1' 'PM-2' 'PM-3' 'PM-4'
- 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-14' 'PM-15' 'PM-17' 'PM-18'
- 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PS-1' 'PS-7' 'PS-8'
- 'PT-6' 'RA-1' 'RA-7' 'RA-9' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-9' 'SC-1'
- 'SR-5' 'SR-12']</t>
+          <t>['AC-21' 'AT-2' 'AU-4' 'AU-16' 'CM-3' 'CM-4' 'IR-4' 'MA-2' 'MP-4' 'PE-8'
+ 'PL-10' 'PM-12' 'PM-16' 'RA-3' 'SC-35' 'SC-48' 'SR-1' 'SR-8']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2450</v>
+        <v>306</v>
       </c>
       <c r="E8" t="n">
-        <v>498</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
-        <v>0.203265306122449</v>
+        <v>0.1437908496732026</v>
       </c>
       <c r="G8" t="n">
-        <v>11650</v>
+        <v>4770</v>
       </c>
       <c r="H8" t="n">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03227467811158798</v>
+        <v>0.03522012578616352</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5697940503432495</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="9">
@@ -2634,34 +2634,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['CA-8' 'CP-1' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-11' 'CP-13' 'IA-10'
- 'PE-17' 'SA-11' 'SC-18' 'SI-22']</t>
+          <t>['AC-3' 'AU-10' 'CM-6' 'CM-10' 'PM-32' 'SA-17' 'SC-25' 'SC-29' 'SC-34'
+ 'SC-49' 'SC-50' 'SI-10' 'SI-14' 'SI-21' 'SR-4']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2252747252747253</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>3766</v>
+        <v>4020</v>
       </c>
       <c r="H9" t="n">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02044609665427509</v>
+        <v>0.0263681592039801</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.1846153846153846</v>
       </c>
     </row>
     <row r="10">
@@ -2669,34 +2669,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['CA-3' 'CA-9' 'CM-13' 'CM-14' 'MA-3' 'MA-7' 'PE-3' 'PM-6' 'SA-8' 'SA-10'
- 'SA-21' 'SA-23' 'SC-12' 'SC-16' 'SC-17' 'SI-6']</t>
+          <t>['CA-8' 'CP-4' 'CP-9' 'PE-3' 'PM-6' 'SA-8' 'SA-11' 'SA-23' 'SC-12' 'SC-16'
+ 'SC-17' 'SC-18' 'SI-6' 'SI-16']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="G10" t="n">
-        <v>4272</v>
+        <v>3766</v>
       </c>
       <c r="H10" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02574906367041199</v>
+        <v>0.03053637812002124</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.2013888888888889</v>
       </c>
     </row>
     <row r="11">
@@ -2704,72 +2704,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AC-5' 'AT-1' 'AT-3' 'AT-6' 'AU-1' 'AU-11' 'AU-12' 'AU-14' 'CM-1' 'CM-12'
- 'PE-1' 'PE-9' 'PE-13' 'PE-14' 'PL-7' 'PL-11' 'PM-5' 'PM-21' 'PM-22'
- 'PM-25' 'PS-3' 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SA-15'
- 'SA-16' 'SC-38' 'SC-42' 'SI-1' 'SI-12' 'SI-18' 'SI-19' 'SR-9' 'SR-10']</t>
+          <t>['AC-1' 'AT-4' 'CA-1' 'CM-2' 'CM-13' 'CM-14' 'CP-2' 'IR-6' 'MA-1' 'MA-5'
+ 'MP-1' 'PE-19' 'PE-23' 'PL-1' 'PL-2' 'PL-7' 'PL-8' 'PM-1' 'PM-2' 'PM-3'
+ 'PM-4' 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-14' 'PM-15' 'PM-18'
+ 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PS-1' 'PS-7' 'PS-8'
+ 'PT-6' 'RA-1' 'RA-7' 'RA-9' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-9' 'SA-10'
+ 'SA-21' 'SC-1' 'SR-2' 'SR-5' 'SR-7' 'SR-11' 'SR-12']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1406</v>
+        <v>2970</v>
       </c>
       <c r="E11" t="n">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="F11" t="n">
-        <v>0.155049786628734</v>
+        <v>0.1579124579124579</v>
       </c>
       <c r="G11" t="n">
-        <v>9310</v>
+        <v>12540</v>
       </c>
       <c r="H11" t="n">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03082706766917293</v>
+        <v>0.03269537480063796</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4316831683168317</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['AC-21' 'AT-2' 'CM-3' 'CM-4' 'IR-4' 'IR-6' 'MA-2' 'MP-4' 'PE-8' 'PL-10'
- 'PM-12' 'PM-16' 'RA-3' 'SC-35' 'SC-48' 'SR-1' 'SR-2' 'SR-3' 'SR-6' 'SR-7'
- 'SR-8']</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>420</v>
-      </c>
-      <c r="E12" t="n">
-        <v>87</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2071428571428572</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5502</v>
-      </c>
-      <c r="H12" t="n">
-        <v>197</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.03580516175936023</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3063380281690141</v>
+        <v>0.5335608646188851</v>
       </c>
     </row>
   </sheetData>
@@ -2851,35 +2817,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IR-1' 'IR-8'
- 'MA-1' 'MP-1' 'PE-1' 'PE-19' 'PL-1' 'PL-2' 'PM-1' 'PM-4' 'PM-9' 'PM-17'
- 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'RA-1' 'SA-1' 'SC-1' 'SI-1' 'SR-1']</t>
+          <t>['MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'MP-8' 'PE-16' 'PM-32' 'RA-9'
+ 'SA-20' 'SR-4']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>812</v>
+        <v>132</v>
       </c>
       <c r="E2" t="n">
-        <v>652</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8029556650246306</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="G2" t="n">
-        <v>7366</v>
+        <v>3252</v>
       </c>
       <c r="H2" t="n">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03040999185446647</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7442922374429224</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="3">
@@ -2887,34 +2852,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-16' 'AT-4' 'PL-7' 'PL-8' 'PM-3' 'PM-7' 'PM-8' 'PM-11' 'PM-15' 'SA-2'
- 'SA-3' 'SA-17']</t>
+          <t>['CA-8' 'CP-2' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11'
+ 'CP-12' 'CP-13' 'PE-17' 'SC-24' 'SI-16' 'SI-17' 'SI-22']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3409090909090909</v>
+        <v>0.2169117647058824</v>
       </c>
       <c r="G3" t="n">
-        <v>3252</v>
+        <v>4522</v>
       </c>
       <c r="H3" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02890528905289053</v>
+        <v>0.01570101724900487</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3237410071942446</v>
+        <v>0.4538461538461538</v>
       </c>
     </row>
     <row r="4">
@@ -2922,34 +2887,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-25' 'CA-5' 'CA-7' 'CM-2' 'CM-6' 'CM-11' 'IR-7' 'PE-9' 'PE-13'
- 'PE-14' 'PE-15' 'SC-5' 'SI-2']</t>
+          <t>['AC-3' 'AT-3' 'AT-6' 'AU-3' 'IR-9' 'PE-8' 'PL-11' 'PM-5' 'PM-21' 'PM-22'
+ 'PM-25' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SC-42' 'SI-12' 'SI-18'
+ 'SI-19']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>420</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="G4" t="n">
-        <v>3766</v>
+        <v>5502</v>
       </c>
       <c r="H4" t="n">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02575677110993096</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3120567375886525</v>
+        <v>0.5367647058823529</v>
       </c>
     </row>
     <row r="5">
@@ -2957,33 +2923,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['PE-21' 'PM-6' 'SA-8' 'SA-23' 'SC-16' 'SC-40' 'SI-6']</t>
+          <t>['AC-8' 'AC-20' 'CA-3' 'CA-9' 'PL-4' 'PS-3' 'PS-5' 'PS-6' 'PS-7' 'PS-8'
+ 'SA-9' 'SI-5' 'SR-12']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G5" t="n">
-        <v>1932</v>
+        <v>3510</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02277432712215321</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -2995,30 +2962,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['IR-6' 'PM-30' 'PM-32' 'RA-3' 'SC-38' 'SI-22' 'SR-2' 'SR-3' 'SR-4' 'SR-5'
- 'SR-6' 'SR-7' 'SR-8']</t>
+          <t>['CM-7' 'PE-9' 'PE-13' 'PE-14' 'PE-15' 'PE-22' 'RA-10' 'SC-15' 'SC-41'
+ 'SI-4' 'SI-13' 'SI-20' 'SR-10']</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>156</v>
       </c>
       <c r="E6" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="G6" t="n">
         <v>3510</v>
       </c>
       <c r="H6" t="n">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02905982905982906</v>
+        <v>0.01623931623931624</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3928571428571428</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="7">
@@ -3026,33 +2993,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['CA-6' 'PM-2' 'PM-10' 'PM-19' 'PM-20' 'PM-28' 'PM-29' 'RA-7']</t>
+          <t>['AU-2' 'AU-6' 'AU-7' 'AU-12' 'AU-14' 'IR-2' 'IR-3' 'IR-4' 'IR-6' 'IR-8'
+ 'PE-6' 'PL-9' 'SC-35' 'SC-48' 'SI-3' 'SI-7']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>2200</v>
+        <v>4272</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01772727272727273</v>
+        <v>0.03464419475655431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3060,34 +3028,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-3' 'AC-8' 'AC-19' 'AC-20' 'AC-21' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6'
- 'MP-7' 'MP-8' 'PE-16' 'PL-4' 'SC-43']</t>
+          <t>['AC-21' 'AT-2' 'AT-4' 'PM-12' 'PM-15' 'PM-16' 'PM-28' 'PS-2' 'PS-9'
+ 'RA-7']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="E8" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3380952380952381</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="G8" t="n">
-        <v>4020</v>
+        <v>2730</v>
       </c>
       <c r="H8" t="n">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02412935323383085</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4226190476190476</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="9">
@@ -3095,34 +3063,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['CM-7' 'CM-10' 'PE-3' 'PE-5' 'PE-22' 'SC-15' 'SC-18' 'SC-41' 'SC-51'
- 'SR-9' 'SR-10']</t>
+          <t>['AC-7' 'AC-9' 'IA-5' 'IA-6' 'IA-10' 'IA-11' 'SC-17']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G9" t="n">
-        <v>2992</v>
+        <v>1932</v>
       </c>
       <c r="H9" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.01293995859213251</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="10">
@@ -3130,34 +3097,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['AU-13' 'CA-2' 'CM-8' 'IR-5' 'PE-6' 'PE-10' 'PE-11' 'PE-18' 'PE-20'
- 'PE-23' 'PL-9' 'PM-31' 'RA-5' 'RA-10' 'SA-22' 'SI-4' 'SI-20']</t>
+          <t>['AC-12' 'AU-10' 'CM-10' 'PS-4' 'SC-10' 'SI-10' 'SI-14' 'SI-15' 'SI-21']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1838235294117647</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="G10" t="n">
-        <v>4522</v>
+        <v>2466</v>
       </c>
       <c r="H10" t="n">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03073861123396727</v>
+        <v>0.008110300081103</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2645502645502645</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="11">
@@ -3165,35 +3131,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AC-4' 'AC-6' 'AC-23' 'CP-11' 'CP-12' 'CP-13' 'SC-2' 'SC-3' 'SC-7'
- 'SC-11' 'SC-24' 'SC-32' 'SC-36' 'SC-39' 'SC-45' 'SC-46' 'SC-47' 'SC-49'
- 'SC-50' 'SI-17' 'SI-23']</t>
+          <t>['AC-5' 'AC-14' 'AU-4' 'AU-5' 'AU-11' 'AU-16' 'IA-4' 'IA-8' 'IA-9']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="G11" t="n">
-        <v>5502</v>
+        <v>2466</v>
       </c>
       <c r="H11" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01672119229371138</v>
+        <v>0.0186536901865369</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4556213017751479</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="12">
@@ -3201,34 +3165,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['AT-2' 'CM-4' 'IR-4' 'PL-10' 'PL-11' 'PM-12' 'PM-16' 'SC-35' 'SC-48'
- 'SI-3' 'SI-8']</t>
+          <t>['AC-10' 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'PE-21' 'SC-11' 'SC-13'
+ 'SC-23' 'SC-40' 'SC-47']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1636363636363636</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="G12" t="n">
-        <v>2992</v>
+        <v>3510</v>
       </c>
       <c r="H12" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01504010695187166</v>
+        <v>0.01452991452991453</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4069767441860465</v>
       </c>
     </row>
     <row r="13">
@@ -3236,34 +3200,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['AC-17' 'AU-9' 'CM-3' 'CM-13' 'CM-14' 'CP-9' 'MA-4' 'SA-5' 'SA-9' 'SA-10'
- 'SC-8' 'SC-12' 'SC-13' 'SC-28' 'SC-30' 'SI-7' 'SI-16' 'SR-12']</t>
+          <t>['AC-4' 'AC-23' 'AU-9' 'SC-2' 'SC-3' 'SC-4' 'SC-7' 'SC-32' 'SC-34' 'SC-39'
+ 'SC-46' 'SC-49' 'SC-50' 'SC-51' 'SI-23']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3660130718954248</v>
+        <v>0.3047619047619048</v>
       </c>
       <c r="G13" t="n">
-        <v>4770</v>
+        <v>4020</v>
       </c>
       <c r="H13" t="n">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03731656184486373</v>
+        <v>0.02114427860696518</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3862068965517241</v>
+        <v>0.4295302013422819</v>
       </c>
     </row>
     <row r="14">
@@ -3271,34 +3235,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['AC-11' 'AC-14' 'AC-18' 'AC-22' 'AC-24' 'AU-10' 'AU-16' 'IA-2' 'IA-3'
- 'IA-4' 'IA-8' 'IA-9' 'IA-12' 'PE-4' 'RA-2' 'SC-37']</t>
+          <t>['AC-16' 'PL-2' 'PL-7' 'PL-8' 'PM-3' 'PM-7' 'PM-8' 'PM-11' 'PT-6' 'SA-2'
+ 'SA-3' 'SC-38' 'SR-9']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2375</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="G14" t="n">
-        <v>4272</v>
+        <v>3510</v>
       </c>
       <c r="H14" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01732209737827715</v>
+        <v>0.03504273504273504</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4351145038167939</v>
+        <v>0.3351351351351352</v>
       </c>
     </row>
     <row r="15">
@@ -3306,33 +3270,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['AC-5' 'MA-5' 'PS-3' 'PS-7' 'PS-8' 'SA-21' 'SI-5']</t>
+          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IA-7' 'IR-1'
+ 'MA-1' 'MP-1' 'PE-1' 'PE-19' 'PE-23' 'PL-1' 'PM-1' 'PM-4' 'PM-9' 'PM-14'
+ 'PM-17' 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'RA-1' 'SA-1' 'SC-1' 'SI-1' 'SR-1']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>870</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>602</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.6919540229885057</v>
       </c>
       <c r="G15" t="n">
-        <v>1932</v>
+        <v>7590</v>
       </c>
       <c r="H15" t="n">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01345755693581781</v>
+        <v>0.02793148880105402</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.7395577395577395</v>
       </c>
     </row>
     <row r="16">
@@ -3340,34 +3306,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-9' 'AC-12' 'CA-3' 'CA-9' 'PE-2' 'PS-2' 'PS-4' 'PS-5' 'PS-6'
- 'PS-9']</t>
+          <t>['CA-2' 'CM-3' 'CM-4' 'PL-10' 'PM-30' 'PM-31' 'RA-2' 'RA-3' 'SC-25'
+ 'SC-29' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2458333333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>2992</v>
+        <v>4272</v>
       </c>
       <c r="H16" t="n">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0160427807486631</v>
+        <v>0.03160112359550562</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3041237113402062</v>
       </c>
     </row>
     <row r="17">
@@ -3375,34 +3341,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14'
- 'CM-5' 'PE-8' 'SC-4']</t>
+          <t>['AC-2' 'AC-6' 'AC-11' 'AC-17' 'AC-18' 'CM-5' 'CM-6' 'CM-11' 'IA-2' 'IA-3'
+ 'IA-12' 'SC-43' 'SI-2' 'SI-8']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3012820512820513</v>
+        <v>0.3241758241758242</v>
       </c>
       <c r="G17" t="n">
-        <v>3510</v>
+        <v>3766</v>
       </c>
       <c r="H17" t="n">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01937321937321937</v>
+        <v>0.03425385023898035</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4086956521739131</v>
+        <v>0.3138297872340425</v>
       </c>
     </row>
     <row r="18">
@@ -3410,34 +3376,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['CA-8' 'CP-2' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'IR-2' 'IR-3' 'IR-9'
- 'PE-12' 'PE-17' 'PM-14' 'RA-9' 'SA-4' 'SA-11' 'SA-15' 'SA-16' 'SA-20']</t>
+          <t>['CM-13' 'CM-14' 'PM-6' 'SA-4' 'SA-5' 'SA-8' 'SA-10' 'SA-11' 'SA-15'
+ 'SA-16' 'SA-17' 'SA-21' 'SA-23' 'SC-16' 'SC-18' 'SI-6']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>342</v>
+        <v>240</v>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2690058479532164</v>
+        <v>0.2958333333333333</v>
       </c>
       <c r="G18" t="n">
-        <v>5016</v>
+        <v>4272</v>
       </c>
       <c r="H18" t="n">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03289473684210526</v>
+        <v>0.03464419475655431</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3579766536964981</v>
+        <v>0.3242009132420091</v>
       </c>
     </row>
     <row r="19">
@@ -3445,34 +3411,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['AT-3' 'AT-6' 'CM-12' 'IA-7' 'PM-5' 'PM-21' 'PM-22' 'PM-25' 'PT-2' 'PT-3'
- 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SC-42' 'SI-12' 'SI-18' 'SI-19']</t>
+          <t>['CA-6' 'PE-10' 'PE-11' 'PE-12' 'PM-2' 'PM-10' 'PM-19' 'PM-20' 'PM-29']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>306</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G19" t="n">
-        <v>4770</v>
+        <v>2466</v>
       </c>
       <c r="H19" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01907756813417191</v>
+        <v>0.01175993511759935</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5560975609756098</v>
+        <v>0.3555555555555556</v>
       </c>
     </row>
     <row r="20">
@@ -3480,34 +3445,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['CP-10' 'MA-2' 'MA-3' 'MA-6' 'MA-7' 'SC-10' 'SI-10' 'SI-13' 'SI-14'
- 'SI-15' 'SI-21' 'SR-11']</t>
+          <t>['AC-25' 'AU-13' 'CA-5' 'CA-7' 'CM-2' 'CM-8' 'CM-12' 'IR-5' 'IR-7' 'PE-20'
+ 'RA-5' 'SA-22' 'SC-5' 'SR-11']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.2802197802197802</v>
       </c>
       <c r="G20" t="n">
-        <v>3252</v>
+        <v>3766</v>
       </c>
       <c r="H20" t="n">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01230012300123001</v>
+        <v>0.03292618162506639</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2914285714285714</v>
       </c>
     </row>
     <row r="21">
@@ -3515,34 +3480,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['AC-10' 'IA-5' 'IA-6' 'IA-10' 'IA-11' 'PT-6' 'SC-17' 'SC-23' 'SC-25'
- 'SC-29' 'SC-34']</t>
+          <t>['AC-19' 'AC-22' 'AC-24' 'AU-8' 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-18' 'SC-8'
+ 'SC-12' 'SC-28' 'SC-30' 'SC-36' 'SC-37' 'SC-45']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>2992</v>
+        <v>4272</v>
       </c>
       <c r="H21" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01203208556149733</v>
+        <v>0.0227059925093633</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2340425531914894</v>
+        <v>0.348993288590604</v>
       </c>
     </row>
   </sheetData>

--- a/regulations outputs/in family connection statistics test new NLP based.xlsx
+++ b/regulations outputs/in family connection statistics test new NLP based.xlsx
@@ -549,10 +549,10 @@
         <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -577,10 +577,10 @@
         <v>21.02898432683286</v>
       </c>
       <c r="D5" t="n">
-        <v>14.15823278363354</v>
+        <v>14.60631522473907</v>
       </c>
       <c r="E5" t="n">
-        <v>5.018649430400888</v>
+        <v>5.22418465056107</v>
       </c>
       <c r="F5" t="n">
         <v>17.07036521053527</v>
@@ -605,10 +605,10 @@
         <v>28.5</v>
       </c>
       <c r="D6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="E6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>13.25</v>
@@ -661,10 +661,10 @@
         <v>1.223419653912856</v>
       </c>
       <c r="D8" t="n">
-        <v>1.99883703231055</v>
+        <v>1.937518091631187</v>
       </c>
       <c r="E8" t="n">
-        <v>2.819483647191054</v>
+        <v>2.708556635432155</v>
       </c>
       <c r="F8" t="n">
         <v>0.8289219255407075</v>
@@ -689,10 +689,10 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="D9" t="n">
-        <v>1.515151515151515</v>
+        <v>1.27027027027027</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F9" t="n">
         <v>0.5283018867924528</v>
@@ -717,10 +717,10 @@
         <v>1458</v>
       </c>
       <c r="D10" t="n">
-        <v>1179</v>
+        <v>1331</v>
       </c>
       <c r="E10" t="n">
-        <v>1517</v>
+        <v>1584</v>
       </c>
       <c r="F10" t="n">
         <v>1774</v>
@@ -745,10 +745,10 @@
         <v>1852</v>
       </c>
       <c r="D11" t="n">
-        <v>2131</v>
+        <v>1979</v>
       </c>
       <c r="E11" t="n">
-        <v>1793</v>
+        <v>1726</v>
       </c>
       <c r="F11" t="n">
         <v>1536</v>
@@ -773,10 +773,10 @@
         <v>0.4404833836858006</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3561933534743202</v>
+        <v>0.4021148036253777</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4583081570996979</v>
+        <v>0.4785498489425982</v>
       </c>
       <c r="F12" t="n">
         <v>0.5359516616314199</v>
@@ -801,10 +801,10 @@
         <v>0.3214727722893929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.284813043613242</v>
+        <v>0.3081391109208169</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3814083638037606</v>
+        <v>0.3890579446696782</v>
       </c>
       <c r="F13" t="n">
         <v>0.3963493621651885</v>
@@ -829,10 +829,10 @@
         <v>0.1276707530647986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1237145855194124</v>
+        <v>0.1379846568525814</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3611904761904762</v>
+        <v>0.3735849056603773</v>
       </c>
       <c r="F14" t="n">
         <v>0.1916180600561676</v>
@@ -857,10 +857,10 @@
         <v>0.2187558898781865</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1191449610218494</v>
+        <v>0.1292249792990021</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2847248411662712</v>
+        <v>0.2919549061882778</v>
       </c>
       <c r="F15" t="n">
         <v>0.3846796646141455</v>
@@ -885,10 +885,10 @@
         <v>0.02696458339426198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03020945984404349</v>
+        <v>0.02809293044469783</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02360923736211412</v>
+        <v>0.02273509250191885</v>
       </c>
       <c r="F16" t="n">
         <v>0.02165901230367976</v>
@@ -913,10 +913,10 @@
         <v>0.02429993018275806</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02953495047054957</v>
+        <v>0.0272176130193381</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02222775084772873</v>
+        <v>0.02171339696252772</v>
       </c>
       <c r="F17" t="n">
         <v>0.01610291678083747</v>
@@ -941,10 +941,10 @@
         <v>0.6512493973018799</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6074757550360522</v>
+        <v>0.661689082772964</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8772907747558005</v>
+        <v>0.885269011872529</v>
       </c>
       <c r="F18" t="n">
         <v>0.7968931956536235</v>
@@ -969,10 +969,10 @@
         <v>0.8000465063814146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6027042231315896</v>
+        <v>0.6520434414183854</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8551714406326635</v>
+        <v>0.8615518575232746</v>
       </c>
       <c r="F19" t="n">
         <v>0.9196426315495604</v>
@@ -997,10 +997,10 @@
         <v>0.709131756335776</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5961277568977837</v>
+        <v>0.6244841369533161</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8531628272188968</v>
+        <v>0.8503372039248749</v>
       </c>
       <c r="F20" t="n">
         <v>0.8571048425844081</v>
@@ -2379,34 +2379,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-10' 'AC-17' 'AC-23' 'AC-25' 'CA-7' 'CA-9' 'IA-4' 'IA-6' 'IA-9' 'SC-5'
- 'SC-7' 'SC-10' 'SC-23' 'SC-42' 'SC-46' 'SC-51' 'SI-19']</t>
+          <t>['AC-2' 'AC-8' 'AC-9' 'AC-20' 'AC-25' 'AU-2' 'AU-3' 'AU-7' 'AU-13' 'CA-5'
+ 'CA-6' 'CA-7' 'CM-5' 'CM-7' 'IR-1' 'IR-2' 'IR-3' 'IR-5' 'IR-7' 'IR-8'
+ 'MP-3' 'MP-5' 'MP-6' 'MP-7' 'PE-6' 'PE-15' 'PE-20' 'PE-22' 'PL-4' 'PS-4'
+ 'PS-5' 'RA-10' 'SC-5' 'SC-15' 'SC-41' 'SI-4' 'SI-5' 'SI-7']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>272</v>
+        <v>1406</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1102418207681366</v>
       </c>
       <c r="G2" t="n">
-        <v>4522</v>
+        <v>9310</v>
       </c>
       <c r="H2" t="n">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0258735072976559</v>
+        <v>0.03297529538131042</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2147651006711409</v>
+        <v>0.3354978354978355</v>
       </c>
     </row>
     <row r="3">
@@ -2414,36 +2416,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-18' 'AC-19' 'AC-22' 'AC-24' 'IA-1'
- 'IA-2' 'IA-3' 'IA-5' 'IA-7' 'IA-8' 'IA-11' 'IA-12' 'MA-4' 'PE-4' 'PE-5'
- 'PM-17' 'RA-2' 'SA-5' 'SC-2' 'SC-3' 'SC-4' 'SC-8' 'SC-11' 'SC-37' 'SC-47'
- 'SI-15']</t>
+          <t>['AC-4' 'AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-16' 'AC-18' 'AC-19' 'AC-22'
+ 'AC-24' 'CP-9' 'IA-1' 'IA-2' 'IA-3' 'IA-5' 'IA-7' 'IA-8' 'IA-11' 'IA-12'
+ 'MA-4' 'PE-4' 'PE-5' 'PM-17' 'PT-6' 'RA-2' 'SA-5' 'SC-2' 'SC-3' 'SC-4'
+ 'SC-8' 'SC-11' 'SC-28' 'SC-32' 'SC-37' 'SC-47' 'SI-3' 'SI-15' 'SI-16']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>870</v>
+        <v>1406</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1057471264367816</v>
+        <v>0.1009957325746799</v>
       </c>
       <c r="G3" t="n">
-        <v>7590</v>
+        <v>9310</v>
       </c>
       <c r="H3" t="n">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02661396574440053</v>
+        <v>0.02771213748657358</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3129251700680272</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="4">
@@ -2451,35 +2453,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-6' 'AU-5' 'AU-6' 'CA-2' 'CM-11' 'CP-6' 'CP-7' 'CP-10' 'CP-12' 'MA-6'
- 'PE-17' 'PL-9' 'PM-31' 'RA-5' 'SC-24' 'SC-39' 'SI-2' 'SI-8' 'SI-13'
- 'SI-17']</t>
+          <t>['AC-1' 'AT-2' 'AT-4' 'CA-1' 'CM-3' 'CM-4' 'CM-9' 'CP-2' 'IR-4' 'IR-6'
+ 'MA-1' 'MA-2' 'MA-5' 'MP-1' 'PE-8' 'PE-19' 'PE-23' 'PL-1' 'PL-2' 'PL-8'
+ 'PL-10' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-12'
+ 'PM-14' 'PM-15' 'PM-18' 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30'
+ 'PS-1' 'PS-7' 'PS-8' 'RA-1' 'RA-3' 'RA-7' 'RA-9' 'SA-1' 'SA-2' 'SA-3'
+ 'SA-4' 'SC-1' 'SC-35' 'SC-48' 'SR-1' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7'
+ 'SR-8']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>380</v>
+        <v>3540</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>624</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.176271186440678</v>
       </c>
       <c r="G4" t="n">
-        <v>5260</v>
+        <v>13380</v>
       </c>
       <c r="H4" t="n">
-        <v>126</v>
+        <v>409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02395437262357415</v>
+        <v>0.03056801195814649</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.6040658276863504</v>
       </c>
     </row>
     <row r="5">
@@ -2487,36 +2493,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-4' 'AC-9' 'AC-20' 'AU-2' 'AU-3' 'AU-7' 'AU-9' 'AU-13' 'CA-3' 'CA-5'
- 'CA-6' 'CM-5' 'IR-5' 'IR-7' 'IR-8' 'MA-3' 'MA-7' 'MP-6' 'PE-6' 'PE-20'
- 'PE-21' 'PS-4' 'PT-3' 'RA-10' 'SC-13' 'SC-28' 'SC-32' 'SC-40' 'SI-3'
- 'SI-4' 'SI-5' 'SI-7' 'SR-3']</t>
+          <t>['AU-8' 'CM-6' 'CM-8' 'PE-2' 'PE-10' 'PE-11' 'PE-12' 'PE-16' 'PE-18'
+ 'PS-2' 'PS-9' 'SA-20' 'SA-22' 'SC-25' 'SC-29' 'SC-30' 'SC-36' 'SC-43'
+ 'SC-45' 'SI-20' 'SI-23']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1056</v>
+        <v>420</v>
       </c>
       <c r="E5" t="n">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1117424242424242</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="G5" t="n">
-        <v>8250</v>
+        <v>5502</v>
       </c>
       <c r="H5" t="n">
-        <v>323</v>
+        <v>101</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03915151515151515</v>
+        <v>0.01835696110505271</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2675736961451247</v>
+        <v>0.2518518518518518</v>
       </c>
     </row>
     <row r="6">
@@ -2524,36 +2529,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-8' 'AC-16' 'AU-8' 'AU-11' 'AU-12' 'CM-7' 'CM-8' 'MP-2' 'MP-3'
- 'MP-5' 'MP-7' 'PE-2' 'PE-10' 'PE-11' 'PE-12' 'PE-15' 'PE-16' 'PE-18'
- 'PE-22' 'PL-4' 'PS-2' 'PS-5' 'PS-9' 'SA-20' 'SA-22' 'SC-15' 'SC-30'
- 'SC-36' 'SC-41' 'SC-43' 'SC-45' 'SI-20' 'SI-23']</t>
+          <t>['AC-6' 'AU-5' 'AU-6' 'CA-2' 'CM-11' 'CP-6' 'CP-7' 'CP-10' 'CP-12' 'MA-6'
+ 'MP-2' 'PE-17' 'PL-9' 'PM-31' 'RA-5' 'SA-9' 'SC-24' 'SC-39' 'SI-2' 'SI-8'
+ 'SI-13' 'SI-17' 'SR-12']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1122</v>
+        <v>506</v>
       </c>
       <c r="E6" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06506238859180036</v>
+        <v>0.07905138339920949</v>
       </c>
       <c r="G6" t="n">
-        <v>8466</v>
+        <v>5980</v>
       </c>
       <c r="H6" t="n">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02031656035908339</v>
+        <v>0.02642140468227425</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2979591836734694</v>
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="7">
@@ -2561,37 +2565,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-5' 'AT-1' 'AT-3' 'AT-6' 'AU-1' 'AU-14' 'CM-1' 'CM-9' 'CM-12' 'CP-1'
- 'CP-3' 'CP-8' 'CP-11' 'CP-13' 'IA-10' 'IR-1' 'IR-2' 'IR-3' 'IR-9' 'MP-8'
- 'PE-1' 'PE-9' 'PE-13' 'PE-14' 'PL-11' 'PM-5' 'PM-21' 'PM-22' 'PM-25'
- 'PS-3' 'PS-6' 'PT-1' 'PT-2' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SA-15' 'SA-16'
- 'SC-38' 'SI-1' 'SI-12' 'SI-18' 'SI-22' 'SR-6' 'SR-9' 'SR-10']</t>
+          <t>['AC-5' 'AT-3' 'AU-1' 'AU-11' 'AU-12' 'AU-14' 'CM-1' 'CM-12' 'PE-1' 'PE-9'
+ 'PE-13' 'PE-14' 'PL-7' 'PL-11' 'PM-5' 'PM-21' 'PM-22' 'PM-25' 'PS-3'
+ 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SA-15' 'SC-38' 'SC-42'
+ 'SI-1' 'SI-12' 'SI-18' 'SI-19' 'SR-9' 'SR-10']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2162</v>
+        <v>1190</v>
       </c>
       <c r="E7" t="n">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1211840888066605</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="G7" t="n">
-        <v>11092</v>
+        <v>8680</v>
       </c>
       <c r="H7" t="n">
-        <v>384</v>
+        <v>265</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03461954561846376</v>
+        <v>0.03052995391705069</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4055727554179567</v>
+        <v>0.4251626898047722</v>
       </c>
     </row>
     <row r="8">
@@ -2599,34 +2602,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-21' 'AT-2' 'AU-4' 'AU-16' 'CM-3' 'CM-4' 'IR-4' 'MA-2' 'MP-4' 'PE-8'
- 'PL-10' 'PM-12' 'PM-16' 'RA-3' 'SC-35' 'SC-48' 'SR-1' 'SR-8']</t>
+          <t>['AT-1' 'AT-6' 'CA-8' 'CP-1' 'CP-3' 'CP-4' 'CP-8' 'CP-11' 'CP-13' 'IA-10'
+ 'IR-9' 'SA-11' 'SA-16' 'SC-18' 'SI-22']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>306</v>
+        <v>210</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1437908496732026</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="G8" t="n">
-        <v>4770</v>
+        <v>4020</v>
       </c>
       <c r="H8" t="n">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03522012578616352</v>
+        <v>0.02761194029850746</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2075471698113208</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="9">
@@ -2634,34 +2637,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-3' 'AU-10' 'CM-6' 'CM-10' 'PM-32' 'SA-17' 'SC-25' 'SC-29' 'SC-34'
- 'SC-49' 'SC-50' 'SI-10' 'SI-14' 'SI-21' 'SR-4']</t>
+          <t>['AC-10' 'AC-17' 'AC-23' 'IA-4' 'IA-6' 'IA-9' 'SC-7' 'SC-10' 'SC-23'
+ 'SC-46' 'SC-51']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="G9" t="n">
-        <v>4020</v>
+        <v>2992</v>
       </c>
       <c r="H9" t="n">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0263681592039801</v>
+        <v>0.02606951871657754</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="10">
@@ -2669,34 +2672,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['CA-8' 'CP-4' 'CP-9' 'PE-3' 'PM-6' 'SA-8' 'SA-11' 'SA-23' 'SC-12' 'SC-16'
- 'SC-17' 'SC-18' 'SI-6' 'SI-16']</t>
+          <t>['CA-3' 'CA-9' 'CM-2' 'CM-13' 'CM-14' 'MA-3' 'MA-7' 'PE-3' 'PM-6' 'SA-8'
+ 'SA-10' 'SA-21' 'SA-23' 'SC-12' 'SC-16' 'SC-17' 'SI-6' 'SR-11']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1593406593406593</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="G10" t="n">
-        <v>3766</v>
+        <v>4770</v>
       </c>
       <c r="H10" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03053637812002124</v>
+        <v>0.02683438155136268</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2013888888888889</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="11">
@@ -2704,38 +2707,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-4' 'CA-1' 'CM-2' 'CM-13' 'CM-14' 'CP-2' 'IR-6' 'MA-1' 'MA-5'
- 'MP-1' 'PE-19' 'PE-23' 'PL-1' 'PL-2' 'PL-7' 'PL-8' 'PM-1' 'PM-2' 'PM-3'
- 'PM-4' 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-14' 'PM-15' 'PM-18'
- 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PS-1' 'PS-7' 'PS-8'
- 'PT-6' 'RA-1' 'RA-7' 'RA-9' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-9' 'SA-10'
- 'SA-21' 'SC-1' 'SR-2' 'SR-5' 'SR-7' 'SR-11' 'SR-12']</t>
+          <t>['AC-3' 'AC-21' 'AU-4' 'AU-9' 'AU-10' 'AU-16' 'CM-10' 'MP-4' 'MP-8'
+ 'PE-21' 'PM-7' 'PM-16' 'PM-32' 'PS-6' 'SA-17' 'SC-13' 'SC-34' 'SC-40'
+ 'SC-49' 'SC-50' 'SI-10' 'SI-14' 'SI-21' 'SR-4']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2970</v>
+        <v>552</v>
       </c>
       <c r="E11" t="n">
-        <v>469</v>
+        <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1579124579124579</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>12540</v>
+        <v>6216</v>
       </c>
       <c r="H11" t="n">
-        <v>410</v>
+        <v>156</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03269537480063796</v>
+        <v>0.02509652509652509</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5335608646188851</v>
+        <v>0.2277227722772277</v>
       </c>
     </row>
   </sheetData>
@@ -2821,30 +2821,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'MP-8' 'PE-16' 'PM-32' 'RA-9'
- 'SA-20' 'SR-4']</t>
+          <t>['AC-3' 'AU-10' 'CM-5' 'PE-3' 'PE-6' 'PE-8' 'PM-32' 'SA-20' 'SC-4' 'SI-10'
+ 'SI-15' 'SR-4']</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>132</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="G2" t="n">
         <v>3252</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01476014760147601</v>
+        <v>0.03259532595325954</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.2262773722627737</v>
       </c>
     </row>
     <row r="3">
@@ -2852,34 +2852,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['CA-8' 'CP-2' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11'
- 'CP-12' 'CP-13' 'PE-17' 'SC-24' 'SI-16' 'SI-17' 'SI-22']</t>
+          <t>['AU-2' 'AU-3' 'AU-6' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14' 'CM-14' 'IR-6'
+ 'PL-9' 'SC-45' 'SI-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="E3" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2169117647058824</v>
+        <v>0.2582417582417583</v>
       </c>
       <c r="G3" t="n">
-        <v>4522</v>
+        <v>3766</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01570101724900487</v>
+        <v>0.02257036643653744</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4538461538461538</v>
+        <v>0.3560606060606061</v>
       </c>
     </row>
     <row r="4">
@@ -2887,35 +2887,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['AC-5' 'AC-8' 'PE-2' 'PE-16' 'PL-4' 'PS-3' 'PS-4' 'PS-5' 'PS-6']</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>72</v>
+      </c>
+      <c r="E4" t="n">
         <v>21</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['AC-3' 'AT-3' 'AT-6' 'AU-3' 'IR-9' 'PE-8' 'PL-11' 'PM-5' 'PM-21' 'PM-22'
- 'PM-25' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SC-42' 'SI-12' 'SI-18'
- 'SI-19']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>420</v>
-      </c>
-      <c r="E4" t="n">
-        <v>146</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.3476190476190476</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>5502</v>
+        <v>2466</v>
       </c>
       <c r="H4" t="n">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.01743714517437145</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5367647058823529</v>
+        <v>0.328125</v>
       </c>
     </row>
     <row r="5">
@@ -2923,34 +2921,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-8' 'AC-20' 'CA-3' 'CA-9' 'PL-4' 'PS-3' 'PS-5' 'PS-6' 'PS-7' 'PS-8'
- 'SA-9' 'SI-5' 'SR-12']</t>
+          <t>['PM-6' 'SA-8' 'SA-23' 'SC-15' 'SC-41' 'SC-42' 'SI-6' 'SI-14' 'SI-21']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="G5" t="n">
-        <v>3510</v>
+        <v>2466</v>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.01743714517437145</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.2456140350877193</v>
       </c>
     </row>
     <row r="6">
@@ -2958,34 +2955,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['CM-7' 'PE-9' 'PE-13' 'PE-14' 'PE-15' 'PE-22' 'RA-10' 'SC-15' 'SC-41'
- 'SI-4' 'SI-13' 'SI-20' 'SR-10']</t>
+          <t>['CM-13' 'PL-8' 'PM-7' 'RA-9' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-9' 'SA-10'
+ 'SA-11' 'SA-15' 'SA-17' 'SA-21' 'SC-25' 'SC-29' 'SR-3' 'SR-5' 'SR-9']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.3187134502923977</v>
       </c>
       <c r="G6" t="n">
-        <v>3510</v>
+        <v>5016</v>
       </c>
       <c r="H6" t="n">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01623931623931624</v>
+        <v>0.03468899521531101</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.3851590106007067</v>
       </c>
     </row>
     <row r="7">
@@ -2993,34 +2990,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AU-2' 'AU-6' 'AU-7' 'AU-12' 'AU-14' 'IR-2' 'IR-3' 'IR-4' 'IR-6' 'IR-8'
- 'PE-6' 'PL-9' 'SC-35' 'SC-48' 'SI-3' 'SI-7']</t>
+          <t>['AC-2' 'AC-9' 'AC-25' 'AU-13' 'CA-2' 'CA-5' 'CA-7' 'CM-2' 'CM-6' 'IR-5'
+ 'IR-7' 'PE-20' 'PM-31' 'RA-5' 'RA-10' 'SC-5' 'SI-2' 'SI-4' 'SI-5' 'SI-8']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>240</v>
+        <v>380</v>
       </c>
       <c r="E7" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3083333333333333</v>
+        <v>0.2289473684210526</v>
       </c>
       <c r="G7" t="n">
-        <v>4272</v>
+        <v>5260</v>
       </c>
       <c r="H7" t="n">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03464419475655431</v>
+        <v>0.02984790874524715</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3565573770491803</v>
       </c>
     </row>
     <row r="8">
@@ -3028,34 +3025,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-21' 'AT-2' 'AT-4' 'PM-12' 'PM-15' 'PM-16' 'PM-28' 'PS-2' 'PS-9'
- 'RA-7']</t>
+          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IR-1' 'IR-8'
+ 'MA-1' 'MP-1' 'PE-1' 'PE-19' 'PL-1' 'PL-2' 'PM-1' 'PM-4' 'PM-9' 'PM-11'
+ 'PM-17' 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'PT-6' 'RA-1' 'SA-1' 'SC-1' 'SI-1'
+ 'SR-1']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>90</v>
+        <v>930</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>686</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.7376344086021506</v>
       </c>
       <c r="G8" t="n">
-        <v>2730</v>
+        <v>7812</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.7605321507760532</v>
       </c>
     </row>
     <row r="9">
@@ -3063,33 +3062,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-9' 'IA-5' 'IA-6' 'IA-10' 'IA-11' 'SC-17']</t>
+          <t>['AC-19' 'AC-20' 'AC-21' 'CA-6' 'CM-10' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6'
+ 'MP-7' 'MP-8' 'PM-16' 'SC-43']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3241758241758242</v>
       </c>
       <c r="G9" t="n">
-        <v>1932</v>
+        <v>3766</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01293995859213251</v>
+        <v>0.01672862453531598</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.4836065573770492</v>
       </c>
     </row>
     <row r="10">
@@ -3097,33 +3097,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['AC-12' 'AU-10' 'CM-10' 'PS-4' 'SC-10' 'SI-10' 'SI-14' 'SI-15' 'SI-21']</t>
+          <t>['AC-6' 'AC-16' 'AC-22' 'AC-24' 'CM-7' 'CM-11' 'PE-4' 'PE-5' 'PE-22'
+ 'RA-2' 'SC-18' 'SC-37']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="G10" t="n">
-        <v>2466</v>
+        <v>3252</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008110300081103</v>
+        <v>0.03044280442804428</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="11">
@@ -3131,33 +3132,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AC-5' 'AC-14' 'AU-4' 'AU-5' 'AU-11' 'AU-16' 'IA-4' 'IA-8' 'IA-9']</t>
+          <t>['CM-12' 'PM-3' 'PM-5' 'PM-8' 'PM-20' 'PM-21' 'PM-22' 'PM-25' 'PT-2'
+ 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SI-12' 'SI-18' 'SI-19']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="G11" t="n">
-        <v>2466</v>
+        <v>4522</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0186536901865369</v>
+        <v>0.01946041574524547</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="12">
@@ -3165,34 +3167,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['AC-10' 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'PE-21' 'SC-11' 'SC-13'
- 'SC-23' 'SC-40' 'SC-47']</t>
+          <t>['AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-17' 'AC-18' 'IA-2' 'IA-3' 'IA-4'
+ 'IA-5' 'IA-6' 'IA-8' 'IA-9' 'IA-12' 'SC-10' 'SC-17' 'SC-23']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2243589743589744</v>
+        <v>0.2867647058823529</v>
       </c>
       <c r="G12" t="n">
-        <v>3510</v>
+        <v>4522</v>
       </c>
       <c r="H12" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01452991452991453</v>
+        <v>0.0145953118089341</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4069767441860465</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -3200,34 +3202,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['AC-4' 'AC-23' 'AU-9' 'SC-2' 'SC-3' 'SC-4' 'SC-7' 'SC-32' 'SC-34' 'SC-39'
- 'SC-46' 'SC-49' 'SC-50' 'SC-51' 'SI-23']</t>
+          <t>['CP-8' 'CP-11' 'CP-13' 'IA-10' 'IA-11' 'SC-11' 'SC-47' 'SI-22']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3047619047619048</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G13" t="n">
-        <v>4020</v>
+        <v>2200</v>
       </c>
       <c r="H13" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02114427860696518</v>
+        <v>0.005909090909090909</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4295302013422819</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="14">
@@ -3235,34 +3236,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['AC-16' 'PL-2' 'PL-7' 'PL-8' 'PM-3' 'PM-7' 'PM-8' 'PM-11' 'PT-6' 'SA-2'
- 'SA-3' 'SC-38' 'SR-9']</t>
+          <t>['CM-4' 'PM-2' 'PM-10' 'PM-14' 'PM-19' 'PM-28' 'PM-29' 'PM-30' 'PS-2'
+ 'PS-9' 'RA-3' 'RA-7' 'SR-2' 'SR-6']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="E14" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3974358974358974</v>
+        <v>0.2362637362637363</v>
       </c>
       <c r="G14" t="n">
-        <v>3510</v>
+        <v>3766</v>
       </c>
       <c r="H14" t="n">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03504273504273504</v>
+        <v>0.02734997344662772</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3351351351351352</v>
+        <v>0.2945205479452055</v>
       </c>
     </row>
     <row r="15">
@@ -3270,35 +3271,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IA-7' 'IR-1'
- 'MA-1' 'MP-1' 'PE-1' 'PE-19' 'PE-23' 'PL-1' 'PM-1' 'PM-4' 'PM-9' 'PM-14'
- 'PM-17' 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'RA-1' 'SA-1' 'SC-1' 'SI-1' 'SR-1']</t>
+          <t>['CA-3' 'CA-9' 'CM-3' 'MA-4' 'PL-10' 'PL-11' 'SC-8' 'SC-12' 'SC-13'
+ 'SC-16' 'SC-28' 'SC-30' 'SC-40' 'SR-12']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>870</v>
+        <v>182</v>
       </c>
       <c r="E15" t="n">
-        <v>602</v>
+        <v>51</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6919540229885057</v>
+        <v>0.2802197802197802</v>
       </c>
       <c r="G15" t="n">
-        <v>7590</v>
+        <v>3766</v>
       </c>
       <c r="H15" t="n">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02793148880105402</v>
+        <v>0.02283590015932023</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7395577395577395</v>
+        <v>0.3722627737226277</v>
       </c>
     </row>
     <row r="16">
@@ -3306,34 +3306,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['CA-2' 'CM-3' 'CM-4' 'PL-10' 'PM-30' 'PM-31' 'RA-2' 'RA-3' 'SC-25'
- 'SC-29' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
+          <t>['CA-8' 'CP-2' 'CP-4' 'CP-6' 'CP-7' 'CP-9' 'CP-10' 'IA-7' 'IR-3' 'PE-12'
+ 'PE-17' 'SI-16']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="E16" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2458333333333333</v>
+        <v>0.3106060606060606</v>
       </c>
       <c r="G16" t="n">
-        <v>4272</v>
+        <v>3252</v>
       </c>
       <c r="H16" t="n">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03160112359550562</v>
+        <v>0.02490774907749077</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3041237113402062</v>
+        <v>0.3360655737704918</v>
       </c>
     </row>
     <row r="17">
@@ -3341,34 +3341,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-6' 'AC-11' 'AC-17' 'AC-18' 'CM-5' 'CM-6' 'CM-11' 'IA-2' 'IA-3'
- 'IA-12' 'SC-43' 'SI-2' 'SI-8']</t>
+          <t>['AC-10' 'AU-4' 'AU-5' 'AU-9' 'AU-16' 'SC-34' 'SC-51' 'SI-13']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="E17" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3241758241758242</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="G17" t="n">
-        <v>3766</v>
+        <v>2200</v>
       </c>
       <c r="H17" t="n">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03425385023898035</v>
+        <v>0.01863636363636363</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3138297872340425</v>
+        <v>0.2678571428571428</v>
       </c>
     </row>
     <row r="18">
@@ -3376,34 +3375,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['CM-13' 'CM-14' 'PM-6' 'SA-4' 'SA-5' 'SA-8' 'SA-10' 'SA-11' 'SA-15'
- 'SA-16' 'SA-17' 'SA-21' 'SA-23' 'SC-16' 'SC-18' 'SI-6']</t>
+          <t>['CM-8' 'PE-9' 'PE-10' 'PE-11' 'PE-13' 'PE-14' 'PE-15' 'PE-18' 'PE-23'
+ 'SA-22' 'SC-36' 'SI-20' 'SR-10' 'SR-11']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2958333333333333</v>
+        <v>0.1483516483516484</v>
       </c>
       <c r="G18" t="n">
-        <v>4272</v>
+        <v>3766</v>
       </c>
       <c r="H18" t="n">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03464419475655431</v>
+        <v>0.01593202336696761</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3242009132420091</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="19">
@@ -3411,33 +3410,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['CA-6' 'PE-10' 'PE-11' 'PE-12' 'PM-2' 'PM-10' 'PM-19' 'PM-20' 'PM-29']</t>
+          <t>['MA-2' 'MA-3' 'MA-5' 'MA-6' 'MA-7' 'PL-7' 'PS-7' 'PS-8' 'SC-38' 'SR-7']</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="G19" t="n">
-        <v>2466</v>
+        <v>2730</v>
       </c>
       <c r="H19" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01175993511759935</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="20">
@@ -3445,34 +3444,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['AC-25' 'AU-13' 'CA-5' 'CA-7' 'CM-2' 'CM-8' 'CM-12' 'IR-5' 'IR-7' 'PE-20'
- 'RA-5' 'SA-22' 'SC-5' 'SR-11']</t>
+          <t>['AC-4' 'AC-23' 'CP-12' 'PE-21' 'SC-2' 'SC-3' 'SC-7' 'SC-24' 'SC-32'
+ 'SC-39' 'SC-46' 'SC-49' 'SC-50' 'SI-17' 'SI-23']</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2802197802197802</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G20" t="n">
-        <v>3766</v>
+        <v>4020</v>
       </c>
       <c r="H20" t="n">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03292618162506639</v>
+        <v>0.01641791044776119</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2914285714285714</v>
+        <v>0.459016393442623</v>
       </c>
     </row>
     <row r="21">
@@ -3480,34 +3479,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['AC-19' 'AC-22' 'AC-24' 'AU-8' 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-18' 'SC-8'
- 'SC-12' 'SC-28' 'SC-30' 'SC-36' 'SC-37' 'SC-45']</t>
+          <t>['AT-2' 'AT-3' 'AT-4' 'AT-6' 'CP-3' 'IR-2' 'IR-4' 'IR-9' 'PM-12' 'PM-15'
+ 'SA-16' 'SC-35' 'SC-48' 'SI-3']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.3021978021978022</v>
       </c>
       <c r="G21" t="n">
-        <v>4272</v>
+        <v>3766</v>
       </c>
       <c r="H21" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0227059925093633</v>
+        <v>0.02124269782262347</v>
       </c>
       <c r="J21" t="n">
-        <v>0.348993288590604</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
   </sheetData>

--- a/regulations outputs/in family connection statistics test new NLP based.xlsx
+++ b/regulations outputs/in family connection statistics test new NLP based.xlsx
@@ -490,10 +490,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>20</v>
@@ -518,22 +518,22 @@
         <v>14.9</v>
       </c>
       <c r="C3" t="n">
-        <v>25.72727272727273</v>
+        <v>33.11111111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>28.3</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>14.15</v>
+        <v>14.9</v>
       </c>
       <c r="F3" t="n">
-        <v>14.15</v>
+        <v>14.9</v>
       </c>
       <c r="G3" t="n">
-        <v>47.16666666666666</v>
+        <v>59.6</v>
       </c>
       <c r="H3" t="n">
-        <v>14.15</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="4">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>23.5</v>
+        <v>22.5</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -574,22 +574,22 @@
         <v>10.18719526505805</v>
       </c>
       <c r="C5" t="n">
-        <v>21.02898432683286</v>
+        <v>17.85668253374941</v>
       </c>
       <c r="D5" t="n">
-        <v>14.60631522473907</v>
+        <v>12.41577686459913</v>
       </c>
       <c r="E5" t="n">
-        <v>5.22418465056107</v>
+        <v>5.928521605008505</v>
       </c>
       <c r="F5" t="n">
-        <v>17.07036521053527</v>
+        <v>20.34931784709515</v>
       </c>
       <c r="G5" t="n">
-        <v>110.1461150775036</v>
+        <v>128.2392295672428</v>
       </c>
       <c r="H5" t="n">
-        <v>57.16483552895637</v>
+        <v>58.40502862272267</v>
       </c>
     </row>
     <row r="6">
@@ -602,19 +602,19 @@
         <v>9.5</v>
       </c>
       <c r="C6" t="n">
-        <v>28.5</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5</v>
+        <v>15.75</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F6" t="n">
-        <v>13.25</v>
+        <v>9.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -630,22 +630,22 @@
         <v>298</v>
       </c>
       <c r="C7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="D7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H7" t="n">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
@@ -658,22 +658,22 @@
         <v>1.462620437943976</v>
       </c>
       <c r="C8" t="n">
-        <v>1.223419653912856</v>
+        <v>1.854270021798876</v>
       </c>
       <c r="D8" t="n">
-        <v>1.937518091631187</v>
+        <v>2.000143334094553</v>
       </c>
       <c r="E8" t="n">
-        <v>2.708556635432155</v>
+        <v>2.513274133539845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8289219255407075</v>
+        <v>0.7322112766609011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4282190673132514</v>
+        <v>0.4647563791604696</v>
       </c>
       <c r="H8" t="n">
-        <v>0.247529794655535</v>
+        <v>0.2551150192263258</v>
       </c>
     </row>
     <row r="9">
@@ -686,22 +686,22 @@
         <v>1.263157894736842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8421052631578947</v>
+        <v>1.695652173913043</v>
       </c>
       <c r="D9" t="n">
-        <v>1.27027027027027</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5283018867924528</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="G9" t="n">
-        <v>2.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C10" t="n">
-        <v>1458</v>
+        <v>1137</v>
       </c>
       <c r="D10" t="n">
-        <v>1331</v>
+        <v>1040</v>
       </c>
       <c r="E10" t="n">
-        <v>1584</v>
+        <v>1542</v>
       </c>
       <c r="F10" t="n">
-        <v>1774</v>
+        <v>1745</v>
       </c>
       <c r="G10" t="n">
-        <v>3265</v>
+        <v>3121</v>
       </c>
       <c r="H10" t="n">
-        <v>3263</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="11">
@@ -739,25 +739,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2454</v>
+        <v>2307</v>
       </c>
       <c r="C11" t="n">
-        <v>1852</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="n">
-        <v>1979</v>
+        <v>2114</v>
       </c>
       <c r="E11" t="n">
-        <v>1726</v>
+        <v>1612</v>
       </c>
       <c r="F11" t="n">
-        <v>1536</v>
+        <v>1409</v>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -767,25 +767,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2586102719033233</v>
+        <v>0.2685478757133798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4404833836858006</v>
+        <v>0.3604946100190234</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4021148036253777</v>
+        <v>0.3297400126823082</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4785498489425982</v>
+        <v>0.4889029803424223</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5359516616314199</v>
+        <v>0.5532656943563729</v>
       </c>
       <c r="G12" t="n">
-        <v>0.986404833836858</v>
+        <v>0.9895370957514268</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9858006042296072</v>
+        <v>0.971147748890298</v>
       </c>
     </row>
     <row r="13">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2498547420146545</v>
+        <v>0.2584093099286459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3214727722893929</v>
+        <v>0.342827203418992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3081391109208169</v>
+        <v>0.2480566366201752</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3890579446696782</v>
+        <v>0.4089254421701348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3963493621651885</v>
+        <v>0.3689884358186694</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4996947496947497</v>
+        <v>0.4547555129434324</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1796640195479536</v>
+        <v>0.301829942561412</v>
       </c>
     </row>
     <row r="14">
@@ -823,25 +823,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1400065423617926</v>
+        <v>0.138534510958456</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1276707530647986</v>
+        <v>0.09381188118811881</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1379846568525814</v>
+        <v>0.1182086837917709</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3735849056603773</v>
+        <v>0.3205821205821206</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1916180600561676</v>
+        <v>0.1452955870108243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04428559802512004</v>
+        <v>0.03749219162942675</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0495821303753229</v>
+        <v>0.04442091829335499</v>
       </c>
     </row>
     <row r="15">
@@ -851,25 +851,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2954764037821187</v>
+        <v>0.2865623553952853</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2187558898781865</v>
+        <v>0.2066220797856007</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1292249792990021</v>
+        <v>0.102314794343608</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2919549061882778</v>
+        <v>0.2638464163115866</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3846796646141455</v>
+        <v>0.3072104718402833</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5073642464365821</v>
+        <v>0.5074826989619378</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5915714169909209</v>
+        <v>0.6383926814952415</v>
       </c>
     </row>
     <row r="16">
@@ -879,25 +879,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02978444509175648</v>
+        <v>0.02800029129041655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02696458339426198</v>
+        <v>0.02640536223915377</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02809293044469783</v>
+        <v>0.02652180458674161</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02273509250191885</v>
+        <v>0.0192601796979545</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02165901230367976</v>
+        <v>0.01841926375235306</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006085526315789474</v>
+        <v>0.006271379703534778</v>
       </c>
       <c r="H16" t="n">
-        <v>0.002786510431551872</v>
+        <v>0.004654255319148936</v>
       </c>
     </row>
     <row r="17">
@@ -907,25 +907,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03241813105165856</v>
+        <v>0.03016291737955644</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02429993018275806</v>
+        <v>0.02447269668943531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0272176130193381</v>
+        <v>0.02598169317049252</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02171339696252772</v>
+        <v>0.01842203390478913</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01610291678083747</v>
+        <v>0.01464045210228015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006298308981740005</v>
+        <v>0.006787087069475201</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002207103351903274</v>
+        <v>0.005463571559027583</v>
       </c>
     </row>
     <row r="18">
@@ -935,25 +935,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6491634151087693</v>
+        <v>0.663730452586452</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6512493973018799</v>
+        <v>0.5607059106270702</v>
       </c>
       <c r="D18" t="n">
-        <v>0.661689082772964</v>
+        <v>0.6335007933175856</v>
       </c>
       <c r="E18" t="n">
-        <v>0.885269011872529</v>
+        <v>0.8866522520470137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7968931956536235</v>
+        <v>0.7749835929179382</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7583724248598105</v>
+        <v>0.7133972611229126</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8935809526992319</v>
+        <v>0.810321391590021</v>
       </c>
     </row>
     <row r="19">
@@ -963,25 +963,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8022648894218831</v>
+        <v>0.8095326140835051</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8000465063814146</v>
+        <v>0.7882020782751966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6520434414183854</v>
+        <v>0.594974208976111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8615518575232746</v>
+        <v>0.8694715339906565</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9196426315495604</v>
+        <v>0.9090233955339345</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9754768615492686</v>
+        <v>0.9736049550106737</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9925659036954417</v>
+        <v>0.9830285982838252</v>
       </c>
     </row>
     <row r="20">
@@ -991,25 +991,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7214688335408904</v>
+        <v>0.7384818227337072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.709131756335776</v>
+        <v>0.6119736547216044</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6244841369533161</v>
+        <v>0.5861665256263872</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8503372039248749</v>
+        <v>0.8523763859402594</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8571048425844081</v>
+        <v>0.8575089855185819</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9387619993219153</v>
+        <v>0.9258307447688207</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9709265619060279</v>
+        <v>0.968984664955067</v>
       </c>
     </row>
   </sheetData>
@@ -1115,13 +1115,13 @@
         <v>6325</v>
       </c>
       <c r="H2" t="n">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03573122529644269</v>
+        <v>0.0333596837944664</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2491694352159468</v>
+        <v>0.2622377622377622</v>
       </c>
     </row>
     <row r="3">
@@ -1142,22 +1142,22 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>1465</v>
       </c>
       <c r="H3" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0348122866894198</v>
+        <v>0.03344709897610922</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1694915254237288</v>
       </c>
     </row>
     <row r="4">
@@ -1179,22 +1179,22 @@
         <v>210</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="G4" t="n">
         <v>4245</v>
       </c>
       <c r="H4" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02544169611307421</v>
+        <v>0.02379269729093051</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3164556962025317</v>
+        <v>0.3398692810457516</v>
       </c>
     </row>
     <row r="5">
@@ -1215,22 +1215,22 @@
         <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>0.25</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="G5" t="n">
         <v>2320</v>
       </c>
       <c r="H5" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04267241379310345</v>
+        <v>0.03620689655172414</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1238938053097345</v>
+        <v>0.134020618556701</v>
       </c>
     </row>
     <row r="6">
@@ -1252,22 +1252,22 @@
         <v>182</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2252747252747253</v>
+        <v>0.2472527472527473</v>
       </c>
       <c r="G6" t="n">
         <v>3976</v>
       </c>
       <c r="H6" t="n">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04879275653923541</v>
+        <v>0.03797786720321931</v>
       </c>
       <c r="J6" t="n">
-        <v>0.174468085106383</v>
+        <v>0.2295918367346939</v>
       </c>
     </row>
     <row r="7">
@@ -1289,22 +1289,22 @@
         <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="G7" t="n">
         <v>3432</v>
       </c>
       <c r="H7" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3669064748201439</v>
+        <v>0.3700787401574803</v>
       </c>
     </row>
     <row r="8">
@@ -1335,13 +1335,13 @@
         <v>3432</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02185314685314685</v>
+        <v>0.0236013986013986</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3852459016393442</v>
+        <v>0.3671875</v>
       </c>
     </row>
     <row r="9">
@@ -1362,22 +1362,22 @@
         <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G9" t="n">
         <v>2601</v>
       </c>
       <c r="H9" t="n">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04767397154940407</v>
+        <v>0.04459823144944252</v>
       </c>
       <c r="J9" t="n">
-        <v>0.303370786516854</v>
+        <v>0.3095238095238095</v>
       </c>
     </row>
     <row r="10">
@@ -1398,22 +1398,22 @@
         <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="G10" t="n">
         <v>2037</v>
       </c>
       <c r="H10" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02700049091801669</v>
+        <v>0.02896416298478154</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.2804878048780488</v>
       </c>
     </row>
     <row r="11">
@@ -1434,22 +1434,22 @@
         <v>56</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="G11" t="n">
         <v>2320</v>
       </c>
       <c r="H11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02068965517241379</v>
+        <v>0.01810344827586207</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.4084507042253521</v>
       </c>
     </row>
     <row r="12">
@@ -1472,22 +1472,22 @@
         <v>462</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.1147186147186147</v>
       </c>
       <c r="G12" t="n">
         <v>6072</v>
       </c>
       <c r="H12" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01366930171277997</v>
+        <v>0.01416337285902503</v>
       </c>
       <c r="J12" t="n">
-        <v>0.366412213740458</v>
+        <v>0.381294964028777</v>
       </c>
     </row>
     <row r="13">
@@ -1517,13 +1517,13 @@
         <v>2320</v>
       </c>
       <c r="H13" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0478448275862069</v>
+        <v>0.04396551724137931</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08264462809917356</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -1547,22 +1547,22 @@
         <v>992</v>
       </c>
       <c r="E14" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09979838709677419</v>
+        <v>0.08770161290322581</v>
       </c>
       <c r="G14" t="n">
         <v>8512</v>
       </c>
       <c r="H14" t="n">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02819548872180451</v>
+        <v>0.02443609022556391</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.2949152542372881</v>
       </c>
     </row>
     <row r="15">
@@ -1583,22 +1583,22 @@
         <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="G15" t="n">
         <v>2601</v>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02306805074971165</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1780821917808219</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="16">
@@ -1619,22 +1619,22 @@
         <v>56</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G16" t="n">
         <v>2320</v>
       </c>
       <c r="H16" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04568965517241379</v>
+        <v>0.04181034482758621</v>
       </c>
       <c r="J16" t="n">
-        <v>0.196969696969697</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="17">
@@ -1655,22 +1655,22 @@
         <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="G17" t="n">
         <v>2601</v>
       </c>
       <c r="H17" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03690888119953864</v>
+        <v>0.03613994617454825</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.06930693069306931</v>
       </c>
     </row>
     <row r="18">
@@ -1692,22 +1692,22 @@
         <v>240</v>
       </c>
       <c r="E18" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4083333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>4512</v>
       </c>
       <c r="H18" t="n">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04366134751773049</v>
+        <v>0.0398936170212766</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3322033898305085</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="19">
@@ -1733,22 +1733,22 @@
         <v>2162</v>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04301572617946346</v>
+        <v>0.05041628122109158</v>
       </c>
       <c r="G19" t="n">
         <v>11797</v>
       </c>
       <c r="H19" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01695346274476562</v>
+        <v>0.01856404170551835</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3174061433447099</v>
+        <v>0.3323170731707317</v>
       </c>
     </row>
     <row r="20">
@@ -1771,22 +1771,22 @@
         <v>462</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0735930735930736</v>
+        <v>0.08008658008658008</v>
       </c>
       <c r="G20" t="n">
         <v>6072</v>
       </c>
       <c r="H20" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.0327733860342556</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1559633027522936</v>
+        <v>0.1567796610169492</v>
       </c>
     </row>
     <row r="21">
@@ -1808,22 +1808,22 @@
         <v>132</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="G21" t="n">
         <v>3432</v>
       </c>
       <c r="H21" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03175990675990676</v>
+        <v>0.02738927738927739</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2158273381294964</v>
+        <v>0.2357723577235772</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1905,40 +1905,38 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-2' 'AT-4' 'CA-1' 'CA-2' 'CM-2' 'CM-3' 'CM-4' 'CM-9' 'CM-13'
- 'CM-14' 'CP-2' 'IR-1' 'IR-3' 'IR-4' 'IR-6' 'MA-1' 'MP-1' 'PE-19' 'PE-23'
- 'PL-1' 'PL-2' 'PL-8' 'PL-10' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-7' 'PM-8'
- 'PM-9' 'PM-10' 'PM-11' 'PM-12' 'PM-14' 'PM-15' 'PM-16' 'PM-18' 'PM-27'
- 'PM-28' 'PM-29' 'PM-30' 'PM-31' 'PM-32' 'RA-1' 'RA-3' 'RA-5' 'RA-7'
- 'RA-9' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-9' 'SA-10' 'SA-21' 'SC-1' 'SC-35'
- 'SC-48' 'SR-1' 'SR-2' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-11'
- 'SR-12']</t>
+          <t>['AC-5' 'AC-12' 'AC-17' 'AC-23' 'AT-2' 'AU-1' 'AU-5' 'AU-9' 'AU-14' 'CA-8'
+ 'CA-9' 'CM-2' 'CP-9' 'CP-10' 'IA-3' 'IA-6' 'MA-4' 'MA-6' 'PE-3' 'PE-9'
+ 'PE-11' 'PE-13' 'PM-6' 'PM-12' 'PM-32' 'PS-1' 'PS-3' 'PT-7' 'RA-9'
+ 'RA-10' 'SA-8' 'SA-20' 'SA-22' 'SA-23' 'SC-7' 'SC-10' 'SC-15' 'SC-17'
+ 'SC-20' 'SC-23' 'SC-31' 'SC-40' 'SC-45' 'SC-47' 'SC-51' 'SI-8' 'SI-10'
+ 'SI-11' 'SI-14' 'SI-20' 'SI-21' 'SR-4' 'SR-9' 'SR-10' 'SR-11']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4692</v>
+        <v>2970</v>
       </c>
       <c r="E2" t="n">
-        <v>715</v>
+        <v>162</v>
       </c>
       <c r="F2" t="n">
-        <v>0.152387041773231</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="G2" t="n">
-        <v>14766</v>
+        <v>13365</v>
       </c>
       <c r="H2" t="n">
-        <v>439</v>
+        <v>315</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0297304618718678</v>
+        <v>0.02356902356902357</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6195840554592721</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="3">
@@ -1950,33 +1948,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-6' 'AC-7' 'AC-9' 'AC-20' 'AC-21' 'AC-25' 'AU-2' 'AU-3' 'AU-6'
- 'AU-7' 'AU-13' 'CA-3' 'CA-5' 'CA-6' 'CA-7' 'CM-5' 'CM-7' 'CM-11' 'IA-5'
- 'IR-2' 'IR-5' 'IR-7' 'IR-8' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7'
- 'PE-6' 'PE-15' 'PE-20' 'PE-22' 'PL-9' 'PS-4' 'PS-5' 'RA-10' 'SC-5'
- 'SC-15' 'SC-39' 'SC-41' 'SI-2' 'SI-4' 'SI-5' 'SI-7' 'SI-8']</t>
+          <t>['AC-1' 'AC-22' 'AT-4' 'CA-1' 'CA-2' 'CA-6' 'CM-1' 'CM-4' 'CM-9' 'CP-2'
+ 'IR-6' 'MA-1' 'MP-1' 'PE-22' 'PL-1' 'PL-2' 'PL-8' 'PM-1' 'PM-2' 'PM-3'
+ 'PM-4' 'PM-8' 'PM-10' 'PM-13' 'PM-14' 'PM-15' 'PM-16' 'PM-18' 'PM-19'
+ 'PM-20' 'PM-28' 'PM-29' 'PM-30' 'RA-1' 'RA-2' 'RA-3' 'RA-7' 'SA-1' 'SA-2'
+ 'SC-6' 'SI-5' 'SR-1' 'SR-2' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2162</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1022201665124884</v>
+        <v>0.1554116558741906</v>
       </c>
       <c r="G3" t="n">
-        <v>11092</v>
+        <v>11797</v>
       </c>
       <c r="H3" t="n">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02740714028128381</v>
+        <v>0.02695600576417733</v>
       </c>
       <c r="J3" t="n">
-        <v>0.420952380952381</v>
+        <v>0.5137614678899083</v>
       </c>
     </row>
     <row r="4">
@@ -1984,37 +1982,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-5' 'AT-1' 'AT-3' 'AT-6' 'AU-1' 'AU-11' 'AU-12' 'AU-14' 'CM-1' 'CM-12'
- 'CP-3' 'IR-9' 'PE-1' 'PE-9' 'PE-13' 'PE-14' 'PL-7' 'PL-11' 'PM-5' 'PM-21'
- 'PM-22' 'PM-25' 'PS-3' 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8'
- 'SA-15' 'SA-16' 'SC-38' 'SC-42' 'SI-1' 'SI-12' 'SI-18' 'SI-19' 'SR-9'
- 'SR-10']</t>
+          <t>['AC-4' 'AC-6' 'AU-2' 'AU-4' 'AU-6' 'CM-3' 'CM-6' 'CM-11' 'CM-14' 'CP-6'
+ 'CP-12' 'IA-4' 'IA-5' 'IA-8' 'IA-9' 'PL-9' 'PL-10' 'PM-7' 'PS-2' 'PS-9'
+ 'RA-5' 'SA-10' 'SA-11' 'SA-17' 'SA-21' 'SC-5' 'SC-13' 'SC-18' 'SC-24'
+ 'SC-25' 'SC-26' 'SC-27' 'SC-28' 'SC-29' 'SC-30' 'SC-34' 'SC-36' 'SC-46'
+ 'SC-49' 'SI-2' 'SI-3' 'SI-4' 'SI-13' 'SI-16' 'SI-17' 'SI-23']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1560</v>
+        <v>2070</v>
       </c>
       <c r="E4" t="n">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1474358974358974</v>
+        <v>0.0748792270531401</v>
       </c>
       <c r="G4" t="n">
-        <v>9720</v>
+        <v>11592</v>
       </c>
       <c r="H4" t="n">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0301440329218107</v>
+        <v>0.02432712215320911</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4397705544933078</v>
+        <v>0.3546910755148742</v>
       </c>
     </row>
     <row r="5">
@@ -2022,36 +2020,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-8' 'AU-5' 'AU-8' 'CM-6' 'CM-8' 'CP-6' 'CP-7' 'CP-10' 'MA-2' 'MA-6'
- 'PE-2' 'PE-8' 'PE-10' 'PE-11' 'PE-12' 'PE-16' 'PE-17' 'PE-18' 'PL-4'
- 'PS-2' 'PS-9' 'SA-20' 'SA-22' 'SC-24' 'SC-25' 'SC-29' 'SC-30' 'SC-36'
- 'SC-43' 'SC-45' 'SI-13' 'SI-20' 'SI-23']</t>
+          <t>['AC-3' 'AC-25' 'AT-3' 'AU-3' 'AU-8' 'AU-10' 'AU-11' 'AU-12' 'AU-16'
+ 'CA-3' 'IR-4' 'MA-2' 'MA-7' 'PE-1' 'PE-8' 'PE-14' 'PL-7' 'PL-11' 'PM-5'
+ 'PM-9' 'PM-11' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-27' 'PS-6' 'PT-1'
+ 'PT-2' 'PT-3' 'PT-4' 'PT-8' 'RA-8' 'SA-3' 'SA-15' 'SC-16' 'SC-35' 'SC-38'
+ 'SC-42' 'SC-48' 'SC-50' 'SI-1' 'SI-6' 'SI-12' 'SI-18' 'SI-19']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1056</v>
+        <v>2070</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0615530303030303</v>
+        <v>0.1019323671497585</v>
       </c>
       <c r="G5" t="n">
-        <v>8250</v>
+        <v>11592</v>
       </c>
       <c r="H5" t="n">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01842424242424242</v>
+        <v>0.02958937198067633</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2995391705069124</v>
+        <v>0.3808664259927798</v>
       </c>
     </row>
     <row r="6">
@@ -2059,36 +2058,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AC-12' 'CA-8' 'CP-1' 'CP-4' 'CP-8' 'CP-9' 'CP-11' 'CP-13' 'IA-8' 'IA-10'
- 'IA-11' 'MA-3' 'MA-4' 'MA-7' 'PE-3' 'PM-6' 'SA-5' 'SA-8' 'SA-11' 'SA-23'
- 'SC-2' 'SC-3' 'SC-11' 'SC-12' 'SC-16' 'SC-17' 'SC-18' 'SC-47' 'SI-6'
- 'SI-22']</t>
+          <t>['AC-2' 'AC-8' 'AC-11' 'AC-16' 'AC-18' 'AC-24' 'CA-5' 'CM-5' 'CM-7' 'CM-8'
+ 'CM-10' 'IA-12' 'MA-5' 'PE-2' 'PE-4' 'PE-5' 'PE-6' 'PE-10' 'PE-12'
+ 'PE-15' 'PE-16' 'PE-18' 'PE-19' 'PE-21' 'PE-23' 'PL-4' 'PM-26' 'PS-4'
+ 'PS-5' 'PS-7' 'PS-8' 'PT-5' 'RA-6' 'SA-4' 'SC-1' 'SC-37' 'SC-41' 'SC-43'
+ 'SI-15']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>870</v>
+        <v>1482</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09425287356321839</v>
+        <v>0.0728744939271255</v>
       </c>
       <c r="G6" t="n">
-        <v>7590</v>
+        <v>10101</v>
       </c>
       <c r="H6" t="n">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.02623502623502624</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2837370242214533</v>
+        <v>0.289544235924933</v>
       </c>
     </row>
     <row r="7">
@@ -2096,35 +2096,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-3' 'AC-4' 'AU-4' 'AU-9' 'AU-10' 'AU-16' 'CM-10' 'MP-8' 'PE-21' 'PS-6'
- 'SA-17' 'SC-4' 'SC-13' 'SC-28' 'SC-32' 'SC-34' 'SC-40' 'SC-49' 'SC-50'
- 'SI-3' 'SI-10' 'SI-14' 'SI-16' 'SI-21']</t>
+          <t>['AC-9' 'AC-20' 'AU-7' 'AU-13' 'CA-7' 'CM-12' 'CM-13' 'IR-1' 'IR-2' 'IR-3'
+ 'IR-5' 'IR-7' 'IR-8' 'MA-3' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7'
+ 'PE-20' 'PM-31' 'PT-6' 'SA-9' 'SC-44' 'SI-7' 'SR-12']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>552</v>
+        <v>702</v>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1105072463768116</v>
+        <v>0.1310541310541311</v>
       </c>
       <c r="G7" t="n">
-        <v>6216</v>
+        <v>7317</v>
       </c>
       <c r="H7" t="n">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02606177606177606</v>
+        <v>0.03047697143638103</v>
       </c>
       <c r="J7" t="n">
-        <v>0.273542600896861</v>
+        <v>0.2920634920634921</v>
       </c>
     </row>
     <row r="8">
@@ -2132,35 +2132,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-11' 'AC-14' 'AC-16' 'AC-18' 'AC-19' 'AC-22' 'AC-24' 'IA-1' 'IA-2'
- 'IA-3' 'IA-7' 'IA-12' 'PE-4' 'PE-5' 'PM-17' 'PT-6' 'RA-2' 'SC-8' 'SC-37'
- 'SI-15']</t>
+          <t>['AC-7' 'AC-10' 'AC-14' 'AC-19' 'AC-21' 'CP-11' 'CP-13' 'IA-1' 'IA-2'
+ 'IA-7' 'IA-10' 'IA-11' 'MP-8' 'PM-17' 'SA-5' 'SC-2' 'SC-3' 'SC-4' 'SC-8'
+ 'SC-11' 'SC-12' 'SC-32' 'SC-39']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>380</v>
+        <v>506</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1394736842105263</v>
+        <v>0.08300395256916997</v>
       </c>
       <c r="G8" t="n">
-        <v>5260</v>
+        <v>6325</v>
       </c>
       <c r="H8" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02908745247148289</v>
+        <v>0.02387351778656126</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2572815533980582</v>
+        <v>0.2176165803108808</v>
       </c>
     </row>
     <row r="9">
@@ -2168,34 +2168,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-10' 'AC-17' 'AC-23' 'CA-9' 'IA-4' 'IA-6' 'IA-9' 'SC-7' 'SC-10'
- 'SC-23' 'SC-46' 'SC-51']</t>
+          <t>['AT-1' 'AT-6' 'CP-1' 'CP-3' 'CP-4' 'CP-7' 'CP-8' 'IR-9' 'PE-17' 'PM-25'
+ 'SA-16' 'SI-22' 'SR-3']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1858974358974359</v>
       </c>
       <c r="G9" t="n">
-        <v>3252</v>
+        <v>3705</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02552275522755228</v>
+        <v>0.03184885290148448</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2242990654205607</v>
+        <v>0.1972789115646258</v>
       </c>
     </row>
     <row r="10">
@@ -2203,100 +2203,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['MA-5' 'PS-1' 'PS-7' 'PS-8']</t>
+          <t>['SC-21' 'SC-22']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4166666666666667</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1116</v>
+        <v>592</v>
       </c>
       <c r="H10" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03763440860215054</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1063829787234043</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['PM-19' 'PM-20']</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>562</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.01423487544483986</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['CP-12' 'SI-17']</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>562</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.001779359430604982</v>
-      </c>
-      <c r="J12" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2311,7 +2243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2379,36 +2311,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-8' 'AC-9' 'AC-20' 'AC-25' 'AU-2' 'AU-3' 'AU-7' 'AU-13' 'CA-5'
- 'CA-6' 'CA-7' 'CM-5' 'CM-7' 'IR-1' 'IR-2' 'IR-3' 'IR-5' 'IR-7' 'IR-8'
- 'MP-3' 'MP-5' 'MP-6' 'MP-7' 'PE-6' 'PE-15' 'PE-20' 'PE-22' 'PL-4' 'PS-4'
- 'PS-5' 'RA-10' 'SC-5' 'SC-15' 'SC-41' 'SI-4' 'SI-5' 'SI-7']</t>
+          <t>['AC-7' 'AC-10' 'AC-14' 'AC-19' 'AC-21' 'CP-11' 'CP-13' 'IA-1' 'IA-2'
+ 'IA-7' 'IA-8' 'IA-10' 'IA-11' 'MP-8' 'PM-17' 'SA-5' 'SC-2' 'SC-3' 'SC-4'
+ 'SC-8' 'SC-11' 'SC-32' 'SC-39']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1406</v>
+        <v>506</v>
       </c>
       <c r="E2" t="n">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1102418207681366</v>
+        <v>0.08893280632411067</v>
       </c>
       <c r="G2" t="n">
-        <v>9310</v>
+        <v>6325</v>
       </c>
       <c r="H2" t="n">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03297529538131042</v>
+        <v>0.02434782608695652</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3354978354978355</v>
+        <v>0.2261306532663317</v>
       </c>
     </row>
     <row r="3">
@@ -2416,36 +2347,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-4' 'AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-16' 'AC-18' 'AC-19' 'AC-22'
- 'AC-24' 'CP-9' 'IA-1' 'IA-2' 'IA-3' 'IA-5' 'IA-7' 'IA-8' 'IA-11' 'IA-12'
- 'MA-4' 'PE-4' 'PE-5' 'PM-17' 'PT-6' 'RA-2' 'SA-5' 'SC-2' 'SC-3' 'SC-4'
- 'SC-8' 'SC-11' 'SC-28' 'SC-32' 'SC-37' 'SC-47' 'SI-3' 'SI-15' 'SI-16']</t>
+          <t>['CM-8' 'PE-10' 'PE-12' 'PE-15' 'PE-18' 'PE-19' 'PE-21' 'PE-23' 'PL-4'
+ 'SC-1' 'SC-37']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1406</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1009957325746799</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="G3" t="n">
-        <v>9310</v>
+        <v>3157</v>
       </c>
       <c r="H3" t="n">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02771213748657358</v>
+        <v>0.0281913208742477</v>
       </c>
       <c r="J3" t="n">
-        <v>0.355</v>
+        <v>0.1188118811881188</v>
       </c>
     </row>
     <row r="4">
@@ -2453,39 +2382,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-2' 'AT-4' 'CA-1' 'CM-3' 'CM-4' 'CM-9' 'CP-2' 'IR-4' 'IR-6'
- 'MA-1' 'MA-2' 'MA-5' 'MP-1' 'PE-8' 'PE-19' 'PE-23' 'PL-1' 'PL-2' 'PL-8'
- 'PL-10' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-12'
- 'PM-14' 'PM-15' 'PM-18' 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30'
- 'PS-1' 'PS-7' 'PS-8' 'RA-1' 'RA-3' 'RA-7' 'RA-9' 'SA-1' 'SA-2' 'SA-3'
- 'SA-4' 'SC-1' 'SC-35' 'SC-48' 'SR-1' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7'
- 'SR-8']</t>
+          <t>['AC-8' 'AC-11' 'AC-12' 'AC-18' 'AC-24' 'CM-5' 'IA-12' 'MA-5' 'PE-4'
+ 'PE-5' 'PM-26' 'PS-4' 'PS-7' 'SC-15' 'SI-15']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3540</v>
+        <v>210</v>
       </c>
       <c r="E4" t="n">
-        <v>624</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.176271186440678</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="G4" t="n">
-        <v>13380</v>
+        <v>4245</v>
       </c>
       <c r="H4" t="n">
-        <v>409</v>
+        <v>89</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03056801195814649</v>
+        <v>0.02096584216725559</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6040658276863504</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="5">
@@ -2493,35 +2417,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AU-8' 'CM-6' 'CM-8' 'PE-2' 'PE-10' 'PE-11' 'PE-12' 'PE-16' 'PE-18'
- 'PS-2' 'PS-9' 'SA-20' 'SA-22' 'SC-25' 'SC-29' 'SC-30' 'SC-36' 'SC-43'
- 'SC-45' 'SI-20' 'SI-23']</t>
+          <t>['AT-4' 'AT-6' 'CM-9' 'CP-2' 'IR-1' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6'
+ 'IR-8' 'IR-9' 'MP-6' 'PE-6' 'PE-20' 'PL-1' 'PL-7' 'PM-2' 'PM-14' 'PM-24'
+ 'PM-25' 'PM-28' 'PM-29' 'PM-30' 'PS-2' 'PS-9' 'PT-8' 'RA-6' 'RA-8'
+ 'SA-15' 'SA-16' 'SC-35' 'SC-38' 'SC-44' 'SC-48' 'SI-4' 'SR-2' 'SR-6'
+ 'SR-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>420</v>
+        <v>1560</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08095238095238096</v>
+        <v>0.1032051282051282</v>
       </c>
       <c r="G5" t="n">
-        <v>5502</v>
+        <v>10320</v>
       </c>
       <c r="H5" t="n">
-        <v>101</v>
+        <v>289</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01835696110505271</v>
+        <v>0.02800387596899225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2518518518518518</v>
+        <v>0.3577777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -2529,35 +2455,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AC-6' 'AU-5' 'AU-6' 'CA-2' 'CM-11' 'CP-6' 'CP-7' 'CP-10' 'CP-12' 'MA-6'
- 'MP-2' 'PE-17' 'PL-9' 'PM-31' 'RA-5' 'SA-9' 'SC-24' 'SC-39' 'SI-2' 'SI-8'
- 'SI-13' 'SI-17' 'SR-12']</t>
+          <t>['AC-1' 'AC-16' 'AC-22' 'AT-3' 'AU-1' 'AU-12' 'AU-14' 'AU-16' 'CA-1'
+ 'CA-2' 'CM-1' 'CM-4' 'CM-12' 'IA-4' 'IA-9' 'MA-1' 'MP-1' 'PE-1' 'PE-2'
+ 'PE-14' 'PL-2' 'PL-8' 'PL-11' 'PM-1' 'PM-3' 'PM-4' 'PM-5' 'PM-8' 'PM-9'
+ 'PM-10' 'PM-11' 'PM-13' 'PM-15' 'PM-18' 'PM-19' 'PM-20' 'PM-21' 'PM-22'
+ 'PM-23' 'PM-27' 'PT-1' 'PT-2' 'PT-4' 'PT-5' 'RA-1' 'RA-7' 'SA-1' 'SA-3'
+ 'SI-1' 'SI-12' 'SI-18' 'SR-1']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>506</v>
+        <v>2652</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07905138339920949</v>
+        <v>0.166289592760181</v>
       </c>
       <c r="G6" t="n">
-        <v>5980</v>
+        <v>12792</v>
       </c>
       <c r="H6" t="n">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02642140468227425</v>
+        <v>0.03111319574734209</v>
       </c>
       <c r="J6" t="n">
-        <v>0.202020202020202</v>
+        <v>0.5256257449344458</v>
       </c>
     </row>
     <row r="7">
@@ -2565,36 +2494,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-5' 'AT-3' 'AU-1' 'AU-11' 'AU-12' 'AU-14' 'CM-1' 'CM-12' 'PE-1' 'PE-9'
- 'PE-13' 'PE-14' 'PL-7' 'PL-11' 'PM-5' 'PM-21' 'PM-22' 'PM-25' 'PS-3'
- 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SA-15' 'SC-38' 'SC-42'
- 'SI-1' 'SI-12' 'SI-18' 'SI-19' 'SR-9' 'SR-10']</t>
+          <t>['AC-5' 'CA-7' 'CA-9' 'CM-13' 'MA-4' 'PE-3' 'PE-9' 'PE-11' 'PE-17' 'PM-6'
+ 'PM-32' 'PS-1' 'PS-3' 'PT-6' 'SA-8' 'SA-23' 'SC-47' 'SI-20' 'SR-4' 'SR-9'
+ 'SR-10']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1190</v>
+        <v>420</v>
       </c>
       <c r="E7" t="n">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1647058823529412</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G7" t="n">
-        <v>8680</v>
+        <v>5817</v>
       </c>
       <c r="H7" t="n">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03052995391705069</v>
+        <v>0.02613030771875537</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4251626898047722</v>
+        <v>0.1648351648351648</v>
       </c>
     </row>
     <row r="8">
@@ -2602,34 +2530,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AT-1' 'AT-6' 'CA-8' 'CP-1' 'CP-3' 'CP-4' 'CP-8' 'CP-11' 'CP-13' 'IA-10'
- 'IR-9' 'SA-11' 'SA-16' 'SC-18' 'SI-22']</t>
+          <t>['AU-4' 'CM-3' 'CM-6' 'CP-10' 'CP-12' 'PL-10' 'SC-24' 'SC-28' 'SC-29'
+ 'SC-30' 'SI-13' 'SI-17' 'SI-23']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="G8" t="n">
-        <v>4020</v>
+        <v>3705</v>
       </c>
       <c r="H8" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02761194029850746</v>
+        <v>0.01862348178137652</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.1976744186046512</v>
       </c>
     </row>
     <row r="9">
@@ -2637,34 +2565,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-10' 'AC-17' 'AC-23' 'IA-4' 'IA-6' 'IA-9' 'SC-7' 'SC-10' 'SC-23'
- 'SC-46' 'SC-51']</t>
+          <t>['AT-1' 'AU-2' 'AU-10' 'CP-1' 'CP-3' 'CP-4' 'CP-8' 'IA-5' 'IA-6' 'MA-2'
+ 'MA-7' 'SA-11' 'SC-5' 'SC-13' 'SC-16' 'SC-26' 'SC-27' 'SC-40' 'SI-6'
+ 'SI-19' 'SI-22' 'SR-3']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>462</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.08008658008658008</v>
       </c>
       <c r="G9" t="n">
-        <v>2992</v>
+        <v>6072</v>
       </c>
       <c r="H9" t="n">
-        <v>78</v>
+        <v>197</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02606951871657754</v>
+        <v>0.03244400527009222</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1581196581196581</v>
       </c>
     </row>
     <row r="10">
@@ -2672,34 +2601,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['CA-3' 'CA-9' 'CM-2' 'CM-13' 'CM-14' 'MA-3' 'MA-7' 'PE-3' 'PM-6' 'SA-8'
- 'SA-10' 'SA-21' 'SA-23' 'SC-12' 'SC-16' 'SC-17' 'SI-6' 'SR-11']</t>
+          <t>['AC-2' 'AC-4' 'AC-6' 'AC-9' 'AU-3' 'AU-5' 'AU-6' 'AU-11' 'AU-13' 'CA-5'
+ 'CM-2' 'CM-14' 'IR-7' 'PL-9' 'PM-7' 'PM-31' 'PS-5' 'PS-8' 'PT-3' 'RA-5'
+ 'SA-4' 'SA-10' 'SA-17' 'SA-21' 'SC-18' 'SC-31' 'SC-46' 'SI-2' 'SI-7'
+ 'SR-11']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>306</v>
+        <v>870</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0915032679738562</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>4770</v>
+        <v>8040</v>
       </c>
       <c r="H10" t="n">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02683438155136268</v>
+        <v>0.03358208955223881</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.3005181347150259</v>
       </c>
     </row>
     <row r="11">
@@ -2707,35 +2638,107 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AC-3' 'AC-21' 'AU-4' 'AU-9' 'AU-10' 'AU-16' 'CM-10' 'MP-4' 'MP-8'
- 'PE-21' 'PM-7' 'PM-16' 'PM-32' 'PS-6' 'SA-17' 'SC-13' 'SC-34' 'SC-40'
- 'SC-49' 'SC-50' 'SI-10' 'SI-14' 'SI-21' 'SR-4']</t>
+          <t>['AC-3' 'AC-20' 'AC-25' 'AU-9' 'CA-3' 'CA-6' 'CM-7' 'CM-10' 'CM-11' 'CP-6'
+ 'MA-3' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-7' 'PE-16' 'PE-22' 'PS-6' 'RA-2'
+ 'SC-25' 'SC-34' 'SC-36' 'SC-42' 'SC-43' 'SC-49' 'SC-50' 'SI-3' 'SI-16']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>552</v>
+        <v>812</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="G11" t="n">
-        <v>6216</v>
+        <v>7801</v>
       </c>
       <c r="H11" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02509652509652509</v>
+        <v>0.0205101910011537</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2277227722772277</v>
+        <v>0.3522267206477733</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['AC-17' 'AC-23' 'AT-2' 'AU-8' 'CA-8' 'CP-7' 'CP-9' 'IA-3' 'PE-13' 'PM-12'
+ 'PT-7' 'RA-9' 'RA-10' 'SA-20' 'SA-22' 'SC-7' 'SC-10' 'SC-12' 'SC-17'
+ 'SC-20' 'SC-21' 'SC-22' 'SC-23' 'SC-41' 'SC-45' 'SC-51' 'SI-8' 'SI-10'
+ 'SI-11' 'SI-14' 'SI-21']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>930</v>
+      </c>
+      <c r="E12" t="n">
+        <v>64</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06881720430107527</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8277</v>
+      </c>
+      <c r="H12" t="n">
+        <v>155</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01872659176029963</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2922374429223744</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['AU-7' 'MA-6' 'PE-8' 'PM-16' 'RA-3' 'SA-2' 'SA-9' 'SC-6' 'SI-5' 'SR-5'
+ 'SR-12']</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3157</v>
+      </c>
+      <c r="H13" t="n">
+        <v>92</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02914159011719987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1067961165048544</v>
       </c>
     </row>
   </sheetData>
@@ -2817,34 +2820,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-3' 'AU-10' 'CM-5' 'PE-3' 'PE-6' 'PE-8' 'PM-32' 'SA-20' 'SC-4' 'SI-10'
- 'SI-15' 'SR-4']</t>
+          <t>['AC-23' 'AU-9' 'CM-5' 'CM-7' 'CM-10' 'CM-11' 'IA-6' 'SC-25' 'SC-34'
+ 'SC-43' 'SC-51' 'SI-3' 'SI-11' 'SI-14' 'SI-21']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="E2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2348484848484849</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="G2" t="n">
-        <v>3252</v>
+        <v>4245</v>
       </c>
       <c r="H2" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03259532595325954</v>
+        <v>0.01790341578327444</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2262773722627737</v>
+        <v>0.3090909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -2852,34 +2855,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AU-2' 'AU-3' 'AU-6' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-14' 'CM-14' 'IR-6'
- 'PL-9' 'SC-45' 'SI-7' 'SR-8']</t>
+          <t>['CM-2' 'CM-3' 'CM-4' 'CM-6' 'CM-13' 'CM-14' 'CP-12' 'PL-9' 'PL-10' 'PS-9'
+ 'SA-4' 'SA-5' 'SA-10' 'SA-17' 'SA-21' 'SC-29' 'SI-2' 'SI-7' 'SR-11']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2582417582417583</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G3" t="n">
-        <v>3766</v>
+        <v>5301</v>
       </c>
       <c r="H3" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02257036643653744</v>
+        <v>0.02641011129975476</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="4">
@@ -2887,33 +2890,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-5' 'AC-8' 'PE-2' 'PE-16' 'PL-4' 'PS-3' 'PS-4' 'PS-5' 'PS-6']</t>
+          <t>['AC-22' 'AC-25' 'AU-13' 'CA-2' 'CA-5' 'CA-7' 'CA-8' 'PM-14' 'PM-31'
+ 'PS-2' 'RA-5' 'SA-11' 'SC-5' 'SC-36' 'SI-4']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="G4" t="n">
-        <v>2466</v>
+        <v>4245</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01743714517437145</v>
+        <v>0.02732626619552415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.328125</v>
+        <v>0.3176470588235294</v>
       </c>
     </row>
     <row r="5">
@@ -2921,33 +2925,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['PM-6' 'SA-8' 'SA-23' 'SC-15' 'SC-41' 'SC-42' 'SI-6' 'SI-14' 'SI-21']</t>
+          <t>['CP-2' 'CP-6' 'CP-7' 'PE-10' 'PE-11' 'PE-12' 'PE-17' 'PM-24' 'PT-8'
+ 'RA-9' 'SA-15' 'SA-20']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="G5" t="n">
-        <v>2466</v>
+        <v>3432</v>
       </c>
       <c r="H5" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01743714517437145</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2456140350877193</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -2959,30 +2964,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['CM-13' 'PL-8' 'PM-7' 'RA-9' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-9' 'SA-10'
- 'SA-11' 'SA-15' 'SA-17' 'SA-21' 'SC-25' 'SC-29' 'SR-3' 'SR-5' 'SR-9']</t>
+          <t>['IR-4' 'IR-6' 'PL-7' 'PL-8' 'PM-28' 'PM-30' 'RA-3' 'RA-7' 'SA-3' 'SC-6'
+ 'SC-35' 'SC-38' 'SR-2' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>342</v>
       </c>
       <c r="E6" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3187134502923977</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G6" t="n">
-        <v>5016</v>
+        <v>5301</v>
       </c>
       <c r="H6" t="n">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03468899521531101</v>
+        <v>0.02471231843048481</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3851590106007067</v>
+        <v>0.4203539823008849</v>
       </c>
     </row>
     <row r="7">
@@ -2990,34 +2995,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-9' 'AC-25' 'AU-13' 'CA-2' 'CA-5' 'CA-7' 'CM-2' 'CM-6' 'IR-5'
- 'IR-7' 'PE-20' 'PM-31' 'RA-5' 'RA-10' 'SC-5' 'SI-2' 'SI-4' 'SI-5' 'SI-8']</t>
+          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IR-1' 'IR-8'
+ 'MA-1' 'MP-1' 'PE-1' 'PL-1' 'PL-2' 'PM-1' 'PM-2' 'PM-4' 'PM-9' 'PM-10'
+ 'PM-11' 'PM-17' 'PM-18' 'PM-19' 'PM-27' 'PM-29' 'PS-1' 'PT-1' 'RA-1'
+ 'SA-1' 'SA-2' 'SC-1' 'SI-1' 'SR-1']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>380</v>
+        <v>1122</v>
       </c>
       <c r="E7" t="n">
-        <v>87</v>
+        <v>674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2289473684210526</v>
+        <v>0.6007130124777184</v>
       </c>
       <c r="G7" t="n">
-        <v>5260</v>
+        <v>8976</v>
       </c>
       <c r="H7" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02984790874524715</v>
+        <v>0.01737967914438503</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3565573770491803</v>
+        <v>0.8120481927710843</v>
       </c>
     </row>
     <row r="8">
@@ -3025,36 +3032,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IR-1' 'IR-8'
- 'MA-1' 'MP-1' 'PE-1' 'PE-19' 'PL-1' 'PL-2' 'PM-1' 'PM-4' 'PM-9' 'PM-11'
- 'PM-17' 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'PT-6' 'RA-1' 'SA-1' 'SC-1' 'SI-1'
- 'SR-1']</t>
+          <t>['AC-5' 'AC-6' 'AC-7' 'AC-14' 'AU-10' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-8'
+ 'IA-9' 'IA-10' 'IA-11' 'IA-12' 'SC-2' 'SC-27' 'SC-32' 'SC-39']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>930</v>
+        <v>306</v>
       </c>
       <c r="E8" t="n">
-        <v>686</v>
+        <v>75</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7376344086021506</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="G8" t="n">
-        <v>7812</v>
+        <v>5040</v>
       </c>
       <c r="H8" t="n">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02764976958525346</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7605321507760532</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="9">
@@ -3062,34 +3067,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-19' 'AC-20' 'AC-21' 'CA-6' 'CM-10' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6'
- 'MP-7' 'MP-8' 'PM-16' 'SC-43']</t>
+          <t>['AC-3' 'AC-4' 'AC-11' 'AC-16' 'AC-17' 'AC-18' 'AC-21' 'AC-24' 'PE-5'
+ 'SC-4' 'SC-8' 'SC-16' 'SC-37' 'SC-41' 'SI-10' 'SI-15']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3241758241758242</v>
+        <v>0.275</v>
       </c>
       <c r="G9" t="n">
-        <v>3766</v>
+        <v>4512</v>
       </c>
       <c r="H9" t="n">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01672862453531598</v>
+        <v>0.02925531914893617</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4836065573770492</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -3097,34 +3102,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['AC-6' 'AC-16' 'AC-22' 'AC-24' 'CM-7' 'CM-11' 'PE-4' 'PE-5' 'PE-22'
- 'RA-2' 'SC-18' 'SC-37']</t>
+          <t>['CP-10' 'PE-19' 'PE-21' 'RA-2' 'SA-8' 'SA-23' 'SC-3' 'SC-7' 'SC-24'
+ 'SC-31' 'SC-40' 'SC-46' 'SC-49' 'SC-50' 'SI-17']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
-        <v>0.196969696969697</v>
+        <v>0.2047619047619048</v>
       </c>
       <c r="G10" t="n">
-        <v>3252</v>
+        <v>4245</v>
       </c>
       <c r="H10" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03044280442804428</v>
+        <v>0.02261484098939929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.208</v>
+        <v>0.3093525179856115</v>
       </c>
     </row>
     <row r="11">
@@ -3132,34 +3137,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['CM-12' 'PM-3' 'PM-5' 'PM-8' 'PM-20' 'PM-21' 'PM-22' 'PM-25' 'PT-2'
- 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SI-12' 'SI-18' 'SI-19']</t>
+          <t>['AU-8' 'SC-20' 'SC-21' 'SC-22' 'SC-45']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.45</v>
       </c>
       <c r="G11" t="n">
-        <v>4522</v>
+        <v>1465</v>
       </c>
       <c r="H11" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01946041574524547</v>
+        <v>0.00136518771331058</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="12">
@@ -3167,34 +3171,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-11' 'AC-12' 'AC-14' 'AC-17' 'AC-18' 'IA-2' 'IA-3' 'IA-4'
- 'IA-5' 'IA-6' 'IA-8' 'IA-9' 'IA-12' 'SC-10' 'SC-17' 'SC-23']</t>
+          <t>['AC-20' 'CA-6' 'IA-7' 'MA-5' 'PL-4' 'PS-3' 'PS-7' 'PT-6' 'SI-5']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2867647058823529</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>4522</v>
+        <v>2601</v>
       </c>
       <c r="H12" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0145953118089341</v>
+        <v>0.01691657054978854</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="13">
@@ -3202,33 +3205,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['CP-8' 'CP-11' 'CP-13' 'IA-10' 'IA-11' 'SC-11' 'SC-47' 'SI-22']</t>
+          <t>['CP-4' 'CP-8' 'CP-11' 'CP-13' 'IR-3' 'IR-5' 'IR-7' 'PE-20' 'PM-6' 'SC-48'
+ 'SI-6' 'SI-22' 'SI-23']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="G13" t="n">
-        <v>2200</v>
+        <v>3705</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005909090909090909</v>
+        <v>0.01862348178137652</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.2659574468085106</v>
       </c>
     </row>
     <row r="14">
@@ -3236,34 +3240,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['CM-4' 'PM-2' 'PM-10' 'PM-14' 'PM-19' 'PM-28' 'PM-29' 'PM-30' 'PS-2'
- 'PS-9' 'RA-3' 'RA-7' 'SR-2' 'SR-6']</t>
+          <t>['CM-12' 'CP-9' 'PM-7' 'SA-9' 'SC-12' 'SC-13' 'SC-26' 'SC-28' 'SC-30'
+ 'SI-16' 'SR-12']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2362637362637363</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="G14" t="n">
-        <v>3766</v>
+        <v>3157</v>
       </c>
       <c r="H14" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02734997344662772</v>
+        <v>0.02280646183085207</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2945205479452055</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="15">
@@ -3271,34 +3275,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['CA-3' 'CA-9' 'CM-3' 'MA-4' 'PL-10' 'PL-11' 'SC-8' 'SC-12' 'SC-13'
- 'SC-16' 'SC-28' 'SC-30' 'SC-40' 'SR-12']</t>
+          <t>['MA-2' 'MA-3' 'MA-6' 'MA-7' 'PE-2' 'PE-3' 'PE-4' 'PE-6' 'PE-8' 'PE-9'
+ 'PE-13' 'PE-14' 'PE-16' 'PE-18' 'PE-23' 'RA-6' 'SC-44' 'SR-9' 'SR-10']</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="E15" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2802197802197802</v>
+        <v>0.1783625730994152</v>
       </c>
       <c r="G15" t="n">
-        <v>3766</v>
+        <v>5301</v>
       </c>
       <c r="H15" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02283590015932023</v>
+        <v>0.01528013582342954</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3722627737226277</v>
+        <v>0.4295774647887324</v>
       </c>
     </row>
     <row r="16">
@@ -3306,34 +3310,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['CA-8' 'CP-2' 'CP-4' 'CP-6' 'CP-7' 'CP-9' 'CP-10' 'IA-7' 'IR-3' 'PE-12'
- 'PE-17' 'SI-16']</t>
+          <t>['AC-19' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'MP-8' 'PE-22' 'SC-18']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3106060606060606</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3252</v>
+        <v>2880</v>
       </c>
       <c r="H16" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02490774907749077</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="17">
@@ -3341,33 +3344,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['AC-10' 'AU-4' 'AU-5' 'AU-9' 'AU-16' 'SC-34' 'SC-51' 'SI-13']</t>
+          <t>['AC-2' 'AC-10' 'CA-3' 'CA-9' 'CM-8' 'PE-15' 'PM-23' 'PS-4' 'PS-5' 'PS-6'
+ 'PS-8' 'SI-20']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.1742424242424243</v>
       </c>
       <c r="G17" t="n">
-        <v>2200</v>
+        <v>3432</v>
       </c>
       <c r="H17" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01863636363636363</v>
+        <v>0.02680652680652681</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
@@ -3375,34 +3379,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['CM-8' 'PE-9' 'PE-10' 'PE-11' 'PE-13' 'PE-14' 'PE-15' 'PE-18' 'PE-23'
- 'SA-22' 'SC-36' 'SI-20' 'SR-10' 'SR-11']</t>
+          <t>['PL-11' 'PM-3' 'PM-5' 'PM-8' 'PM-20' 'PM-21' 'PM-22' 'PM-25' 'PM-26'
+ 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SC-42' 'SI-12' 'SI-18' 'SI-19']</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>182</v>
+        <v>342</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1483516483516484</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="G18" t="n">
-        <v>3766</v>
+        <v>5301</v>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01593202336696761</v>
+        <v>0.01641199773627617</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.5245901639344263</v>
       </c>
     </row>
     <row r="19">
@@ -3414,29 +3418,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['MA-2' 'MA-3' 'MA-5' 'MA-6' 'MA-7' 'PL-7' 'PS-7' 'PS-8' 'SC-38' 'SR-7']</t>
+          <t>['AC-12' 'AU-14' 'MA-4' 'SA-22' 'SC-10' 'SC-11' 'SC-15' 'SC-17' 'SC-23'
+ 'SC-47']</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>90</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2444444444444444</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="G19" t="n">
-        <v>2730</v>
+        <v>2880</v>
       </c>
       <c r="H19" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01758241758241758</v>
+        <v>0.0125</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="20">
@@ -3448,30 +3453,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['AC-4' 'AC-23' 'CP-12' 'PE-21' 'SC-2' 'SC-3' 'SC-7' 'SC-24' 'SC-32'
- 'SC-39' 'SC-46' 'SC-49' 'SC-50' 'SI-17' 'SI-23']</t>
+          <t>['AT-2' 'AT-3' 'AT-4' 'AT-6' 'CP-3' 'IR-2' 'IR-9' 'PM-12' 'PM-13' 'PM-15'
+ 'PM-16' 'PM-32' 'RA-10' 'SA-16' 'SI-8']</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>210</v>
       </c>
       <c r="E20" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="G20" t="n">
-        <v>4020</v>
+        <v>4245</v>
       </c>
       <c r="H20" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01641791044776119</v>
+        <v>0.01413427561837456</v>
       </c>
       <c r="J20" t="n">
-        <v>0.459016393442623</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="21">
@@ -3479,34 +3484,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['AT-2' 'AT-3' 'AT-4' 'AT-6' 'CP-3' 'IR-2' 'IR-4' 'IR-9' 'PM-12' 'PM-15'
- 'SA-16' 'SC-35' 'SC-48' 'SI-3']</t>
+          <t>['AC-8' 'AC-9' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7' 'AU-11' 'AU-12'
+ 'AU-16' 'SI-13']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E21" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3021978021978022</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="G21" t="n">
-        <v>3766</v>
+        <v>3432</v>
       </c>
       <c r="H21" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02124269782262347</v>
+        <v>0.01456876456876457</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4565217391304348</v>
       </c>
     </row>
   </sheetData>
@@ -3588,40 +3593,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-1' 'AC-14' 'AT-1' 'AU-1' 'CA-1' 'CA-2' 'CA-9' 'CM-1' 'CM-3' 'CM-4'
- 'CM-9' 'CP-1' 'CP-2' 'IA-1' 'IR-1' 'IR-5' 'IR-6' 'IR-8' 'MA-1' 'MA-2'
- 'MP-1' 'PE-1' 'PE-19' 'PE-20' 'PE-23' 'PL-1' 'PL-2' 'PL-7' 'PL-8' 'PM-1'
- 'PM-2' 'PM-3' 'PM-4' 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-14' 'PM-17'
- 'PM-18' 'PM-19' 'PM-20' 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PM-31' 'PS-1'
- 'PS-6' 'PS-8' 'PT-1' 'PT-6' 'RA-1' 'RA-2' 'RA-3' 'RA-7' 'SA-1' 'SA-2'
- 'SA-3' 'SA-4' 'SA-5' 'SA-9' 'SA-15' 'SA-21' 'SC-1' 'SI-1' 'SR-1' 'SR-2'
- 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
+          <t>['AC-1' 'AC-22' 'AT-1' 'AU-1' 'CA-1' 'CA-2' 'CM-1' 'CM-9' 'CP-1' 'CP-2'
+ 'IA-1' 'IR-1' 'IR-6' 'IR-8' 'MA-1' 'MP-1' 'PE-1' 'PL-1' 'PL-2' 'PL-7'
+ 'PL-8' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-6' 'PM-7' 'PM-8' 'PM-9' 'PM-10'
+ 'PM-11' 'PM-13' 'PM-14' 'PM-15' 'PM-17' 'PM-18' 'PM-19' 'PM-20' 'PM-23'
+ 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PM-31' 'PS-1' 'PS-2' 'PS-8' 'PS-9'
+ 'PT-1' 'RA-1' 'RA-3' 'RA-7' 'RA-10' 'SA-1' 'SA-2' 'SA-3' 'SA-5' 'SC-1'
+ 'SC-6' 'SI-1' 'SR-1' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5402</v>
+        <v>4422</v>
       </c>
       <c r="E2" t="n">
-        <v>1182</v>
+        <v>949</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2188078489448352</v>
+        <v>0.2146087743102668</v>
       </c>
       <c r="G2" t="n">
-        <v>15466</v>
+        <v>15477</v>
       </c>
       <c r="H2" t="n">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0173283331178068</v>
+        <v>0.01059636880532403</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8151724137931035</v>
+        <v>0.8526504941599281</v>
       </c>
     </row>
     <row r="3">
@@ -3629,36 +3633,41 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-2' 'AC-9' 'AC-10' 'AC-17' 'AC-23' 'AC-25' 'AU-6' 'AU-12' 'AU-13'
- 'CA-5' 'CA-7' 'CA-8' 'CM-7' 'CM-8' 'CP-4' 'CP-9' 'IA-4' 'IR-7' 'PE-3'
- 'PL-9' 'PS-5' 'RA-5' 'RA-10' 'SA-8' 'SA-20' 'SA-22' 'SA-23' 'SC-7'
- 'SC-10' 'SC-12' 'SC-13' 'SC-23' 'SC-51' 'SI-4' 'SI-14' 'SI-16' 'SI-21']</t>
+          <t>['AC-2' 'AC-3' 'AC-4' 'AC-6' 'AC-9' 'AC-20' 'AC-23' 'AU-2' 'AU-3' 'AU-5'
+ 'AU-6' 'AU-9' 'AU-10' 'AU-13' 'AU-16' 'CA-3' 'CA-5' 'CA-9' 'CM-2' 'CM-3'
+ 'CM-8' 'CM-11' 'CM-14' 'CP-4' 'CP-7' 'CP-9' 'IA-4' 'IA-5' 'IA-6' 'IA-8'
+ 'IR-2' 'IR-7' 'MA-4' 'PE-3' 'PE-9' 'PE-10' 'PE-11' 'PE-12' 'PE-13'
+ 'PE-15' 'PL-4' 'PL-9' 'PT-3' 'PT-7' 'RA-5' 'RA-6' 'SA-4' 'SA-8' 'SA-10'
+ 'SA-11' 'SA-15' 'SA-22' 'SC-5' 'SC-7' 'SC-13' 'SC-16' 'SC-18' 'SC-26'
+ 'SC-31' 'SC-34' 'SC-37' 'SC-40' 'SC-42' 'SC-46' 'SC-49' 'SC-51' 'SI-2'
+ 'SI-3' 'SI-4' 'SI-6' 'SI-7' 'SI-14' 'SI-19' 'SI-20' 'SI-21' 'SR-10'
+ 'SR-11']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1332</v>
+        <v>5852</v>
       </c>
       <c r="E3" t="n">
-        <v>129</v>
+        <v>492</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09684684684684684</v>
+        <v>0.08407382091592618</v>
       </c>
       <c r="G3" t="n">
-        <v>9102</v>
+        <v>17017</v>
       </c>
       <c r="H3" t="n">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03647549989013404</v>
+        <v>0.02791326320738085</v>
       </c>
       <c r="J3" t="n">
-        <v>0.279826464208243</v>
+        <v>0.5087900723888314</v>
       </c>
     </row>
     <row r="4">
@@ -3666,35 +3675,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-3' 'AC-6' 'CM-6' 'CM-11' 'IA-9' 'PM-32' 'RA-9' 'SA-11' 'SA-17'
- 'SC-25' 'SC-29' 'SC-34' 'SC-39' 'SC-43' 'SC-46' 'SC-49' 'SC-50' 'SI-2'
- 'SI-19' 'SR-4']</t>
+          <t>['AC-5' 'AC-7' 'AC-10' 'AC-12' 'AC-14' 'AC-17' 'AC-18' 'AC-19' 'AC-21'
+ 'AU-14' 'IA-2' 'IA-3' 'IA-9' 'PE-4' 'PE-19' 'PE-21' 'SC-4' 'SC-8' 'SC-10'
+ 'SC-15' 'SC-23' 'SI-8']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="E4" t="n">
         <v>54</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1421052631578947</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="G4" t="n">
-        <v>5260</v>
+        <v>6072</v>
       </c>
       <c r="H4" t="n">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03098859315589354</v>
+        <v>0.01729249011857708</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2488479262672811</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="5">
@@ -3702,35 +3711,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-4' 'AU-3' 'AU-4' 'AU-7' 'AU-9' 'AU-11' 'AU-14' 'AU-16' 'CA-3' 'CM-2'
- 'CM-13' 'CM-14' 'IR-3' 'MP-8' 'PE-21' 'PM-6' 'SA-10' 'SC-4' 'SC-16'
- 'SC-28' 'SC-40' 'SI-3' 'SI-6' 'SI-7' 'SI-8' 'SR-11']</t>
+          <t>['AC-8' 'AC-11' 'AC-16' 'AC-24' 'CM-5' 'CM-12' 'IA-12' 'PE-2' 'PE-6'
+ 'PE-18' 'PE-23' 'PS-3' 'PS-5' 'PT-5']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>650</v>
+        <v>182</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="G5" t="n">
-        <v>6682</v>
+        <v>3976</v>
       </c>
       <c r="H5" t="n">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02873391200239449</v>
+        <v>0.02741448692152917</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2529182879377432</v>
+        <v>0.1742424242424243</v>
       </c>
     </row>
     <row r="6">
@@ -3738,34 +3746,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['AC-5' 'AC-20' 'AC-21' 'CA-6' 'CM-5' 'PE-2' 'PE-6' 'PE-8' 'PE-16' 'PE-18'
- 'PM-21' 'PS-3' 'PS-4' 'PT-2']</t>
+          <t>['AC-25' 'AT-3' 'AT-4' 'AU-12' 'CA-7' 'CP-3' 'IR-3' 'MP-8' 'PM-5' 'PM-21'
+ 'PM-22' 'PM-25' 'PS-6' 'PT-2' 'PT-6' 'SA-16' 'SC-38' 'SI-12' 'SI-18'
+ 'SR-9']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>182</v>
+        <v>380</v>
       </c>
       <c r="E6" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2472527472527473</v>
+        <v>0.1421052631578947</v>
       </c>
       <c r="G6" t="n">
-        <v>3766</v>
+        <v>5560</v>
       </c>
       <c r="H6" t="n">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0323951141795008</v>
+        <v>0.02841726618705036</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2694610778443114</v>
+        <v>0.2547169811320755</v>
       </c>
     </row>
     <row r="7">
@@ -3773,35 +3782,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['AC-7' 'AC-11' 'AC-18' 'AC-19' 'AC-22' 'AC-24' 'AU-10' 'IA-2' 'IA-3'
- 'IA-5' 'IA-6' 'IA-8' 'IA-11' 'IA-12' 'PE-4' 'SC-2' 'SC-3' 'SC-8' 'SC-11'
- 'SC-17' 'SC-18' 'SC-30' 'SC-32' 'SC-37' 'SC-42' 'SI-23']</t>
+          <t>['AT-2' 'CA-8' 'IR-4' 'IR-5' 'PE-20' 'PM-12' 'PM-16' 'SC-35' 'SC-48']</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>650</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1323076923076923</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="G7" t="n">
-        <v>6682</v>
+        <v>2601</v>
       </c>
       <c r="H7" t="n">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01736007183478001</v>
+        <v>0.02422145328719723</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4257425742574257</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="8">
@@ -3809,33 +3816,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AC-8' 'PL-4']</t>
+          <t>['AT-6' 'CM-6' 'CM-7' 'CM-10' 'IR-9' 'PE-5' 'SC-25' 'SC-27' 'SC-29'
+ 'SC-41' 'SI-10' 'SI-11' 'SI-15']</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="G8" t="n">
-        <v>562</v>
+        <v>3705</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008896797153024912</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2207792207792208</v>
       </c>
     </row>
     <row r="9">
@@ -3843,34 +3851,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['AC-12' 'AU-2' 'AU-5' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'PS-7' 'SC-5'
- 'SC-47' 'SI-5' 'SI-13']</t>
+          <t>['AU-4' 'AU-11' 'SI-13']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3510</v>
+        <v>885</v>
       </c>
       <c r="H9" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01652421652421653</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3255813953488372</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="10">
@@ -3878,33 +3885,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['AC-16' 'CM-10' 'PE-5' 'SC-15' 'SC-41' 'SI-10' 'SI-15']</t>
+          <t>['AU-7' 'CP-6' 'CP-10' 'CP-12' 'SA-9' 'SC-24' 'SC-28' 'SC-30' 'SC-36'
+ 'SI-16' 'SI-17' 'SR-12']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>1932</v>
+        <v>3432</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01759834368530021</v>
+        <v>0.01631701631701632</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="11">
@@ -3912,33 +3920,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['AT-2' 'AT-4' 'IR-4' 'PM-12' 'PM-15' 'PM-16' 'SC-35' 'SC-48']</t>
+          <t>['AU-8' 'SC-20' 'SC-21' 'SC-22' 'SC-45']</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.45</v>
       </c>
       <c r="G11" t="n">
-        <v>2200</v>
+        <v>1465</v>
       </c>
       <c r="H11" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01681818181818182</v>
+        <v>0.00136518771331058</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="12">
@@ -3946,34 +3954,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['AT-3' 'CM-12' 'IA-7' 'PL-10' 'PL-11' 'PM-5' 'PM-22' 'PM-25' 'PT-3'
- 'PT-4' 'PT-5' 'PT-7' 'RA-8' 'SI-12' 'SI-18' 'SR-12']</t>
+          <t>['CA-6' 'CM-4' 'RA-2']</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3208333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>4272</v>
+        <v>885</v>
       </c>
       <c r="H12" t="n">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01919475655430711</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4842767295597484</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="13">
@@ -3981,33 +3988,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['AT-6' 'CP-3' 'IR-2' 'IR-9' 'SA-16' 'SC-38' 'SR-9']</t>
+          <t>['CM-13' 'PM-32' 'RA-9' 'SA-17' 'SA-20' 'SA-21' 'SA-23' 'SR-4']</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="G13" t="n">
-        <v>1932</v>
+        <v>2320</v>
       </c>
       <c r="H13" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02639751552795031</v>
+        <v>0.01681034482758621</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="14">
@@ -4015,33 +4022,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['AU-8' 'SC-36' 'SC-45']</t>
+          <t>['CP-8' 'CP-11' 'CP-13' 'PE-17' 'SC-47' 'SI-22']</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="G14" t="n">
-        <v>840</v>
+        <v>1752</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004761904761904762</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="15">
@@ -4053,29 +4060,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['CP-6' 'CP-7' 'PE-17']</t>
+          <t>['IA-7' 'SC-12' 'SC-17']</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="n">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="H15" t="n">
         <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009523809523809525</v>
+        <v>0.00903954802259887</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="16">
@@ -4083,33 +4090,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['CP-8' 'CP-11' 'CP-13' 'IA-10' 'SI-22']</t>
+          <t>['IA-10' 'IA-11' 'SC-2' 'SC-3' 'SC-11' 'SC-32' 'SC-39' 'SC-44' 'SC-50'
+ 'SI-23']</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
-        <v>0.55</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="G16" t="n">
-        <v>1390</v>
+        <v>2880</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>0.008633093525179856</v>
+        <v>0.01215277777777778</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="17">
@@ -4117,33 +4125,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['CP-10' 'CP-12' 'SC-24' 'SI-17']</t>
+          <t>['MA-2' 'MA-3' 'MA-5' 'MA-6' 'MA-7' 'MP-6' 'PE-8' 'PE-14' 'PE-16']</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="G17" t="n">
-        <v>1116</v>
+        <v>2601</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005376344086021506</v>
+        <v>0.02268358323721646</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>0.2804878048780488</v>
       </c>
     </row>
     <row r="18">
@@ -4155,29 +4163,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'PE-22']</t>
+          <t>['MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-7' 'PE-22' 'SC-43']</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1932</v>
+        <v>2037</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="J18" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -4185,33 +4193,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['PL-10' 'PL-11' 'PT-4']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['PE-9' 'PE-13' 'PE-14' 'PE-15' 'SI-20' 'SR-10']</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>30</v>
-      </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19" t="n">
-        <v>1662</v>
+        <v>885</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.006618531889290012</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="20">
@@ -4223,7 +4231,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['PE-10' 'PE-11' 'PE-12']</t>
+          <t>['PM-24' 'PT-8' 'RA-8']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -4236,16 +4244,16 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001190476190476191</v>
+        <v>0.002259887005649718</v>
       </c>
       <c r="J20" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21">
@@ -4253,30 +4261,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['PS-2' 'PS-9']</t>
+          <t>['PM-26' 'PS-4' 'PS-7' 'SI-5']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>562</v>
+        <v>1176</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005338078291814947</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="J21" t="n">
         <v>0.25</v>
@@ -4293,7 +4301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4361,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4372,50 +4380,52 @@
  'AU-13' 'AU-14' 'AU-16' 'CA-1' 'CA-2' 'CA-3' 'CA-5' 'CA-6' 'CA-7' 'CA-8'
  'CA-9' 'CM-1' 'CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7' 'CM-8' 'CM-9'
  'CM-10' 'CM-11' 'CM-12' 'CM-13' 'CM-14' 'CP-1' 'CP-2' 'CP-3' 'CP-4'
- 'CP-6' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'CP-13' 'IA-1' 'IA-2' 'IA-3' 'IA-4'
- 'IA-5' 'IA-6' 'IA-7' 'IA-8' 'IA-9' 'IA-10' 'IA-11' 'IA-12' 'IR-1' 'IR-2'
- 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7' 'IR-8' 'IR-9' 'MA-1' 'MA-2' 'MA-3'
- 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'MP-1' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6'
+ 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'CP-12' 'CP-13' 'IA-1' 'IA-2'
+ 'IA-3' 'IA-4' 'IA-5' 'IA-6' 'IA-7' 'IA-8' 'IA-9' 'IA-10' 'IA-11' 'IA-12'
+ 'IR-1' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7' 'IR-8' 'IR-9' 'MA-1'
+ 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'MP-1' 'MP-3' 'MP-4' 'MP-6'
  'MP-7' 'MP-8' 'PE-1' 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-6' 'PE-8' 'PE-9'
- 'PE-13' 'PE-14' 'PE-15' 'PE-16' 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PE-22'
- 'PE-23' 'PL-1' 'PL-2' 'PL-4' 'PL-7' 'PL-8' 'PL-9' 'PL-10' 'PL-11' 'PM-1'
- 'PM-2' 'PM-3' 'PM-4' 'PM-5' 'PM-6' 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11'
- 'PM-12' 'PM-14' 'PM-15' 'PM-16' 'PM-17' 'PM-18' 'PM-21' 'PM-22' 'PM-25'
+ 'PE-10' 'PE-11' 'PE-12' 'PE-13' 'PE-14' 'PE-15' 'PE-16' 'PE-17' 'PE-18'
+ 'PE-19' 'PE-21' 'PE-22' 'PE-23' 'PL-1' 'PL-2' 'PL-4' 'PL-7' 'PL-8' 'PL-9'
+ 'PL-10' 'PL-11' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-5' 'PM-6' 'PM-7' 'PM-8'
+ 'PM-9' 'PM-10' 'PM-11' 'PM-12' 'PM-13' 'PM-14' 'PM-15' 'PM-16' 'PM-17'
+ 'PM-18' 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-23' 'PM-24' 'PM-25' 'PM-26'
  'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PM-31' 'PM-32' 'PS-1' 'PS-2' 'PS-3'
  'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PS-8' 'PS-9' 'PT-1' 'PT-2' 'PT-3' 'PT-4'
- 'PT-5' 'PT-6' 'PT-7' 'RA-1' 'RA-2' 'RA-3' 'RA-5' 'RA-7' 'RA-8' 'RA-9'
- 'RA-10' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-9' 'SA-10' 'SA-11'
- 'SA-15' 'SA-16' 'SA-17' 'SA-20' 'SA-21' 'SA-22' 'SA-23' 'SC-1' 'SC-2'
- 'SC-3' 'SC-4' 'SC-5' 'SC-7' 'SC-8' 'SC-10' 'SC-11' 'SC-12' 'SC-13'
- 'SC-15' 'SC-16' 'SC-17' 'SC-18' 'SC-23' 'SC-24' 'SC-25' 'SC-28' 'SC-29'
- 'SC-30' 'SC-32' 'SC-34' 'SC-35' 'SC-36' 'SC-37' 'SC-38' 'SC-39' 'SC-40'
- 'SC-41' 'SC-42' 'SC-43' 'SC-46' 'SC-47' 'SC-48' 'SC-49' 'SC-50' 'SC-51'
- 'SI-1' 'SI-2' 'SI-3' 'SI-4' 'SI-5' 'SI-6' 'SI-7' 'SI-8' 'SI-10' 'SI-12'
- 'SI-13' 'SI-14' 'SI-15' 'SI-16' 'SI-18' 'SI-19' 'SI-20' 'SI-21' 'SI-22'
- 'SI-23' 'SR-1' 'SR-2' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9'
- 'SR-10' 'SR-11' 'SR-12']</t>
+ 'PT-5' 'PT-6' 'PT-7' 'PT-8' 'RA-1' 'RA-2' 'RA-3' 'RA-5' 'RA-6' 'RA-7'
+ 'RA-8' 'RA-9' 'RA-10' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-9'
+ 'SA-10' 'SA-11' 'SA-15' 'SA-16' 'SA-17' 'SA-20' 'SA-21' 'SA-22' 'SA-23'
+ 'SC-1' 'SC-2' 'SC-3' 'SC-4' 'SC-5' 'SC-6' 'SC-7' 'SC-8' 'SC-10' 'SC-11'
+ 'SC-12' 'SC-13' 'SC-15' 'SC-16' 'SC-17' 'SC-18' 'SC-23' 'SC-24' 'SC-25'
+ 'SC-26' 'SC-27' 'SC-28' 'SC-29' 'SC-30' 'SC-31' 'SC-32' 'SC-34' 'SC-35'
+ 'SC-36' 'SC-37' 'SC-38' 'SC-39' 'SC-40' 'SC-41' 'SC-42' 'SC-43' 'SC-46'
+ 'SC-47' 'SC-48' 'SC-49' 'SC-50' 'SC-51' 'SI-1' 'SI-2' 'SI-3' 'SI-4'
+ 'SI-5' 'SI-6' 'SI-7' 'SI-8' 'SI-10' 'SI-11' 'SI-12' 'SI-13' 'SI-14'
+ 'SI-15' 'SI-16' 'SI-17' 'SI-18' 'SI-19' 'SI-20' 'SI-21' 'SI-22' 'SI-23'
+ 'SR-1' 'SR-2' 'SR-3' 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9' 'SR-10'
+ 'SR-11' 'SR-12']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73712</v>
+        <v>83232</v>
       </c>
       <c r="E2" t="n">
-        <v>3257</v>
+        <v>3114</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04418547861949208</v>
+        <v>0.03741349480968858</v>
       </c>
       <c r="G2" t="n">
-        <v>2992</v>
+        <v>2601</v>
       </c>
       <c r="H2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006350267379679145</v>
+        <v>0.005767012687427913</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9942002442002442</v>
+        <v>0.9952061361457335</v>
       </c>
     </row>
     <row r="3">
@@ -4423,33 +4433,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AU-8' 'SC-45']</t>
+          <t>['AU-8' 'SC-20' 'SC-45']</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>562</v>
+        <v>885</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003558718861209964</v>
+        <v>0.004519774011299435</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="4">
@@ -4461,7 +4471,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['CP-7' 'PE-17']</t>
+          <t>['MP-2' 'MP-5']</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4474,16 +4484,16 @@
         <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01067615658362989</v>
+        <v>0.0152027027027027</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -4495,7 +4505,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['CP-12' 'SI-17']</t>
+          <t>['PE-20' 'SC-44']</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4508,16 +4518,16 @@
         <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001779359430604982</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -4525,67 +4535,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PE-10' 'PE-11' 'PE-12']</t>
+          <t>['SC-21' 'SC-22']</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>592</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003378378378378379</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>840</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.001190476190476191</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['PM-19' 'PM-20']</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>562</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01423487544483986</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -4667,59 +4643,60 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['AC-1' 'AC-2' 'AC-3' 'AC-4' 'AC-5' 'AC-6' 'AC-7' 'AC-9' 'AC-11' 'AC-12'
- 'AC-14' 'AC-16' 'AC-17' 'AC-18' 'AC-19' 'AC-20' 'AC-21' 'AC-24' 'AT-1'
- 'AT-2' 'AT-3' 'AT-4' 'AT-6' 'AU-1' 'AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-6'
- 'AU-7' 'AU-9' 'AU-10' 'AU-11' 'AU-12' 'AU-13' 'AU-14' 'AU-16' 'CA-1'
- 'CA-2' 'CA-3' 'CA-5' 'CA-6' 'CA-7' 'CA-8' 'CA-9' 'CM-1' 'CM-2' 'CM-3'
- 'CM-4' 'CM-5' 'CM-6' 'CM-7' 'CM-8' 'CM-9' 'CM-10' 'CM-11' 'CM-12' 'CM-14'
- 'CP-1' 'CP-2' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11'
- 'CP-13' 'IA-1' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-6' 'IA-7' 'IA-8' 'IA-9'
- 'IA-10' 'IA-11' 'IA-12' 'IR-1' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7'
- 'IR-8' 'IR-9' 'MA-1' 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'MP-1'
- 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'MP-8' 'PE-1' 'PE-2' 'PE-3'
- 'PE-4' 'PE-5' 'PE-6' 'PE-8' 'PE-13' 'PE-14' 'PE-15' 'PE-16' 'PE-17'
- 'PE-18' 'PE-20' 'PE-21' 'PE-23' 'PL-1' 'PL-2' 'PL-4' 'PL-7' 'PL-8' 'PL-9'
- 'PL-10' 'PL-11' 'PM-1' 'PM-2' 'PM-3' 'PM-4' 'PM-5' 'PM-6' 'PM-7' 'PM-8'
- 'PM-9' 'PM-10' 'PM-11' 'PM-12' 'PM-14' 'PM-15' 'PM-16' 'PM-17' 'PM-18'
- 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-25' 'PM-27' 'PM-28' 'PM-29' 'PM-30'
- 'PM-31' 'PS-1' 'PS-3' 'PS-4' 'PS-5' 'PS-6' 'PS-7' 'PS-8' 'PT-1' 'PT-2'
- 'PT-3' 'PT-4' 'PT-5' 'PT-6' 'PT-7' 'RA-1' 'RA-2' 'RA-3' 'RA-5' 'RA-7'
- 'RA-8' 'RA-9' 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-9' 'SA-10'
- 'SA-11' 'SA-15' 'SA-16' 'SA-17' 'SA-20' 'SA-21' 'SC-1' 'SC-2' 'SC-3'
- 'SC-4' 'SC-5' 'SC-7' 'SC-8' 'SC-10' 'SC-11' 'SC-12' 'SC-13' 'SC-15'
- 'SC-16' 'SC-17' 'SC-18' 'SC-23' 'SC-28' 'SC-29' 'SC-30' 'SC-32' 'SC-34'
- 'SC-35' 'SC-36' 'SC-37' 'SC-38' 'SC-39' 'SC-40' 'SC-41' 'SC-42' 'SC-43'
- 'SC-46' 'SC-47' 'SC-48' 'SC-49' 'SC-50' 'SC-51' 'SI-1' 'SI-2' 'SI-3'
- 'SI-4' 'SI-5' 'SI-6' 'SI-7' 'SI-8' 'SI-10' 'SI-12' 'SI-13' 'SI-15'
- 'SI-16' 'SI-18' 'SI-19' 'SI-20' 'SI-22' 'SI-23' 'SR-1' 'SR-2' 'SR-3'
- 'SR-4' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9' 'SR-10' 'SR-11' 'SR-12']</t>
+          <t>['AC-1' 'AC-2' 'AC-3' 'AC-4' 'AC-5' 'AC-6' 'AC-7' 'AC-8' 'AC-9' 'AC-11'
+ 'AC-12' 'AC-14' 'AC-16' 'AC-17' 'AC-18' 'AC-19' 'AC-20' 'AC-21' 'AC-22'
+ 'AC-23' 'AC-24' 'AC-25' 'AT-1' 'AT-2' 'AT-3' 'AT-4' 'AT-6' 'AU-1' 'AU-2'
+ 'AU-3' 'AU-4' 'AU-5' 'AU-6' 'AU-7' 'AU-9' 'AU-10' 'AU-11' 'AU-12' 'AU-13'
+ 'AU-14' 'AU-16' 'CA-1' 'CA-2' 'CA-3' 'CA-5' 'CA-7' 'CA-8' 'CA-9' 'CM-1'
+ 'CM-2' 'CM-3' 'CM-4' 'CM-5' 'CM-6' 'CM-7' 'CM-8' 'CM-9' 'CM-10' 'CM-11'
+ 'CM-12' 'CM-13' 'CM-14' 'CP-1' 'CP-2' 'CP-3' 'CP-4' 'CP-6' 'CP-7' 'CP-8'
+ 'CP-9' 'CP-10' 'IA-1' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-6' 'IA-7' 'IA-8'
+ 'IA-9' 'IA-12' 'IR-1' 'IR-2' 'IR-3' 'IR-4' 'IR-5' 'IR-6' 'IR-7' 'IR-8'
+ 'IR-9' 'MA-1' 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'MP-1' 'MP-2'
+ 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7' 'MP-8' 'PE-1' 'PE-2' 'PE-3' 'PE-4'
+ 'PE-5' 'PE-6' 'PE-8' 'PE-9' 'PE-13' 'PE-14' 'PE-15' 'PE-16' 'PE-17'
+ 'PE-18' 'PE-19' 'PE-20' 'PE-21' 'PL-1' 'PL-2' 'PL-4' 'PL-7' 'PL-8' 'PL-9'
+ 'PM-1' 'PM-3' 'PM-4' 'PM-5' 'PM-6' 'PM-7' 'PM-8' 'PM-9' 'PM-10' 'PM-11'
+ 'PM-14' 'PM-16' 'PM-17' 'PM-18' 'PM-19' 'PM-20' 'PM-21' 'PM-22' 'PM-25'
+ 'PM-27' 'PM-28' 'PM-29' 'PM-30' 'PM-31' 'PS-1' 'PS-2' 'PS-3' 'PS-4'
+ 'PS-5' 'PS-6' 'PS-7' 'PS-8' 'PS-9' 'PT-1' 'PT-2' 'PT-3' 'PT-4' 'PT-5'
+ 'PT-6' 'PT-7' 'RA-1' 'RA-3' 'RA-5' 'RA-6' 'RA-7' 'RA-8' 'RA-9' 'RA-10'
+ 'SA-1' 'SA-2' 'SA-3' 'SA-4' 'SA-5' 'SA-8' 'SA-9' 'SA-10' 'SA-11' 'SA-15'
+ 'SA-16' 'SA-17' 'SA-20' 'SA-21' 'SA-22' 'SC-1' 'SC-2' 'SC-3' 'SC-4'
+ 'SC-5' 'SC-7' 'SC-8' 'SC-10' 'SC-11' 'SC-12' 'SC-13' 'SC-15' 'SC-16'
+ 'SC-17' 'SC-18' 'SC-23' 'SC-24' 'SC-25' 'SC-26' 'SC-27' 'SC-28' 'SC-29'
+ 'SC-30' 'SC-31' 'SC-32' 'SC-34' 'SC-35' 'SC-36' 'SC-37' 'SC-38' 'SC-39'
+ 'SC-40' 'SC-41' 'SC-42' 'SC-43' 'SC-44' 'SC-46' 'SC-47' 'SC-48' 'SC-49'
+ 'SC-50' 'SC-51' 'SI-1' 'SI-2' 'SI-3' 'SI-4' 'SI-6' 'SI-7' 'SI-8' 'SI-10'
+ 'SI-11' 'SI-12' 'SI-13' 'SI-14' 'SI-15' 'SI-16' 'SI-18' 'SI-19' 'SI-20'
+ 'SI-22' 'SI-23' 'SR-1' 'SR-2' 'SR-3' 'SR-4' 'SR-6' 'SR-7' 'SR-8' 'SR-9'
+ 'SR-10' 'SR-11' 'SR-12']</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>65792</v>
+        <v>68906</v>
       </c>
       <c r="E2" t="n">
-        <v>3252</v>
+        <v>3035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04942850194552529</v>
+        <v>0.04404551127623139</v>
       </c>
       <c r="G2" t="n">
-        <v>6682</v>
+        <v>9205</v>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003292427416941036</v>
+        <v>0.0044541010320478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9932803909590715</v>
+        <v>0.9866710013003901</v>
       </c>
     </row>
     <row r="3">
@@ -4731,7 +4708,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['AC-8']</t>
+          <t>['AC-10']</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4742,13 +4719,13 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4759,31 +4736,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['AC-10']</t>
+          <t>['AU-8' 'SC-20' 'SC-21' 'SC-22' 'SC-45']</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.45</v>
+      </c>
       <c r="G4" t="n">
-        <v>282</v>
+        <v>1465</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.00136518771331058</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="5">
@@ -4791,31 +4770,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['AC-22']</t>
+          <t>['CA-6' 'PE-22' 'RA-2']</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="G5" t="n">
-        <v>282</v>
+        <v>885</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.007909604519774011</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -4823,31 +4804,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['CP-11' 'CP-13']</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['AC-23']</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G6" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -4855,31 +4838,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['CP-12' 'SI-17']</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['AC-25']</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G7" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -4891,7 +4876,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['AU-8' 'SC-45']</t>
+          <t>['IA-10' 'IA-11']</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -4904,16 +4889,16 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003558718861209964</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -4921,31 +4906,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['CM-13']</t>
+          <t>['PE-10' 'PE-11' 'PE-12']</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8333333333333334</v>
+      </c>
       <c r="G9" t="n">
-        <v>282</v>
+        <v>885</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.001129943502824859</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -4953,33 +4940,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['CP-12' 'SC-24' 'SI-17']</t>
+          <t>['PE-23']</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>840</v>
+        <v>297</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002380952380952381</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4987,31 +4972,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['PL-10' 'PL-11']</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['PE-9']</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.005067567567567568</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -5019,33 +5006,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['PM-2']</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>297</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['PE-10' 'PE-11' 'PE-12']</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>840</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.001190476190476191</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5057,7 +5042,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['PE-19']</t>
+          <t>['PM-12']</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -5068,13 +5053,13 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -5085,31 +5070,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['PM-13' 'PM-15']</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['PE-22']</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G14" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15">
@@ -5121,7 +5108,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['PM-32']</t>
+          <t>['PM-23']</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -5132,13 +5119,13 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -5153,29 +5140,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['PS-2' 'PS-9']</t>
+          <t>['PM-24' 'PT-8']</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
       <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G16" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005338078291814947</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -5187,7 +5174,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['RA-10']</t>
+          <t>['PM-26']</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -5198,13 +5185,13 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -5215,31 +5202,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['PM-32' 'SA-23']</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['SA-22']</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.003378378378378379</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -5247,31 +5236,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['SC-6' 'SR-5']</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>['SA-23']</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G19" t="n">
-        <v>282</v>
+        <v>592</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003546099290780142</v>
+        <v>0.01013513513513514</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="20">
@@ -5283,7 +5274,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['SC-25']</t>
+          <t>['SI-5']</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -5294,13 +5285,13 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -5311,33 +5302,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['SI-14' 'SI-21']</t>
+          <t>['SI-21']</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>297</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="n">
-        <v>562</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
       <c r="I21" t="n">
-        <v>0.003558718861209964</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/regulations outputs/in family connection statistics test new NLP based.xlsx
+++ b/regulations outputs/in family connection statistics test new NLP based.xlsx
@@ -366,142 +366,144 @@
     <t>Louvain_Communities</t>
   </si>
   <si>
-    <t>['AC-7' 'AC-10' 'AC-14' 'AC-19' 'AC-21' 'CM-3' 'CP-11' 'CP-12' 'CP-13'
- 'IA-1' 'IA-2' 'IA-7' 'IA-8' 'IA-10' 'IA-11' 'MP-8' 'PL-10' 'PM-17'
- 'PM-28' 'PS-2' 'PS-9' 'SA-5' 'SC-2' 'SC-3' 'SC-4' 'SC-8' 'SC-11' 'SC-32'
- 'SC-39' 'SI-4' 'SI-17']</t>
-  </si>
-  <si>
-    <t>['AC-23' 'AT-2' 'AU-8' 'CA-2' 'CA-8' 'CM-4' 'CP-7' 'CP-9' 'MA-6' 'PE-13'
- 'PM-12' 'PT-7' 'RA-1' 'RA-3' 'RA-10' 'SC-12' 'SC-20' 'SC-21' 'SC-22'
- 'SC-41' 'SC-45' 'SI-10' 'SI-11']</t>
-  </si>
-  <si>
-    <t>['AC-3' 'AC-25' 'AU-3' 'AU-10' 'AU-11' 'CA-3' 'IA-6' 'MA-2' 'MA-7' 'PE-8'
- 'PM-21' 'PM-23' 'PM-27' 'PS-6' 'PT-3' 'SC-16' 'SC-42' 'SC-50' 'SI-6'
- 'SI-19']</t>
-  </si>
-  <si>
-    <t>['AC-1' 'AC-22' 'AT-3' 'AU-12' 'AU-16' 'CA-1' 'CM-1' 'CM-9' 'MA-1' 'MP-1'
- 'PE-1' 'PE-14' 'PL-1' 'PL-2' 'PL-8' 'PL-11' 'PM-1' 'PM-3' 'PM-4' 'PM-5'
- 'PM-8' 'PM-9' 'PM-10' 'PM-11' 'PM-13' 'PM-15' 'PM-16' 'PM-18' 'PM-19'
- 'PM-20' 'PM-22' 'PT-1' 'PT-2' 'PT-4' 'RA-7' 'SA-1' 'SI-1' 'SI-5' 'SI-12'
- 'SR-1']</t>
-  </si>
-  <si>
-    <t>['AT-4' 'AU-7' 'CM-12' 'CP-2' 'IR-4' 'IR-6' 'PL-7' 'PM-2' 'PM-14' 'PM-24'
- 'PM-29' 'PM-30' 'PT-8' 'RA-8' 'SA-2' 'SA-3' 'SA-9' 'SA-15' 'SC-6' 'SC-35'
- 'SC-38' 'SC-48' 'SI-18' 'SI-22' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8'
+    <t>['AC-5' 'AC-7' 'AC-10' 'AC-14' 'AC-19' 'AC-21' 'CM-12' 'CP-11' 'CP-13'
+ 'IA-1' 'IA-2' 'IA-7' 'IA-10' 'IA-11' 'MP-8' 'PM-17' 'PS-3' 'SA-5' 'SC-2'
+ 'SC-3' 'SC-4' 'SC-8' 'SC-11' 'SC-32' 'SC-39']</t>
+  </si>
+  <si>
+    <t>['AC-3' 'AC-25' 'AT-3' 'AU-10' 'CA-3' 'IR-4' 'MA-2' 'MA-7' 'PE-1' 'PE-8'
+ 'PE-14' 'PL-7' 'PM-5' 'PM-9' 'PM-11' 'PM-21' 'PM-24' 'PS-6' 'PT-2' 'PT-3'
+ 'PT-8' 'RA-8' 'SA-3' 'SA-15' 'SC-16' 'SC-35' 'SC-38' 'SC-42' 'SC-48'
+ 'SC-50' 'SI-6' 'SI-18' 'SI-19']</t>
+  </si>
+  <si>
+    <t>['AT-1' 'AT-4' 'AT-6' 'AU-7' 'CP-1' 'CP-2' 'CP-3' 'CP-4' 'CP-8' 'IR-6'
+ 'IR-9' 'PM-2' 'PM-14' 'PM-25' 'PM-29' 'PM-30' 'SA-2' 'SA-4' 'SA-9'
+ 'SA-16' 'SC-6' 'SC-12' 'SI-22' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8'
  'SR-12']</t>
   </si>
   <si>
-    <t>['AC-2' 'AC-8' 'AC-11' 'AC-16' 'AC-18' 'AC-24' 'CM-5' 'CM-7' 'CM-8'
- 'IA-12' 'IR-2' 'MA-5' 'PE-2' 'PE-4' 'PE-5' 'PE-6' 'PE-10' 'PE-12' 'PE-15'
- 'PE-16' 'PE-18' 'PE-19' 'PE-21' 'PE-23' 'PL-4' 'PM-26' 'PS-4' 'PS-5'
- 'PS-7' 'PS-8' 'PT-5' 'RA-6' 'SC-1' 'SC-37' 'SC-43' 'SI-15']</t>
-  </si>
-  <si>
-    <t>['AC-6' 'AC-9' 'AC-20' 'AU-6' 'AU-13' 'CA-6' 'CA-7' 'CM-10' 'CM-11'
- 'CM-14' 'CP-6' 'IR-7' 'MA-3' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-7' 'PE-22'
- 'PL-9' 'PM-31' 'PT-6' 'RA-2' 'RA-5' 'SC-18' 'SC-25' 'SC-34' 'SC-36'
- 'SC-49' 'SI-2' 'SI-3' 'SI-7' 'SI-16']</t>
-  </si>
-  <si>
-    <t>['AT-1' 'AT-6' 'CA-5' 'CP-1' 'CP-3' 'CP-4' 'CP-8' 'IR-1' 'IR-3' 'IR-5'
- 'IR-8' 'IR-9' 'MP-6' 'PE-20' 'PM-25' 'SA-16' 'SC-44']</t>
-  </si>
-  <si>
-    <t>['AC-5' 'AC-12' 'AC-17' 'AU-1' 'AU-2' 'AU-5' 'AU-9' 'AU-14' 'CA-9' 'CM-2'
- 'CM-13' 'IA-3' 'IA-4' 'IA-5' 'IA-9' 'MA-4' 'PE-3' 'PE-9' 'PE-11' 'PE-17'
- 'PM-6' 'PM-32' 'PS-1' 'PS-3' 'RA-9' 'SA-8' 'SA-10' 'SA-11' 'SA-20'
- 'SA-22' 'SA-23' 'SC-5' 'SC-7' 'SC-10' 'SC-13' 'SC-15' 'SC-17' 'SC-23'
- 'SC-26' 'SC-27' 'SC-31' 'SC-40' 'SC-47' 'SC-51' 'SI-8' 'SI-14' 'SI-20'
- 'SI-21' 'SR-4' 'SR-11']</t>
-  </si>
-  <si>
-    <t>['AC-4' 'AU-4' 'CM-6' 'CP-10' 'PM-7' 'SA-4' 'SA-17' 'SA-21' 'SC-24'
- 'SC-28' 'SC-29' 'SC-30' 'SC-46' 'SI-13' 'SI-23' 'SR-9' 'SR-10']</t>
+    <t>['AC-2' 'AC-6' 'AC-9' 'AC-20' 'AU-13' 'CA-5' 'CA-6' 'CA-7' 'CM-7' 'CM-10'
+ 'CM-11' 'CM-14' 'CP-6' 'IR-7' 'MA-3' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-7'
+ 'PE-22' 'PM-31' 'PS-5' 'PS-8' 'PT-6' 'RA-2' 'RA-5' 'SA-10' 'SA-22'
+ 'SC-18' 'SC-25' 'SC-34' 'SC-36' 'SC-49' 'SI-2' 'SI-3' 'SI-7' 'SI-16'
+ 'SR-11']</t>
+  </si>
+  <si>
+    <t>['AU-6' 'CM-8' 'IA-4' 'IA-9' 'IR-2' 'PE-6' 'PE-10' 'PE-12' 'PE-15' 'PE-18'
+ 'PE-19' 'PE-21' 'PE-23' 'PL-4' 'PL-9' 'RA-6' 'SC-1' 'SC-37']</t>
+  </si>
+  <si>
+    <t>['AC-1' 'AC-22' 'CA-1' 'CM-1' 'CM-9' 'IR-1' 'IR-3' 'IR-5' 'IR-8' 'MA-1'
+ 'MP-1' 'MP-6' 'PE-20' 'PL-1' 'PL-2' 'PL-8' 'PL-11' 'PM-1' 'PM-3' 'PM-4'
+ 'PM-8' 'PM-10' 'PM-13' 'PM-15' 'PM-18' 'PM-19' 'PM-20' 'PM-22' 'PT-1'
+ 'PT-4' 'RA-7' 'SA-1' 'SC-44' 'SI-1' 'SI-12' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['AC-8' 'AC-11' 'AC-16' 'AC-18' 'AC-24' 'CM-5' 'IA-12' 'MA-5' 'PE-2'
+ 'PE-4' 'PE-5' 'PM-26' 'PS-4' 'PS-7' 'PT-5' 'SI-15']</t>
+  </si>
+  <si>
+    <t>['AC-17' 'AC-23' 'AT-2' 'AU-1' 'AU-8' 'AU-14' 'CA-2' 'CA-8' 'CA-9' 'CM-4'
+ 'CM-13' 'CP-7' 'CP-9' 'IA-3' 'IA-6' 'MA-6' 'PE-3' 'PE-13' 'PE-16' 'PM-12'
+ 'PT-7' 'RA-1' 'RA-3' 'RA-9' 'RA-10' 'SA-20' 'SC-7' 'SC-10' 'SC-17'
+ 'SC-20' 'SC-21' 'SC-22' 'SC-23' 'SC-41' 'SC-43' 'SC-45' 'SC-51' 'SI-8'
+ 'SI-10' 'SI-11' 'SI-14' 'SI-20' 'SI-21' 'SR-4' 'SR-9' 'SR-10']</t>
+  </si>
+  <si>
+    <t>['AC-12' 'AU-3' 'AU-5' 'AU-9' 'AU-11' 'AU-12' 'AU-16' 'CM-2' 'CP-10'
+ 'MA-4' 'PE-9' 'PE-11' 'PE-17' 'PM-6' 'PM-16' 'PM-23' 'PM-27' 'PM-32'
+ 'PS-1' 'SA-8' 'SA-23' 'SC-15' 'SC-31' 'SC-40' 'SC-47' 'SI-5']</t>
+  </si>
+  <si>
+    <t>['AC-4' 'AU-2' 'AU-4' 'CM-3' 'CM-6' 'CP-12' 'IA-5' 'IA-8' 'PL-10' 'PM-7'
+ 'PM-28' 'PS-2' 'PS-9' 'SA-11' 'SA-17' 'SA-21' 'SC-5' 'SC-13' 'SC-24'
+ 'SC-26' 'SC-27' 'SC-28' 'SC-29' 'SC-30' 'SC-46' 'SI-4' 'SI-13' 'SI-17'
+ 'SI-23']</t>
   </si>
   <si>
     <t>Fluid_Communities</t>
-  </si>
-  <si>
-    <t>['AC-4' 'AC-6' 'CM-7' 'CM-10' 'CM-11' 'SC-2' 'SC-3' 'SC-7' 'SC-11' 'SC-32'
- 'SC-39' 'SC-46' 'SC-49' 'SC-50' 'SI-23']</t>
   </si>
   <si>
     <t>['AC-1' 'AT-1' 'AU-1' 'CA-1' 'CM-1' 'CM-9' 'CP-1' 'IA-1' 'IR-1' 'IR-8'
  'MA-1' 'MP-1' 'PE-1' 'PL-1' 'PL-2' 'PM-1' 'PM-4' 'PM-9' 'PM-11' 'PM-17'
- 'PM-18' 'PS-1' 'PT-1' 'RA-1' 'SA-1' 'SC-1' 'SI-1' 'SR-1']</t>
-  </si>
-  <si>
-    <t>['CM-6' 'CM-13' 'CM-14' 'RA-9' 'SA-10' 'SA-11' 'SA-15' 'SA-17' 'SA-20'
- 'SA-21' 'SC-18' 'SC-29' 'SI-2' 'SI-3' 'SI-7' 'SI-8' 'SI-16' 'SR-4']</t>
-  </si>
-  <si>
-    <t>['AU-2' 'AU-3' 'AU-4' 'AU-5' 'AU-7' 'AU-8' 'AU-11' 'AU-12' 'AU-16' 'SC-20'
- 'SC-21' 'SC-22' 'SC-36' 'SC-45']</t>
-  </si>
-  <si>
-    <t>['AT-2' 'AT-3' 'AT-4' 'AT-6' 'CP-3' 'IR-2' 'IR-9' 'PL-11' 'PM-5' 'PM-21'
- 'PM-22' 'PM-24' 'PM-25' 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'PT-8' 'RA-8'
- 'SA-16' 'SC-38' 'SI-12' 'SI-18']</t>
-  </si>
-  <si>
-    <t>['AC-5' 'AC-7' 'AC-11' 'AC-14' 'AC-16' 'AC-21' 'IA-2' 'IA-3' 'IA-4' 'IA-9'
- 'IA-10' 'IA-11' 'PM-15' 'PM-16' 'SC-4']</t>
-  </si>
-  <si>
-    <t>['CM-4' 'IR-4' 'IR-6' 'PM-12' 'PM-28' 'PM-30' 'PS-2' 'RA-3' 'RA-7' 'RA-10'
- 'SC-35' 'SR-2' 'SR-3' 'SR-6' 'SR-7' 'SR-8']</t>
-  </si>
-  <si>
-    <t>['AU-13' 'CA-2' 'CA-5' 'CA-7' 'CM-2' 'CM-12' 'IR-7' 'PM-14' 'PM-31' 'RA-5'
- 'SA-4' 'SA-22' 'SC-26' 'SI-4' 'SI-20' 'SR-10' 'SR-11']</t>
-  </si>
-  <si>
-    <t>['CA-8' 'CP-2' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-9' 'CP-10' 'CP-11' 'IR-3'
- 'PE-10' 'PE-11' 'PE-12' 'PE-13' 'PE-17' 'SC-47' 'SR-9']</t>
-  </si>
-  <si>
-    <t>['AC-3' 'AC-20' 'AC-25' 'AU-9' 'CA-3' 'CA-9' 'MP-2' 'MP-3' 'MP-4' 'MP-5'
- 'MP-6' 'MP-7' 'MP-8' 'PS-6' 'SC-27' 'SC-34']</t>
-  </si>
-  <si>
-    <t>['AU-6' 'CM-5' 'CM-8' 'IR-5' 'PE-6' 'PE-8' 'PE-18' 'PE-23' 'PL-9' 'RA-6']</t>
-  </si>
-  <si>
-    <t>['AC-23' 'AU-10' 'IA-8' 'IA-12' 'SC-15' 'SC-41' 'SC-42' 'SI-10' 'SI-11'
- 'SI-14' 'SI-19' 'SI-21']</t>
-  </si>
-  <si>
-    <t>['AC-18' 'AC-19' 'AC-22' 'AC-24' 'PE-2' 'PE-3' 'PE-4' 'PE-5' 'PE-9'
- 'PE-14' 'PE-16' 'PS-3' 'SC-51']</t>
-  </si>
-  <si>
-    <t>['PE-22' 'PL-7' 'PL-8' 'PM-3' 'PM-8' 'PM-32' 'PS-9' 'RA-2' 'SA-3' 'SA-5'
- 'SA-8' 'SA-23' 'SC-25']</t>
-  </si>
-  <si>
-    <t>['AC-12' 'AU-14' 'MA-2' 'MA-3' 'MA-4' 'MA-5' 'MA-6' 'MA-7' 'SC-10' 'SC-23'
- 'SI-13' 'SI-15']</t>
-  </si>
-  <si>
-    <t>['CA-6' 'PE-20' 'PM-2' 'PM-10' 'PM-13' 'PM-19' 'PM-29' 'SC-44' 'SC-48']</t>
-  </si>
-  <si>
-    <t>['AC-2' 'AC-8' 'AC-9' 'AC-10' 'AC-17' 'IA-5' 'IA-6' 'PE-15' 'PE-19' 'PL-4'
- 'PM-26' 'PS-4' 'SC-43']</t>
-  </si>
-  <si>
-    <t>['CP-13' 'PM-7' 'PT-6' 'SA-2' 'SA-9' 'SC-6' 'SI-22' 'SR-5' 'SR-12']</t>
-  </si>
-  <si>
-    <t>['CM-3' 'CP-12' 'IA-7' 'PE-21' 'PL-10' 'SC-5' 'SC-8' 'SC-12' 'SC-13'
- 'SC-16' 'SC-17' 'SC-24' 'SC-28' 'SC-30' 'SC-31' 'SC-37' 'SC-40' 'SI-17']</t>
-  </si>
-  <si>
-    <t>['PM-6' 'PM-20' 'PM-23' 'PM-27' 'PS-5' 'PS-7' 'PS-8' 'SI-5' 'SI-6']</t>
+ 'PM-18' 'PM-27' 'PS-1' 'PT-1' 'RA-1' 'SA-1' 'SA-2' 'SC-1' 'SI-1' 'SR-1']</t>
+  </si>
+  <si>
+    <t>['AC-7' 'AC-10' 'AC-19' 'AC-20' 'MP-2' 'MP-3' 'MP-4' 'MP-5' 'MP-6' 'MP-7'
+ 'MP-8' 'PE-16' 'SC-43']</t>
+  </si>
+  <si>
+    <t>['AC-16' 'CM-13' 'CM-14' 'PM-6' 'PM-32' 'SA-8' 'SA-10' 'SA-23' 'SC-16'
+ 'SI-6']</t>
+  </si>
+  <si>
+    <t>['AC-9' 'AU-2' 'AU-3' 'AU-6' 'AU-7' 'AU-11' 'AU-12' 'AU-16' 'CM-5' 'MA-2'
+ 'MA-3' 'MA-6' 'MA-7' 'PE-6' 'PE-8']</t>
+  </si>
+  <si>
+    <t>['AU-9' 'CM-3' 'CP-9' 'CP-12' 'IA-6' 'IA-7' 'PL-10' 'PL-11' 'SA-9' 'SC-8'
+ 'SC-12' 'SC-13' 'SC-28' 'SC-30' 'SI-7' 'SI-11' 'SI-16']</t>
+  </si>
+  <si>
+    <t>['AC-22' 'AU-4' 'AU-5' 'AU-13' 'CA-2' 'IR-5' 'PM-31' 'RA-5' 'SC-18'
+ 'SC-31' 'SI-4' 'SI-13']</t>
+  </si>
+  <si>
+    <t>['AC-5' 'AC-14' 'CM-12' 'MA-5' 'PE-2' 'PS-3' 'PS-7' 'RA-9' 'SA-5' 'SA-17'
+ 'SA-20' 'SA-21' 'SI-5']</t>
+  </si>
+  <si>
+    <t>['IR-4' 'IR-6' 'PL-7' 'PM-28' 'PM-30' 'PS-2' 'PS-9' 'RA-3' 'RA-7' 'SA-3'
+ 'SC-6' 'SC-38' 'SR-2' 'SR-3' 'SR-5' 'SR-6' 'SR-7' 'SR-8' 'SR-9']</t>
+  </si>
+  <si>
+    <t>['AC-12' 'AC-17' 'AU-14' 'MA-4' 'SC-10' 'SC-15' 'SC-17' 'SC-23' 'SC-41'
+ 'SI-8']</t>
+  </si>
+  <si>
+    <t>['AC-8' 'CM-8' 'PE-18' 'PE-23' 'PL-4' 'PL-9' 'PT-6' 'SA-22' 'SC-26'
+ 'SI-14' 'SI-20' 'SI-21' 'SR-4' 'SR-11']</t>
+  </si>
+  <si>
+    <t>['CP-2' 'CP-4' 'CP-6' 'CP-7' 'CP-8' 'CP-10' 'CP-11' 'PE-9' 'PE-10' 'PE-11'
+ 'PE-12' 'PE-13' 'PE-14' 'PE-15' 'PE-17' 'SC-47']</t>
+  </si>
+  <si>
+    <t>['AC-6' 'CP-13' 'IA-10' 'IA-11' 'PE-20' 'SC-2' 'SC-3' 'SC-7' 'SC-11'
+ 'SC-32' 'SC-39' 'SC-44' 'SC-48' 'SI-22' 'SI-23']</t>
+  </si>
+  <si>
+    <t>['AC-2' 'CA-5' 'CA-7' 'CM-2' 'CM-6' 'IR-3' 'IR-7' 'PM-14' 'PS-4' 'PS-5'
+ 'PS-8' 'SA-4' 'SA-11' 'SI-2' 'SR-12']</t>
+  </si>
+  <si>
+    <t>['AT-3' 'AT-6' 'CP-3' 'IR-2' 'IR-9' 'PM-5' 'PM-21' 'PM-22' 'PM-24' 'PM-25'
+ 'PT-2' 'PT-3' 'PT-4' 'PT-5' 'PT-7' 'PT-8' 'RA-8' 'SA-15' 'SA-16' 'SI-12'
+ 'SI-18' 'SI-19']</t>
+  </si>
+  <si>
+    <t>['CA-6' 'CM-4' 'PE-22' 'PM-2' 'PM-10' 'PM-19' 'PM-29' 'RA-2']</t>
+  </si>
+  <si>
+    <t>['AC-11' 'AC-18' 'AC-24' 'AU-10' 'IA-2' 'IA-3' 'IA-4' 'IA-5' 'IA-8' 'IA-9'
+ 'IA-12' 'PE-4' 'PE-5' 'PE-19' 'PE-21' 'SC-37' 'SC-40']</t>
+  </si>
+  <si>
+    <t>['CM-7' 'CM-10' 'CM-11' 'SC-25' 'SC-27' 'SC-29' 'SC-34' 'SC-35' 'SC-46'
+ 'SC-49' 'SC-50' 'SI-3']</t>
+  </si>
+  <si>
+    <t>['AT-2' 'AT-4' 'PL-8' 'PM-3' 'PM-7' 'PM-8' 'PM-12' 'PM-13' 'PM-15' 'PM-16'
+ 'PM-20' 'PM-26' 'RA-10']</t>
+  </si>
+  <si>
+    <t>['AC-3' 'AC-4' 'AC-21' 'AC-23' 'AC-25' 'CA-3' 'CA-9' 'PM-23' 'PS-6' 'SC-4'
+ 'SC-42' 'SI-10' 'SI-15']</t>
+  </si>
+  <si>
+    <t>['AU-8' 'CA-8' 'PE-3' 'RA-6' 'SC-5' 'SC-20' 'SC-21' 'SC-22' 'SC-24'
+ 'SC-36' 'SC-45' 'SC-51' 'SI-17' 'SR-10']</t>
   </si>
   <si>
     <t>Divisive_Communities</t>
@@ -1181,10 +1183,10 @@
         <v>39</v>
       </c>
       <c r="D4" s="1">
-        <v>31</v>
+        <v>29.5</v>
       </c>
       <c r="E4" s="1">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>8.5</v>
@@ -1207,10 +1209,10 @@
         <v>17.85668253374941</v>
       </c>
       <c r="D5" s="1">
-        <v>10.7165500252854</v>
+        <v>9.211104409594132</v>
       </c>
       <c r="E5" s="1">
-        <v>4.822098254800225</v>
+        <v>4.778240151705273</v>
       </c>
       <c r="F5" s="1">
         <v>20.34931784709515</v>
@@ -1233,10 +1235,10 @@
         <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" s="1">
         <v>9.5</v>
@@ -1285,10 +1287,10 @@
         <v>1.854270021798876</v>
       </c>
       <c r="D8" s="1">
-        <v>2.780745662520844</v>
+        <v>3.23522551421313</v>
       </c>
       <c r="E8" s="1">
-        <v>3.089941185907522</v>
+        <v>3.11830287447617</v>
       </c>
       <c r="F8" s="1">
         <v>0.7322112766609011</v>
@@ -1311,10 +1313,10 @@
         <v>1.695652173913043</v>
       </c>
       <c r="D9" s="1">
-        <v>2.137931034482758</v>
+        <v>2.95</v>
       </c>
       <c r="E9" s="1">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>0.8947368421052632</v>
@@ -1337,10 +1339,10 @@
         <v>1137</v>
       </c>
       <c r="D10" s="1">
-        <v>992</v>
+        <v>965</v>
       </c>
       <c r="E10" s="1">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="F10" s="1">
         <v>1745</v>
@@ -1363,10 +1365,10 @@
         <v>2017</v>
       </c>
       <c r="D11" s="1">
-        <v>2162</v>
+        <v>2189</v>
       </c>
       <c r="E11" s="1">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="F11" s="1">
         <v>1409</v>
@@ -1389,10 +1391,10 @@
         <v>0.3604946100190234</v>
       </c>
       <c r="D12" s="1">
-        <v>0.3145212428662016</v>
+        <v>0.3059606848446417</v>
       </c>
       <c r="E12" s="1">
-        <v>0.4733671528218136</v>
+        <v>0.4752694990488269</v>
       </c>
       <c r="F12" s="1">
         <v>0.5532656943563729</v>
@@ -1415,10 +1417,10 @@
         <v>0.342827203418992</v>
       </c>
       <c r="D13" s="1">
-        <v>0.2783371144507149</v>
+        <v>0.2719853750487206</v>
       </c>
       <c r="E13" s="1">
-        <v>0.3678369171402844</v>
+        <v>0.3760103091933539</v>
       </c>
       <c r="F13" s="1">
         <v>0.3689884358186694</v>
@@ -1441,10 +1443,10 @@
         <v>0.09381188118811881</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1031613976705491</v>
+        <v>0.1032527284399743</v>
       </c>
       <c r="E14" s="1">
-        <v>0.3256980802792321</v>
+        <v>0.3275786713286714</v>
       </c>
       <c r="F14" s="1">
         <v>0.1452955870108243</v>
@@ -1467,10 +1469,10 @@
         <v>0.2066220797856007</v>
       </c>
       <c r="D15" s="1">
-        <v>0.1099510707216866</v>
+        <v>0.1033647984858421</v>
       </c>
       <c r="E15" s="1">
-        <v>0.2501015397882406</v>
+        <v>0.2532431216725815</v>
       </c>
       <c r="F15" s="1">
         <v>0.3072104718402833</v>
@@ -1493,10 +1495,10 @@
         <v>0.02640536223915377</v>
       </c>
       <c r="D16" s="1">
-        <v>0.02740524781341108</v>
+        <v>0.02765285497726124</v>
       </c>
       <c r="E16" s="1">
-        <v>0.01979218798408046</v>
+        <v>0.01971881329679495</v>
       </c>
       <c r="F16" s="1">
         <v>0.01841926375235306</v>
@@ -1519,10 +1521,10 @@
         <v>0.02447269668943531</v>
       </c>
       <c r="D17" s="1">
-        <v>0.02774094556782822</v>
+        <v>0.02760717829061106</v>
       </c>
       <c r="E17" s="1">
-        <v>0.01965074132855887</v>
+        <v>0.01954161041190377</v>
       </c>
       <c r="F17" s="1">
         <v>0.01464045210228015</v>
@@ -1545,10 +1547,10 @@
         <v>0.5607059106270702</v>
       </c>
       <c r="D18" s="1">
-        <v>0.5802105857613115</v>
+        <v>0.5775145069385885</v>
       </c>
       <c r="E18" s="1">
-        <v>0.8854254964484499</v>
+        <v>0.8864442492691236</v>
       </c>
       <c r="F18" s="1">
         <v>0.7749835929179382</v>
@@ -1571,10 +1573,10 @@
         <v>0.7882020782751966</v>
       </c>
       <c r="D19" s="1">
-        <v>0.5970580384341329</v>
+        <v>0.5784261798578209</v>
       </c>
       <c r="E19" s="1">
-        <v>0.8543052815182657</v>
+        <v>0.8567250427648461</v>
       </c>
       <c r="F19" s="1">
         <v>0.9090233955339345</v>
@@ -1597,10 +1599,10 @@
         <v>0.6119736547216044</v>
       </c>
       <c r="D20" s="1">
-        <v>0.5660101723810494</v>
+        <v>0.5505514139986771</v>
       </c>
       <c r="E20" s="1">
-        <v>0.8369676040916796</v>
+        <v>0.8418007106482591</v>
       </c>
       <c r="F20" s="1">
         <v>0.8575089855185819</v>
@@ -1617,25 +1619,25 @@
         <v>26</v>
       </c>
       <c r="B21" s="1">
-        <v>-0.1362402366519717</v>
+        <v>-0.1362402549786726</v>
       </c>
       <c r="C21" s="1">
-        <v>-0.04335189435296795</v>
+        <v>-0.04335187801192986</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.1084305983312723</v>
+        <v>-0.07636864194789289</v>
       </c>
       <c r="E21" s="1">
-        <v>-0.09585351760624321</v>
+        <v>-0.05935880721835085</v>
       </c>
       <c r="F21" s="1">
-        <v>-0.007748464246163523</v>
+        <v>-0.007748459173511735</v>
       </c>
       <c r="G21" s="1">
-        <v>-0.130912387626211</v>
+        <v>-0.1309124891167293</v>
       </c>
       <c r="H21" s="1">
-        <v>-0.2258207239220098</v>
+        <v>-0.225820726669003</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1643,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="B22" s="1">
-        <v>-0.1804830532012034</v>
+        <v>-0.1804831974625652</v>
       </c>
       <c r="C22" s="1">
-        <v>-0.05245911362346289</v>
+        <v>-0.05245927321783705</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.06663762166669204</v>
+        <v>-0.0900021106835653</v>
       </c>
       <c r="E22" s="1">
-        <v>-0.08653860843793276</v>
+        <v>-0.09645340060671312</v>
       </c>
       <c r="F22" s="1">
-        <v>-0.04055853065212318</v>
+        <v>-0.04055858590885751</v>
       </c>
       <c r="G22" s="1">
-        <v>0.01622654771045175</v>
+        <v>0.01622636575077485</v>
       </c>
       <c r="H22" s="1">
-        <v>-0.1823872289303894</v>
+        <v>-0.1823870320505876</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1669,25 +1671,25 @@
         <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>17.24196855167804</v>
+        <v>17.24196854846515</v>
       </c>
       <c r="C23" s="1">
-        <v>41.01545536498008</v>
+        <v>41.01545588514585</v>
       </c>
       <c r="D23" s="1">
-        <v>34.2766211398236</v>
+        <v>34.07813023354571</v>
       </c>
       <c r="E23" s="1">
-        <v>18.50151092163769</v>
+        <v>18.1068734157476</v>
       </c>
       <c r="F23" s="1">
-        <v>19.03991903313106</v>
+        <v>19.03991966580565</v>
       </c>
       <c r="G23" s="1">
-        <v>80.74094889188078</v>
+        <v>80.74094983665313</v>
       </c>
       <c r="H23" s="1">
-        <v>18.871077486055</v>
+        <v>18.87107762633261</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1695,25 +1697,25 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>16.78187958124945</v>
+        <v>16.78187830375767</v>
       </c>
       <c r="C24" s="1">
-        <v>40.14321609148376</v>
+        <v>40.14321581733466</v>
       </c>
       <c r="D24" s="1">
-        <v>33.14403343583268</v>
+        <v>33.63372293305797</v>
       </c>
       <c r="E24" s="1">
-        <v>17.63981408539887</v>
+        <v>16.2495058765461</v>
       </c>
       <c r="F24" s="1">
-        <v>19.62060672463343</v>
+        <v>19.62060887940922</v>
       </c>
       <c r="G24" s="1">
-        <v>79.23157736117861</v>
+        <v>79.23156048133995</v>
       </c>
       <c r="H24" s="1">
-        <v>19.7606075997267</v>
+        <v>19.76060702206738</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1721,25 +1723,25 @@
         <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>1.763782420508784</v>
+        <v>1.763782425570736</v>
       </c>
       <c r="C25" s="1">
-        <v>1.71545692802395</v>
+        <v>1.715456924861675</v>
       </c>
       <c r="D25" s="1">
-        <v>1.899332533938154</v>
+        <v>1.905687698577767</v>
       </c>
       <c r="E25" s="1">
-        <v>1.728380000536791</v>
+        <v>1.751455089570774</v>
       </c>
       <c r="F25" s="1">
-        <v>1.603276527247232</v>
+        <v>1.603276476318221</v>
       </c>
       <c r="G25" s="1">
-        <v>1.19139750886749</v>
+        <v>1.191397577822749</v>
       </c>
       <c r="H25" s="1">
-        <v>0.9033749323414867</v>
+        <v>0.9033749325321556</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1747,25 +1749,25 @@
         <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>1.976283139777379</v>
+        <v>1.976282897429689</v>
       </c>
       <c r="C26" s="1">
-        <v>1.938155186586955</v>
+        <v>1.938155017661813</v>
       </c>
       <c r="D26" s="1">
-        <v>2.021699654168655</v>
+        <v>1.972246122963976</v>
       </c>
       <c r="E26" s="1">
-        <v>1.867755371274525</v>
+        <v>2.033399777311667</v>
       </c>
       <c r="F26" s="1">
-        <v>1.823128745840198</v>
+        <v>1.823128796605165</v>
       </c>
       <c r="G26" s="1">
-        <v>1.054878350268869</v>
+        <v>1.05487843286333</v>
       </c>
       <c r="H26" s="1">
-        <v>0.6869799745456391</v>
+        <v>0.6869800121089902</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1773,25 +1775,25 @@
         <v>32</v>
       </c>
       <c r="B27" s="1">
-        <v>0.3445878571851183</v>
+        <v>0.3445878626883742</v>
       </c>
       <c r="C27" s="1">
-        <v>0.7761116738273994</v>
+        <v>0.7761117102382787</v>
       </c>
       <c r="D27" s="1">
-        <v>0.4011917916707496</v>
+        <v>0.5641672674365767</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2534885099385965</v>
+        <v>0.2332127507605666</v>
       </c>
       <c r="F27" s="1">
-        <v>0.3395523580976854</v>
+        <v>0.3395522475996586</v>
       </c>
       <c r="G27" s="1">
-        <v>0.441154917627026</v>
+        <v>0.4411547716055193</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1705641731679783</v>
+        <v>0.1705641205417106</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1799,25 +1801,25 @@
         <v>33</v>
       </c>
       <c r="B28" s="1">
-        <v>0.3766801007851273</v>
+        <v>0.3766801697319171</v>
       </c>
       <c r="C28" s="1">
-        <v>0.7700848482105684</v>
+        <v>0.7700848236856251</v>
       </c>
       <c r="D28" s="1">
-        <v>0.6420439135192024</v>
+        <v>0.6922903469820033</v>
       </c>
       <c r="E28" s="1">
-        <v>0.4253419826676998</v>
+        <v>0.2348030348732452</v>
       </c>
       <c r="F28" s="1">
-        <v>0.5378975412068968</v>
+        <v>0.5378974141505978</v>
       </c>
       <c r="G28" s="1">
-        <v>0.7550136044729298</v>
+        <v>0.7550132664393311</v>
       </c>
       <c r="H28" s="1">
-        <v>0.5246592478848047</v>
+        <v>0.5246590744979173</v>
       </c>
     </row>
   </sheetData>
@@ -2094,16 +2096,16 @@
         <v>0.2622377622377622</v>
       </c>
       <c r="K2">
-        <v>0.1927477937829969</v>
+        <v>0.1927477505050424</v>
       </c>
       <c r="L2">
-        <v>0.1705749952910121</v>
+        <v>0.1705749538968321</v>
       </c>
       <c r="M2">
-        <v>0.1699665697473066</v>
+        <v>0.1699665330217299</v>
       </c>
       <c r="N2">
-        <v>0.1727150532614564</v>
+        <v>0.1727150328900963</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2138,13 +2140,13 @@
         <v>0.1694915254237288</v>
       </c>
       <c r="K3">
-        <v>0.1819018391715256</v>
+        <v>0.1819018020467699</v>
       </c>
       <c r="L3">
-        <v>0.1550143937770261</v>
+        <v>0.1550143649325833</v>
       </c>
       <c r="M3">
-        <v>0.08297192422134334</v>
+        <v>0.08297190891668223</v>
       </c>
       <c r="N3">
         <v>0.07618021700747295</v>
@@ -2182,16 +2184,16 @@
         <v>0.3398692810457516</v>
       </c>
       <c r="K4">
-        <v>0.1675904528744948</v>
+        <v>0.1675904130516531</v>
       </c>
       <c r="L4">
-        <v>0.1417725722509666</v>
+        <v>0.141772560042619</v>
       </c>
       <c r="M4">
-        <v>0.1118657218857428</v>
+        <v>0.1118656940900339</v>
       </c>
       <c r="N4">
-        <v>0.1107342047658662</v>
+        <v>0.1107341911553242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2226,16 +2228,16 @@
         <v>0.134020618556701</v>
       </c>
       <c r="K5">
-        <v>0.151654847419061</v>
+        <v>0.1516548158791173</v>
       </c>
       <c r="L5">
-        <v>0.1213242230467008</v>
+        <v>0.1213242005670417</v>
       </c>
       <c r="M5">
-        <v>0.09020436894272373</v>
+        <v>0.09020435485770494</v>
       </c>
       <c r="N5">
-        <v>0.1055703478179097</v>
+        <v>0.1055703279755649</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2270,16 +2272,16 @@
         <v>0.2295918367346939</v>
       </c>
       <c r="K6">
-        <v>0.156524215887415</v>
+        <v>0.1565241804079436</v>
       </c>
       <c r="L6">
-        <v>0.1146554901073562</v>
+        <v>0.1146554399118353</v>
       </c>
       <c r="M6">
-        <v>0.1026192975260624</v>
+        <v>0.1026192791314079</v>
       </c>
       <c r="N6">
-        <v>0.0732055086402548</v>
+        <v>0.0732054954350988</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2314,16 +2316,16 @@
         <v>0.3700787401574803</v>
       </c>
       <c r="K7">
-        <v>0.1839436190949509</v>
+        <v>0.1839435848421311</v>
       </c>
       <c r="L7">
-        <v>0.1360305274613196</v>
+        <v>0.1360305064331053</v>
       </c>
       <c r="M7">
-        <v>0.1191781174621394</v>
+        <v>0.1191781030956331</v>
       </c>
       <c r="N7">
-        <v>0.0642551222408935</v>
+        <v>0.06425509075453253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2358,16 +2360,16 @@
         <v>0.3671875</v>
       </c>
       <c r="K8">
-        <v>0.177960076751508</v>
+        <v>0.1779600154254437</v>
       </c>
       <c r="L8">
-        <v>0.1438849476351212</v>
+        <v>0.1438849099691951</v>
       </c>
       <c r="M8">
-        <v>0.111227914746669</v>
+        <v>0.1112278628306412</v>
       </c>
       <c r="N8">
-        <v>0.09331037578815315</v>
+        <v>0.09331034222918128</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2402,16 +2404,16 @@
         <v>0.3095238095238095</v>
       </c>
       <c r="K9">
-        <v>0.144794457363471</v>
+        <v>0.144794420102528</v>
       </c>
       <c r="L9">
-        <v>0.1148475996490554</v>
+        <v>0.1148475491950192</v>
       </c>
       <c r="M9">
-        <v>0.04650900657304533</v>
+        <v>0.0465090012859926</v>
       </c>
       <c r="N9">
-        <v>0.04232607245808095</v>
+        <v>0.04232605921260433</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2446,16 +2448,16 @@
         <v>0.2804878048780488</v>
       </c>
       <c r="K10">
-        <v>0.1645960752469064</v>
+        <v>0.1645960363024998</v>
       </c>
       <c r="L10">
-        <v>0.1352612034247881</v>
+        <v>0.1352611809941556</v>
       </c>
       <c r="M10">
-        <v>0.07272948534566603</v>
+        <v>0.0727294714716087</v>
       </c>
       <c r="N10">
-        <v>0.0679813364693663</v>
+        <v>0.06798131476150185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2490,16 +2492,16 @@
         <v>0.4084507042253521</v>
       </c>
       <c r="K11">
-        <v>0.153709946128674</v>
+        <v>0.1537098993697894</v>
       </c>
       <c r="L11">
-        <v>0.1251118598334686</v>
+        <v>0.1251118214464865</v>
       </c>
       <c r="M11">
-        <v>0.05923464521962603</v>
+        <v>0.05923461833619288</v>
       </c>
       <c r="N11">
-        <v>0.06113452287484743</v>
+        <v>0.06113450355921723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2534,16 +2536,16 @@
         <v>0.381294964028777</v>
       </c>
       <c r="K12">
-        <v>0.1964190784968966</v>
+        <v>0.1964190264770034</v>
       </c>
       <c r="L12">
-        <v>0.1667272134754422</v>
+        <v>0.1667271621119101</v>
       </c>
       <c r="M12">
-        <v>0.1753084291941867</v>
+        <v>0.1753083741566509</v>
       </c>
       <c r="N12">
-        <v>0.1589889145452676</v>
+        <v>0.1589888595790735</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2578,16 +2580,16 @@
         <v>0.08928571428571429</v>
       </c>
       <c r="K13">
-        <v>0.1973103405356439</v>
+        <v>0.1973102873787378</v>
       </c>
       <c r="L13">
-        <v>0.1753769441960024</v>
+        <v>0.1753768881951483</v>
       </c>
       <c r="M13">
-        <v>0.1642323425744859</v>
+        <v>0.1642322883576255</v>
       </c>
       <c r="N13">
-        <v>0.1649115868053899</v>
+        <v>0.164911575383237</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2622,16 +2624,16 @@
         <v>0.2949152542372881</v>
       </c>
       <c r="K14">
-        <v>0.2110017319978962</v>
+        <v>0.211001684867986</v>
       </c>
       <c r="L14">
-        <v>0.1635841986472515</v>
+        <v>0.1635841616838781</v>
       </c>
       <c r="M14">
-        <v>0.2056920654291535</v>
+        <v>0.2056920108076707</v>
       </c>
       <c r="N14">
-        <v>0.1648541944957193</v>
+        <v>0.164854141766792</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2666,16 +2668,16 @@
         <v>0.2058823529411765</v>
       </c>
       <c r="K15">
-        <v>0.212206207987389</v>
+        <v>0.2122061567028557</v>
       </c>
       <c r="L15">
-        <v>0.183957497174955</v>
+        <v>0.1839574771542586</v>
       </c>
       <c r="M15">
-        <v>0.1777514117393961</v>
+        <v>0.1777513753909488</v>
       </c>
       <c r="N15">
-        <v>0.178303939070474</v>
+        <v>0.1783039556273197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2710,16 +2712,16 @@
         <v>0.224</v>
       </c>
       <c r="K16">
-        <v>0.1941028272023308</v>
+        <v>0.1941027732230518</v>
       </c>
       <c r="L16">
-        <v>0.1348099204505963</v>
+        <v>0.1348099066394682</v>
       </c>
       <c r="M16">
-        <v>0.1279813668478695</v>
+        <v>0.1279813178338441</v>
       </c>
       <c r="N16">
-        <v>0.05000842080638514</v>
+        <v>0.05000841335580455</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2754,16 +2756,16 @@
         <v>0.06930693069306931</v>
       </c>
       <c r="K17">
-        <v>0.1858423360737211</v>
+        <v>0.1858423083323149</v>
       </c>
       <c r="L17">
-        <v>0.1527166783495351</v>
+        <v>0.1527166393920842</v>
       </c>
       <c r="M17">
-        <v>0.1528346195221266</v>
+        <v>0.1528346136444627</v>
       </c>
       <c r="N17">
-        <v>0.1419334950577882</v>
+        <v>0.1419335201483898</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2798,16 +2800,16 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="K18">
-        <v>0.1573218389466009</v>
+        <v>0.1573218083654386</v>
       </c>
       <c r="L18">
-        <v>0.1114522433677577</v>
+        <v>0.1114522158068904</v>
       </c>
       <c r="M18">
-        <v>0.102243845721466</v>
+        <v>0.102243828047282</v>
       </c>
       <c r="N18">
-        <v>0.06665387769611722</v>
+        <v>0.06665385363702278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2842,16 +2844,16 @@
         <v>0.3323170731707317</v>
       </c>
       <c r="K19">
-        <v>0.2420302296435761</v>
+        <v>0.2420301771944245</v>
       </c>
       <c r="L19">
-        <v>0.160018767092247</v>
+        <v>0.160018711005932</v>
       </c>
       <c r="M19">
-        <v>0.2778662046801443</v>
+        <v>0.2778661459008327</v>
       </c>
       <c r="N19">
-        <v>0.1675561216089407</v>
+        <v>0.1675561104908505</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2886,16 +2888,16 @@
         <v>0.1567796610169492</v>
       </c>
       <c r="K20">
-        <v>0.2149844839323696</v>
+        <v>0.2149844383393474</v>
       </c>
       <c r="L20">
-        <v>0.176639818844351</v>
+        <v>0.176639750837107</v>
       </c>
       <c r="M20">
-        <v>0.2238478724969991</v>
+        <v>0.2238478289177816</v>
       </c>
       <c r="N20">
-        <v>0.1984660826956207</v>
+        <v>0.1984660299482496</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2930,16 +2932,16 @@
         <v>0.2357723577235772</v>
       </c>
       <c r="K21">
-        <v>0.1661087141107147</v>
+        <v>0.166108676386397</v>
       </c>
       <c r="L21">
-        <v>0.1359394143123165</v>
+        <v>0.1359393737873873</v>
       </c>
       <c r="M21">
-        <v>0.1048491144157827</v>
+        <v>0.1048490948855833</v>
       </c>
       <c r="N21">
-        <v>0.117569924296611</v>
+        <v>0.117569863571025</v>
       </c>
     </row>
   </sheetData>
@@ -3036,16 +3038,16 @@
         <v>0.3396226415094339</v>
       </c>
       <c r="K2">
-        <v>0.2030272110356321</v>
+        <v>0.203027162327566</v>
       </c>
       <c r="L2">
-        <v>0.159522594786471</v>
+        <v>0.1595225338230388</v>
       </c>
       <c r="M2">
-        <v>0.2075388950148689</v>
+        <v>0.2075388421020027</v>
       </c>
       <c r="N2">
-        <v>0.1647454718747641</v>
+        <v>0.1647454299332802</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3080,16 +3082,16 @@
         <v>0.5137614678899083</v>
       </c>
       <c r="K3">
-        <v>0.1786679896077658</v>
+        <v>0.1786679529362183</v>
       </c>
       <c r="L3">
-        <v>0.1452512325354134</v>
+        <v>0.1452512143726681</v>
       </c>
       <c r="M3">
-        <v>0.143945784155012</v>
+        <v>0.143945753431195</v>
       </c>
       <c r="N3">
-        <v>0.1243539262060186</v>
+        <v>0.1243539038542768</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3124,16 +3126,16 @@
         <v>0.3546910755148742</v>
       </c>
       <c r="K4">
-        <v>0.1898394929649014</v>
+        <v>0.1898394489296209</v>
       </c>
       <c r="L4">
-        <v>0.1444338759743483</v>
+        <v>0.1444338466635666</v>
       </c>
       <c r="M4">
-        <v>0.1781688742463841</v>
+        <v>0.1781688334436375</v>
       </c>
       <c r="N4">
-        <v>0.1346028377152646</v>
+        <v>0.1346028017916004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3168,16 +3170,16 @@
         <v>0.3808664259927798</v>
       </c>
       <c r="K5">
-        <v>0.1879013183038563</v>
+        <v>0.1879012701639567</v>
       </c>
       <c r="L5">
-        <v>0.1493744785871924</v>
+        <v>0.1493744300629668</v>
       </c>
       <c r="M5">
-        <v>0.1725971181528914</v>
+        <v>0.1725970681798586</v>
       </c>
       <c r="N5">
-        <v>0.1458362947034218</v>
+        <v>0.1458362367596897</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3212,16 +3214,16 @@
         <v>0.289544235924933</v>
       </c>
       <c r="K6">
-        <v>0.1895286709690741</v>
+        <v>0.1895286189209675</v>
       </c>
       <c r="L6">
-        <v>0.1541614204194467</v>
+        <v>0.1541613760352623</v>
       </c>
       <c r="M6">
-        <v>0.1765958952048217</v>
+        <v>0.1765958382934125</v>
       </c>
       <c r="N6">
-        <v>0.1510397819409672</v>
+        <v>0.1510397821898267</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3256,16 +3258,16 @@
         <v>0.2920634920634921</v>
       </c>
       <c r="K7">
-        <v>0.1720901611824359</v>
+        <v>0.1720901215811647</v>
       </c>
       <c r="L7">
-        <v>0.1322118408785387</v>
+        <v>0.1322118206478549</v>
       </c>
       <c r="M7">
-        <v>0.1395997932744973</v>
+        <v>0.1395997667128587</v>
       </c>
       <c r="N7">
-        <v>0.1123213399088615</v>
+        <v>0.1123213101551959</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3300,16 +3302,16 @@
         <v>0.2176165803108808</v>
       </c>
       <c r="K8">
-        <v>0.1847339700702329</v>
+        <v>0.1847339291730163</v>
       </c>
       <c r="L8">
-        <v>0.1467483618211036</v>
+        <v>0.1467483214679891</v>
       </c>
       <c r="M8">
-        <v>0.1630688563386649</v>
+        <v>0.1630688284703115</v>
       </c>
       <c r="N8">
-        <v>0.1341162988616388</v>
+        <v>0.1341162409399054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3344,16 +3346,16 @@
         <v>0.1972789115646258</v>
       </c>
       <c r="K9">
-        <v>0.1879470418932792</v>
+        <v>0.1879470074708482</v>
       </c>
       <c r="L9">
-        <v>0.1439837030613765</v>
+        <v>0.1439836880364581</v>
       </c>
       <c r="M9">
-        <v>0.1532558595563367</v>
+        <v>0.1532558423198638</v>
       </c>
       <c r="N9">
-        <v>0.1112485364561867</v>
+        <v>0.1112485303984085</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3388,16 +3390,16 @@
         <v>0.5</v>
       </c>
       <c r="K10">
-        <v>1.010662809332049</v>
+        <v>1.010662730516773</v>
       </c>
       <c r="L10">
-        <v>1.006779181644179</v>
+        <v>1.006779120379018</v>
       </c>
       <c r="M10">
-        <v>0.04902513033779111</v>
+        <v>0.04902512240706199</v>
       </c>
       <c r="N10">
-        <v>0.04902513033779111</v>
+        <v>0.04902512240706199</v>
       </c>
     </row>
   </sheetData>
@@ -3467,43 +3469,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
       <c r="D2">
-        <v>930</v>
+        <v>600</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F2">
-        <v>0.06344086021505377</v>
+        <v>0.07833333333333334</v>
       </c>
       <c r="G2">
-        <v>8277</v>
+        <v>6825</v>
       </c>
       <c r="H2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="I2">
-        <v>0.02657967862752205</v>
+        <v>0.02315018315018315</v>
       </c>
       <c r="J2">
-        <v>0.2114695340501792</v>
+        <v>0.2292682926829268</v>
       </c>
       <c r="K2">
-        <v>0.2018656314196282</v>
+        <v>0.1857234565060608</v>
       </c>
       <c r="L2">
-        <v>0.1645660464439686</v>
+        <v>0.1500416521366665</v>
       </c>
       <c r="M2">
-        <v>0.2007014510139079</v>
+        <v>0.167597300072741</v>
       </c>
       <c r="N2">
-        <v>0.1786599492916863</v>
+        <v>0.14535075677568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3511,43 +3513,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>506</v>
+        <v>1056</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>0.07707509881422925</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="G3">
-        <v>6325</v>
+        <v>8745</v>
       </c>
       <c r="H3">
-        <v>160</v>
+        <v>287</v>
       </c>
       <c r="I3">
-        <v>0.02529644268774704</v>
+        <v>0.03281875357347055</v>
       </c>
       <c r="J3">
-        <v>0.1959798994974874</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="K3">
-        <v>0.2875862508142147</v>
+        <v>0.1922709119371414</v>
       </c>
       <c r="L3">
-        <v>0.163453164290102</v>
+        <v>0.148133321280131</v>
       </c>
       <c r="M3">
-        <v>0.3453212594472048</v>
+        <v>0.1791379913200221</v>
       </c>
       <c r="N3">
-        <v>0.1675919985526855</v>
+        <v>0.1415302121454231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3555,43 +3557,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
       </c>
       <c r="D4">
-        <v>380</v>
+        <v>870</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F4">
-        <v>0.131578947368421</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="G4">
-        <v>5560</v>
+        <v>8040</v>
       </c>
       <c r="H4">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="I4">
-        <v>0.02625899280575539</v>
+        <v>0.02798507462686567</v>
       </c>
       <c r="J4">
-        <v>0.2551020408163265</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="K4">
-        <v>0.1877501357586482</v>
+        <v>0.1787584725728016</v>
       </c>
       <c r="L4">
-        <v>0.1601805412713634</v>
+        <v>0.1412829612490193</v>
       </c>
       <c r="M4">
-        <v>0.1660711358649629</v>
+        <v>0.1477767263378013</v>
       </c>
       <c r="N4">
-        <v>0.1585761082974986</v>
+        <v>0.1230236043167673</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3599,43 +3601,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
       </c>
       <c r="D5">
-        <v>1560</v>
+        <v>1482</v>
       </c>
       <c r="E5">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>0.2108974358974359</v>
+        <v>0.08906882591093117</v>
       </c>
       <c r="G5">
-        <v>10320</v>
+        <v>10101</v>
       </c>
       <c r="H5">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="I5">
-        <v>0.03507751937984496</v>
+        <v>0.02306702306702307</v>
       </c>
       <c r="J5">
-        <v>0.4761215629522431</v>
+        <v>0.3616438356164384</v>
       </c>
       <c r="K5">
-        <v>0.1680279969514999</v>
+        <v>0.1748150869106948</v>
       </c>
       <c r="L5">
-        <v>0.1352856475441504</v>
+        <v>0.1365329383397564</v>
       </c>
       <c r="M5">
-        <v>0.130537245696402</v>
+        <v>0.1491094981811461</v>
       </c>
       <c r="N5">
-        <v>0.1154852750233335</v>
+        <v>0.1196776035695666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3643,43 +3645,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>103</v>
       </c>
       <c r="D6">
-        <v>930</v>
+        <v>306</v>
       </c>
       <c r="E6">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="G6">
-        <v>8277</v>
+        <v>5040</v>
       </c>
       <c r="H6">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="I6">
-        <v>0.02404252748580404</v>
+        <v>0.02936507936507936</v>
       </c>
       <c r="J6">
-        <v>0.3184931506849315</v>
+        <v>0.1494252873563219</v>
       </c>
       <c r="K6">
-        <v>0.2067902200449886</v>
+        <v>0.2035921126363349</v>
       </c>
       <c r="L6">
-        <v>0.155780282882537</v>
+        <v>0.1675883315305362</v>
       </c>
       <c r="M6">
-        <v>0.205816100941729</v>
+        <v>0.1995284822236093</v>
       </c>
       <c r="N6">
-        <v>0.1551433975664401</v>
+        <v>0.1742250764835258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3696,34 +3698,34 @@
         <v>1260</v>
       </c>
       <c r="E7">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="F7">
-        <v>0.07301587301587302</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G7">
         <v>9432</v>
       </c>
       <c r="H7">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="I7">
-        <v>0.02650551314673452</v>
+        <v>0.03763782866836302</v>
       </c>
       <c r="J7">
-        <v>0.2690058479532164</v>
+        <v>0.447900466562986</v>
       </c>
       <c r="K7">
-        <v>0.1914587203830302</v>
+        <v>0.1742132403833387</v>
       </c>
       <c r="L7">
-        <v>0.1547098672212793</v>
+        <v>0.1375127669094477</v>
       </c>
       <c r="M7">
-        <v>0.1793948681052193</v>
+        <v>0.1397618712058281</v>
       </c>
       <c r="N7">
-        <v>0.1509638255995298</v>
+        <v>0.1116030005028495</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3731,43 +3733,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
       </c>
       <c r="D8">
-        <v>1056</v>
+        <v>240</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>0.0946969696969697</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="G8">
-        <v>8745</v>
+        <v>4512</v>
       </c>
       <c r="H8">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="I8">
-        <v>0.02275586049170955</v>
+        <v>0.0263741134751773</v>
       </c>
       <c r="J8">
-        <v>0.3344481605351171</v>
+        <v>0.1959459459459459</v>
       </c>
       <c r="K8">
-        <v>0.1721731821036138</v>
+        <v>0.1799706945088191</v>
       </c>
       <c r="L8">
-        <v>0.1366441096489671</v>
+        <v>0.1364196193989855</v>
       </c>
       <c r="M8">
-        <v>0.1424754239201206</v>
+        <v>0.1488411473668585</v>
       </c>
       <c r="N8">
-        <v>0.1211378069321215</v>
+        <v>0.1132868729495597</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3775,43 +3777,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
       </c>
       <c r="D9">
-        <v>272</v>
+        <v>2070</v>
       </c>
       <c r="E9">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>0.1727941176470588</v>
+        <v>0.05652173913043478</v>
       </c>
       <c r="G9">
-        <v>4777</v>
+        <v>11592</v>
       </c>
       <c r="H9">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="I9">
-        <v>0.03788988905170609</v>
+        <v>0.02432712215320911</v>
       </c>
       <c r="J9">
-        <v>0.206140350877193</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="K9">
-        <v>0.1678995820213543</v>
+        <v>0.2366422194652694</v>
       </c>
       <c r="L9">
-        <v>0.12952057506961</v>
+        <v>0.1585161986351293</v>
       </c>
       <c r="M9">
-        <v>0.1228790646324616</v>
+        <v>0.2686550845012299</v>
       </c>
       <c r="N9">
-        <v>0.09976654240835542</v>
+        <v>0.1639913492509851</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3819,43 +3821,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>107</v>
       </c>
       <c r="D10">
-        <v>2450</v>
+        <v>650</v>
       </c>
       <c r="E10">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="F10">
-        <v>0.06204081632653061</v>
+        <v>0.07076923076923076</v>
       </c>
       <c r="G10">
-        <v>12400</v>
+        <v>7072</v>
       </c>
       <c r="H10">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="I10">
-        <v>0.02516129032258065</v>
+        <v>0.02545248868778281</v>
       </c>
       <c r="J10">
-        <v>0.3275862068965517</v>
+        <v>0.2035398230088496</v>
       </c>
       <c r="K10">
-        <v>0.1930596863408448</v>
+        <v>0.1924305430234292</v>
       </c>
       <c r="L10">
-        <v>0.1590227464819964</v>
+        <v>0.1655461199778105</v>
       </c>
       <c r="M10">
-        <v>0.1853717521200871</v>
+        <v>0.1836771728504852</v>
       </c>
       <c r="N10">
-        <v>0.1614830885847671</v>
+        <v>0.1706888008450596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3863,43 +3865,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
       </c>
       <c r="D11">
-        <v>272</v>
+        <v>812</v>
       </c>
       <c r="E11">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F11">
-        <v>0.1139705882352941</v>
+        <v>0.0812807881773399</v>
       </c>
       <c r="G11">
-        <v>4777</v>
+        <v>7801</v>
       </c>
       <c r="H11">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="I11">
-        <v>0.02784174167887796</v>
+        <v>0.02589411613895654</v>
       </c>
       <c r="J11">
-        <v>0.1890243902439024</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="K11">
-        <v>0.1677115599719248</v>
+        <v>0.2006329677027889</v>
       </c>
       <c r="L11">
-        <v>0.130823536062334</v>
+        <v>0.1549615137302484</v>
       </c>
       <c r="M11">
-        <v>0.1326435686974623</v>
+        <v>0.1960421716617978</v>
       </c>
       <c r="N11">
-        <v>0.1188290313057021</v>
+        <v>0.1611485029466341</v>
       </c>
     </row>
   </sheetData>
@@ -3969,43 +3971,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
       </c>
       <c r="D2">
-        <v>210</v>
+        <v>870</v>
       </c>
       <c r="E2">
-        <v>77</v>
+        <v>644</v>
       </c>
       <c r="F2">
-        <v>0.3666666666666666</v>
+        <v>0.7402298850574712</v>
       </c>
       <c r="G2">
-        <v>4245</v>
+        <v>8040</v>
       </c>
       <c r="H2">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="I2">
-        <v>0.02285041224970553</v>
+        <v>0.0195273631840796</v>
       </c>
       <c r="J2">
-        <v>0.4425287356321839</v>
+        <v>0.8039950062421972</v>
       </c>
       <c r="K2">
-        <v>0.1396251543109863</v>
+        <v>0.1429918725575626</v>
       </c>
       <c r="L2">
-        <v>0.1096567569903235</v>
+        <v>0.1131175436788451</v>
       </c>
       <c r="M2">
-        <v>0.06690394399493904</v>
+        <v>0.04726848044245004</v>
       </c>
       <c r="N2">
-        <v>0.06224151914891812</v>
+        <v>0.04641275810226863</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4013,43 +4015,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>111</v>
       </c>
       <c r="D3">
-        <v>756</v>
+        <v>156</v>
       </c>
       <c r="E3">
-        <v>622</v>
+        <v>51</v>
       </c>
       <c r="F3">
-        <v>0.8227513227513228</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="G3">
-        <v>7560</v>
+        <v>3705</v>
       </c>
       <c r="H3">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>0.02182539682539682</v>
+        <v>0.01295546558704453</v>
       </c>
       <c r="J3">
-        <v>0.7903430749682337</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="K3">
-        <v>0.1407923287566263</v>
+        <v>0.1668170712193343</v>
       </c>
       <c r="L3">
-        <v>0.1111411372225001</v>
+        <v>0.1389194544345467</v>
       </c>
       <c r="M3">
-        <v>0.04130402437245211</v>
+        <v>0.105509417218884</v>
       </c>
       <c r="N3">
-        <v>0.04208260686963952</v>
+        <v>0.08438021233389728</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4057,43 +4059,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>112</v>
       </c>
       <c r="D4">
-        <v>306</v>
+        <v>90</v>
       </c>
       <c r="E4">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0.238562091503268</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G4">
-        <v>5040</v>
+        <v>2880</v>
       </c>
       <c r="H4">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="I4">
-        <v>0.02321428571428572</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="J4">
-        <v>0.3842105263157894</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K4">
-        <v>0.1595508759517304</v>
+        <v>0.2088101574245508</v>
       </c>
       <c r="L4">
-        <v>0.1241311330388384</v>
+        <v>0.1709930092809168</v>
       </c>
       <c r="M4">
-        <v>0.104720149646593</v>
+        <v>0.1941698145724225</v>
       </c>
       <c r="N4">
-        <v>0.08636592390140096</v>
+        <v>0.1694907170018389</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4101,43 +4103,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F5">
-        <v>0.2252747252747253</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="G5">
-        <v>3976</v>
+        <v>4245</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>0.009808853118712274</v>
+        <v>0.02190812720848057</v>
       </c>
       <c r="J5">
-        <v>0.5125</v>
+        <v>0.3716216216216216</v>
       </c>
       <c r="K5">
-        <v>0.3561798112732673</v>
+        <v>0.1705636414332787</v>
       </c>
       <c r="L5">
-        <v>0.1802837121863669</v>
+        <v>0.1429802799282284</v>
       </c>
       <c r="M5">
-        <v>0.3749922871702321</v>
+        <v>0.1172815436431489</v>
       </c>
       <c r="N5">
-        <v>0.1714897879362578</v>
+        <v>0.1204734438790575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4145,43 +4147,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
       </c>
       <c r="D6">
-        <v>552</v>
+        <v>272</v>
       </c>
       <c r="E6">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F6">
-        <v>0.2318840579710145</v>
+        <v>0.2389705882352941</v>
       </c>
       <c r="G6">
-        <v>6576</v>
+        <v>4777</v>
       </c>
       <c r="H6">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I6">
-        <v>0.01596715328467153</v>
+        <v>0.02344567720326565</v>
       </c>
       <c r="J6">
-        <v>0.5493562231759657</v>
+        <v>0.3672316384180791</v>
       </c>
       <c r="K6">
-        <v>0.205756876493585</v>
+        <v>0.1908561739455956</v>
       </c>
       <c r="L6">
-        <v>0.1516520014102108</v>
+        <v>0.1560908969193092</v>
       </c>
       <c r="M6">
-        <v>0.1879672455885705</v>
+        <v>0.1595807967267949</v>
       </c>
       <c r="N6">
-        <v>0.1443967900279732</v>
+        <v>0.1577226398400857</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -4189,43 +4191,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>115</v>
       </c>
       <c r="D7">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0.1904761904761905</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="G7">
-        <v>4245</v>
+        <v>3432</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I7">
-        <v>0.01578327444051826</v>
+        <v>0.03146853146853147</v>
       </c>
       <c r="J7">
-        <v>0.3738317757009346</v>
+        <v>0.2551724137931035</v>
       </c>
       <c r="K7">
-        <v>0.1941829080863161</v>
+        <v>0.1544138191292691</v>
       </c>
       <c r="L7">
-        <v>0.1696919238355544</v>
+        <v>0.1220835902889175</v>
       </c>
       <c r="M7">
-        <v>0.1558335384544191</v>
+        <v>0.09052064664785078</v>
       </c>
       <c r="N7">
-        <v>0.1491681316236218</v>
+        <v>0.09001594468139182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4233,43 +4235,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>116</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="E8">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F8">
-        <v>0.275</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G8">
-        <v>4512</v>
+        <v>3705</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>0.02216312056737589</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="J8">
-        <v>0.3975903614457831</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="K8">
-        <v>0.175999664631702</v>
+        <v>0.1638643227262238</v>
       </c>
       <c r="L8">
-        <v>0.1469421800340747</v>
+        <v>0.128088604358345</v>
       </c>
       <c r="M8">
-        <v>0.1254431609134916</v>
+        <v>0.1175209782578455</v>
       </c>
       <c r="N8">
-        <v>0.1246453967788206</v>
+        <v>0.09661282333157406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4277,43 +4279,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
       </c>
       <c r="D9">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="E9">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F9">
-        <v>0.2536764705882353</v>
+        <v>0.2543859649122807</v>
       </c>
       <c r="G9">
-        <v>4777</v>
+        <v>5301</v>
       </c>
       <c r="H9">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="I9">
-        <v>0.02951643290768265</v>
+        <v>0.02188266364836823</v>
       </c>
       <c r="J9">
-        <v>0.3285714285714286</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K9">
-        <v>0.1768783600372071</v>
+        <v>0.1893583361235562</v>
       </c>
       <c r="L9">
-        <v>0.1230582995697385</v>
+        <v>0.1519143457515216</v>
       </c>
       <c r="M9">
-        <v>0.1352903926656599</v>
+        <v>0.1495401890276696</v>
       </c>
       <c r="N9">
-        <v>0.07400971368234364</v>
+        <v>0.1233386586630448</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4321,43 +4323,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
       </c>
       <c r="D10">
-        <v>272</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>0.2426470588235294</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="G10">
-        <v>4777</v>
+        <v>2880</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I10">
-        <v>0.01528155746284279</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="J10">
-        <v>0.4748201438848921</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="K10">
-        <v>0.1808755192070994</v>
+        <v>0.1880993675836092</v>
       </c>
       <c r="L10">
-        <v>0.1465095831282541</v>
+        <v>0.1667753217282871</v>
       </c>
       <c r="M10">
-        <v>0.1135814402557738</v>
+        <v>0.1418797974685249</v>
       </c>
       <c r="N10">
-        <v>0.09751466345841128</v>
+        <v>0.1512946355589823</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4365,43 +4367,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>119</v>
       </c>
       <c r="D11">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>0.2708333333333333</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="G11">
-        <v>4512</v>
+        <v>3976</v>
       </c>
       <c r="H11">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I11">
-        <v>0.02016843971631206</v>
+        <v>0.0198692152917505</v>
       </c>
       <c r="J11">
-        <v>0.4166666666666667</v>
+        <v>0.21</v>
       </c>
       <c r="K11">
-        <v>0.1627842690626121</v>
+        <v>0.2504926302498921</v>
       </c>
       <c r="L11">
-        <v>0.1329497248632125</v>
+        <v>0.2296861844407179</v>
       </c>
       <c r="M11">
-        <v>0.1061946940936694</v>
+        <v>0.2781457724883643</v>
       </c>
       <c r="N11">
-        <v>0.09081887060966054</v>
+        <v>0.2841131286168679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4409,43 +4411,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>0.3</v>
+        <v>0.2041666666666667</v>
       </c>
       <c r="G12">
-        <v>2880</v>
+        <v>4512</v>
       </c>
       <c r="H12">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="I12">
-        <v>0.03368055555555555</v>
+        <v>0.01019503546099291</v>
       </c>
       <c r="J12">
-        <v>0.217741935483871</v>
+        <v>0.5157894736842106</v>
       </c>
       <c r="K12">
-        <v>0.1911432213644536</v>
+        <v>0.1932884314158975</v>
       </c>
       <c r="L12">
-        <v>0.1481092736644029</v>
+        <v>0.1641836165496128</v>
       </c>
       <c r="M12">
-        <v>0.1537436411783135</v>
+        <v>0.136673040197261</v>
       </c>
       <c r="N12">
-        <v>0.1015322053568733</v>
+        <v>0.1397170791696618</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4453,43 +4455,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
       </c>
       <c r="D13">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.1893939393939394</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="G13">
-        <v>3432</v>
+        <v>4245</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I13">
-        <v>0.0203962703962704</v>
+        <v>0.01790341578327444</v>
       </c>
       <c r="J13">
-        <v>0.2631578947368421</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="K13">
-        <v>0.2217541321168079</v>
+        <v>0.2077895044186999</v>
       </c>
       <c r="L13">
-        <v>0.1981468193039942</v>
+        <v>0.165043321895838</v>
       </c>
       <c r="M13">
-        <v>0.2040001569594637</v>
+        <v>0.1953291899256997</v>
       </c>
       <c r="N13">
-        <v>0.2091118647088733</v>
+        <v>0.1649001180617252</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4497,43 +4499,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>122</v>
       </c>
       <c r="D14">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F14">
-        <v>0.217948717948718</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="G14">
-        <v>3705</v>
+        <v>4245</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="I14">
-        <v>0.01970310391363023</v>
+        <v>0.0336866902237927</v>
       </c>
       <c r="J14">
-        <v>0.3177570093457944</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K14">
-        <v>0.1587674396542214</v>
+        <v>0.1586719363187442</v>
       </c>
       <c r="L14">
-        <v>0.129197672535506</v>
+        <v>0.1192031861029257</v>
       </c>
       <c r="M14">
-        <v>0.09911025580739542</v>
+        <v>0.1102244455091099</v>
       </c>
       <c r="N14">
-        <v>0.0958502226469147</v>
+        <v>0.08226221027234891</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4541,43 +4543,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>123</v>
       </c>
       <c r="D15">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="F15">
-        <v>0.1730769230769231</v>
+        <v>0.2813852813852814</v>
       </c>
       <c r="G15">
-        <v>3705</v>
+        <v>6072</v>
       </c>
       <c r="H15">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="I15">
-        <v>0.02483130904183536</v>
+        <v>0.02025691699604743</v>
       </c>
       <c r="J15">
-        <v>0.226890756302521</v>
+        <v>0.5138339920948617</v>
       </c>
       <c r="K15">
-        <v>0.2051177201953973</v>
+        <v>0.2015558003529596</v>
       </c>
       <c r="L15">
-        <v>0.1772832112604128</v>
+        <v>0.1448449530237527</v>
       </c>
       <c r="M15">
-        <v>0.1873302273327025</v>
+        <v>0.1742286990773018</v>
       </c>
       <c r="N15">
-        <v>0.1881478625885493</v>
+        <v>0.1240071518255054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4585,43 +4587,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>124</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>0.2651515151515151</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G16">
-        <v>3432</v>
+        <v>2320</v>
       </c>
       <c r="H16">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>0.01719114219114219</v>
+        <v>0.01120689655172414</v>
       </c>
       <c r="J16">
-        <v>0.3723404255319149</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="K16">
-        <v>0.1853081514356205</v>
+        <v>0.1920745047809123</v>
       </c>
       <c r="L16">
-        <v>0.1618778330886624</v>
+        <v>0.160249482047831</v>
       </c>
       <c r="M16">
-        <v>0.1261543101186188</v>
+        <v>0.1407915423589366</v>
       </c>
       <c r="N16">
-        <v>0.1287902641230843</v>
+        <v>0.142114426975459</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4629,43 +4631,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
         <v>125</v>
       </c>
       <c r="D17">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>0.1944444444444444</v>
+        <v>0.2720588235294117</v>
       </c>
       <c r="G17">
-        <v>2601</v>
+        <v>4777</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I17">
-        <v>0.01076509034986544</v>
+        <v>0.0196776219384551</v>
       </c>
       <c r="J17">
-        <v>0.3333333333333333</v>
+        <v>0.4404761904761905</v>
       </c>
       <c r="K17">
-        <v>0.240825191483008</v>
+        <v>0.1688795177463077</v>
       </c>
       <c r="L17">
-        <v>0.1913911410947023</v>
+        <v>0.1262199596141005</v>
       </c>
       <c r="M17">
-        <v>0.2331375137396833</v>
+        <v>0.1140805229923921</v>
       </c>
       <c r="N17">
-        <v>0.2003780856917116</v>
+        <v>0.08992781228963961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4673,43 +4675,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>126</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E18">
         <v>25</v>
       </c>
       <c r="F18">
-        <v>0.1602564102564103</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="G18">
-        <v>3705</v>
+        <v>3432</v>
       </c>
       <c r="H18">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="I18">
-        <v>0.02537112010796221</v>
+        <v>0.01369463869463869</v>
       </c>
       <c r="J18">
-        <v>0.2100840336134454</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="K18">
-        <v>0.2170264933509947</v>
+        <v>0.1895242470621189</v>
       </c>
       <c r="L18">
-        <v>0.1969027563432126</v>
+        <v>0.1520795707834331</v>
       </c>
       <c r="M18">
-        <v>0.2087892419972257</v>
+        <v>0.1611534056899166</v>
       </c>
       <c r="N18">
-        <v>0.2071376868489493</v>
+        <v>0.1510751481209141</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4717,43 +4719,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>127</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>0.125</v>
+        <v>0.141025641025641</v>
       </c>
       <c r="G19">
-        <v>2601</v>
+        <v>3705</v>
       </c>
       <c r="H19">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I19">
-        <v>0.01806997308727413</v>
+        <v>0.01187584345479082</v>
       </c>
       <c r="J19">
-        <v>0.1607142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K19">
-        <v>0.2437828876920626</v>
+        <v>0.2113170733940962</v>
       </c>
       <c r="L19">
-        <v>0.1950064033090869</v>
+        <v>0.1707894983586756</v>
       </c>
       <c r="M19">
-        <v>0.2463929424574107</v>
+        <v>0.2005774970810969</v>
       </c>
       <c r="N19">
-        <v>0.2000559260790633</v>
+        <v>0.1836700246592405</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4761,43 +4763,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>128</v>
       </c>
       <c r="D20">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="E20">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F20">
-        <v>0.1339869281045752</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="G20">
-        <v>5040</v>
+        <v>3705</v>
       </c>
       <c r="H20">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I20">
-        <v>0.01527777777777778</v>
+        <v>0.02726045883940621</v>
       </c>
       <c r="J20">
-        <v>0.3474576271186441</v>
+        <v>0.2627737226277372</v>
       </c>
       <c r="K20">
-        <v>0.2031413693542196</v>
+        <v>0.1805589078681347</v>
       </c>
       <c r="L20">
-        <v>0.1450420344455906</v>
+        <v>0.1544225133447372</v>
       </c>
       <c r="M20">
-        <v>0.1838948122956612</v>
+        <v>0.1374752911417333</v>
       </c>
       <c r="N20">
-        <v>0.1224105433377004</v>
+        <v>0.1323464190031264</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -4805,43 +4807,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>129</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>0.125</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="G21">
-        <v>2601</v>
+        <v>3976</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I21">
-        <v>0.01114955786236063</v>
+        <v>0.01106639839034205</v>
       </c>
       <c r="J21">
-        <v>0.2368421052631579</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="K21">
-        <v>0.2308031971617643</v>
+        <v>0.3980818782445481</v>
       </c>
       <c r="L21">
-        <v>0.1955794498726482</v>
+        <v>0.2569262997366527</v>
       </c>
       <c r="M21">
-        <v>0.2200515570095089</v>
+        <v>0.4749807337607003</v>
       </c>
       <c r="N21">
-        <v>0.210284303506693</v>
+        <v>0.3646525245649698</v>
       </c>
     </row>
   </sheetData>
@@ -4938,16 +4940,16 @@
         <v>0.8526504941599281</v>
       </c>
       <c r="K2">
-        <v>0.1761218002727251</v>
+        <v>0.1761217634928005</v>
       </c>
       <c r="L2">
-        <v>0.1384148067277979</v>
+        <v>0.1384148118225181</v>
       </c>
       <c r="M2">
-        <v>0.1359753590996085</v>
+        <v>0.1359753291658338</v>
       </c>
       <c r="N2">
-        <v>0.1073101065948988</v>
+        <v>0.1073100732162977</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4982,16 +4984,16 @@
         <v>0.5087900723888314</v>
       </c>
       <c r="K3">
-        <v>0.1707363481981638</v>
+        <v>0.170736302745173</v>
       </c>
       <c r="L3">
-        <v>0.1340760982129006</v>
+        <v>0.1340760607157886</v>
       </c>
       <c r="M3">
-        <v>0.1440121393566559</v>
+        <v>0.144012093862467</v>
       </c>
       <c r="N3">
-        <v>0.1158102595592227</v>
+        <v>0.1158102142973875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5026,16 +5028,16 @@
         <v>0.3396226415094339</v>
       </c>
       <c r="K4">
-        <v>0.1894725677930399</v>
+        <v>0.1894725229579169</v>
       </c>
       <c r="L4">
-        <v>0.1618551392471228</v>
+        <v>0.1618551069724908</v>
       </c>
       <c r="M4">
-        <v>0.1613484829522294</v>
+        <v>0.1613484351509876</v>
       </c>
       <c r="N4">
-        <v>0.158196106835982</v>
+        <v>0.1581960699585216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5070,16 +5072,16 @@
         <v>0.1742424242424243</v>
       </c>
       <c r="K5">
-        <v>0.1798401988713905</v>
+        <v>0.1798401518726389</v>
       </c>
       <c r="L5">
-        <v>0.1460799355677153</v>
+        <v>0.1460798599056083</v>
       </c>
       <c r="M5">
-        <v>0.141648657046926</v>
+        <v>0.1416486142558798</v>
       </c>
       <c r="N5">
-        <v>0.1178616814768959</v>
+        <v>0.1178616129036727</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5114,16 +5116,16 @@
         <v>0.2547169811320755</v>
       </c>
       <c r="K6">
-        <v>0.1704344433083073</v>
+        <v>0.1704344061834155</v>
       </c>
       <c r="L6">
-        <v>0.1357916057618344</v>
+        <v>0.1357915880426308</v>
       </c>
       <c r="M6">
-        <v>0.1361866463641886</v>
+        <v>0.1361866175063801</v>
       </c>
       <c r="N6">
-        <v>0.1257833888451335</v>
+        <v>0.1257833816712406</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5158,16 +5160,16 @@
         <v>0.2125</v>
       </c>
       <c r="K7">
-        <v>0.1741500687418863</v>
+        <v>0.1741500205375242</v>
       </c>
       <c r="L7">
-        <v>0.1500321542738342</v>
+        <v>0.1500320825223215</v>
       </c>
       <c r="M7">
-        <v>0.1062296320966658</v>
+        <v>0.1062295991783845</v>
       </c>
       <c r="N7">
-        <v>0.09976654240835542</v>
+        <v>0.09976650388834689</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5202,13 +5204,13 @@
         <v>0.2207792207792208</v>
       </c>
       <c r="K8">
-        <v>0.2163373037566768</v>
+        <v>0.2163372488381084</v>
       </c>
       <c r="L8">
-        <v>0.191485982383148</v>
+        <v>0.1914859299322601</v>
       </c>
       <c r="M8">
-        <v>0.2156191065297355</v>
+        <v>0.2156190341662233</v>
       </c>
       <c r="N8">
         <v>0.211241996229824</v>
@@ -5246,13 +5248,13 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="K9">
-        <v>0.1865862017316485</v>
+        <v>0.1865861605229222</v>
       </c>
       <c r="L9">
-        <v>0.1610848985353831</v>
+        <v>0.1610848333922072</v>
       </c>
       <c r="M9">
-        <v>0.09837493349984669</v>
+        <v>0.09837490389375358</v>
       </c>
       <c r="N9">
         <v>0.04602431718643391</v>
@@ -5290,16 +5292,16 @@
         <v>0.282051282051282</v>
       </c>
       <c r="K10">
-        <v>0.2251138783848607</v>
+        <v>0.2251138374065823</v>
       </c>
       <c r="L10">
-        <v>0.1679397892426935</v>
+        <v>0.1679397114270656</v>
       </c>
       <c r="M10">
-        <v>0.2163236884757335</v>
+        <v>0.2163236530906303</v>
       </c>
       <c r="N10">
-        <v>0.1747770404383424</v>
+        <v>0.1747769512348465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5334,16 +5336,16 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K11">
-        <v>0.683509944591947</v>
+        <v>0.6835098742594243</v>
       </c>
       <c r="L11">
-        <v>0.9305289075801553</v>
+        <v>0.9305288532148155</v>
       </c>
       <c r="M11">
-        <v>0.4005123204151691</v>
+        <v>0.4005123116307691</v>
       </c>
       <c r="N11">
-        <v>0.09805026067558222</v>
+        <v>0.09805024481412397</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5378,16 +5380,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.1778266131871372</v>
+        <v>0.1778265825019874</v>
       </c>
       <c r="L12">
-        <v>0.1446618242241474</v>
+        <v>0.1446618320379649</v>
       </c>
       <c r="M12">
-        <v>0.09728178653555472</v>
+        <v>0.09728177463653306</v>
       </c>
       <c r="N12">
-        <v>0.1240822408267567</v>
+        <v>0.1240822275812801</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5422,16 +5424,16 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="K13">
-        <v>0.2042559583031014</v>
+        <v>0.2042559145603421</v>
       </c>
       <c r="L13">
-        <v>0.1650531588507113</v>
+        <v>0.1650531117974185</v>
       </c>
       <c r="M13">
-        <v>0.1629357279206012</v>
+        <v>0.1629356653184204</v>
       </c>
       <c r="N13">
-        <v>0.1492970668730739</v>
+        <v>0.1492969939711732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5466,16 +5468,16 @@
         <v>0.4782608695652174</v>
       </c>
       <c r="K14">
-        <v>0.2707152083991226</v>
+        <v>0.2707151626332761</v>
       </c>
       <c r="L14">
-        <v>0.2523545338933988</v>
+        <v>0.252354516535866</v>
       </c>
       <c r="M14">
-        <v>0.1953178871016543</v>
+        <v>0.1953178604436827</v>
       </c>
       <c r="N14">
-        <v>0.2051878528464159</v>
+        <v>0.2051878363822285</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5510,16 +5512,16 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="K15">
-        <v>0.2192017430621669</v>
+        <v>0.2192016824844409</v>
       </c>
       <c r="L15">
-        <v>0.1766534350727964</v>
+        <v>0.1766533885498553</v>
       </c>
       <c r="M15">
-        <v>0.1328264262261899</v>
+        <v>0.1328264146363978</v>
       </c>
       <c r="N15">
-        <v>0.09893772732102579</v>
+        <v>0.0989377012439937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5554,16 +5556,16 @@
         <v>0.3518518518518519</v>
       </c>
       <c r="K16">
-        <v>0.1807568322992743</v>
+        <v>0.180756795580334</v>
       </c>
       <c r="L16">
-        <v>0.1445921380582956</v>
+        <v>0.1445921098327406</v>
       </c>
       <c r="M16">
-        <v>0.141546590457805</v>
+        <v>0.141546548955535</v>
       </c>
       <c r="N16">
-        <v>0.1193649199403838</v>
+        <v>0.119364843855084</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5598,16 +5600,16 @@
         <v>0.2804878048780488</v>
       </c>
       <c r="K17">
-        <v>0.1663884914217361</v>
+        <v>0.1663884447129169</v>
       </c>
       <c r="L17">
-        <v>0.1370068085064794</v>
+        <v>0.1370067518678177</v>
       </c>
       <c r="M17">
-        <v>0.09425102993129926</v>
+        <v>0.09425099423647459</v>
       </c>
       <c r="N17">
-        <v>0.1014721862864459</v>
+        <v>0.1014721531185504</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5642,16 +5644,16 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.168768353075246</v>
+        <v>0.1687683005443714</v>
       </c>
       <c r="L18">
-        <v>0.1341896100054224</v>
+        <v>0.1341895709709897</v>
       </c>
       <c r="M18">
-        <v>0.07503649162336952</v>
+        <v>0.07503646021940817</v>
       </c>
       <c r="N18">
-        <v>0.06035375533569221</v>
+        <v>0.06035372640584265</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5686,16 +5688,16 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="K19">
-        <v>0.2117210726803386</v>
+        <v>0.2117210357779621</v>
       </c>
       <c r="L19">
-        <v>0.2003288387503592</v>
+        <v>0.2003288097859621</v>
       </c>
       <c r="M19">
-        <v>0.0873671621617672</v>
+        <v>0.08736714924857218</v>
       </c>
       <c r="N19">
-        <v>0.03345352162234084</v>
+        <v>0.03345350731722609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5730,16 +5732,16 @@
         <v>0.6</v>
       </c>
       <c r="K20">
-        <v>0.418292249083397</v>
+        <v>0.4182920977860196</v>
       </c>
       <c r="L20">
-        <v>0.4576706261492814</v>
+        <v>0.4576704347938946</v>
       </c>
       <c r="M20">
-        <v>0.1418913140211151</v>
+        <v>0.1418912330765357</v>
       </c>
       <c r="N20">
-        <v>0.05631314239955968</v>
+        <v>0.05631313908819053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5774,16 +5776,16 @@
         <v>0.25</v>
       </c>
       <c r="K21">
-        <v>0.1913788139237825</v>
+        <v>0.1913787630672227</v>
       </c>
       <c r="L21">
-        <v>0.145018794325019</v>
+        <v>0.1450187402107169</v>
       </c>
       <c r="M21">
-        <v>0.1458025605798551</v>
+        <v>0.1458025144767943</v>
       </c>
       <c r="N21">
-        <v>0.1089261003303624</v>
+        <v>0.1089260586999596</v>
       </c>
     </row>
   </sheetData>
@@ -5880,16 +5882,16 @@
         <v>0.9952061361457335</v>
       </c>
       <c r="K2">
-        <v>0.1847383384411098</v>
+        <v>0.184738294343392</v>
       </c>
       <c r="L2">
-        <v>0.1469477579136529</v>
+        <v>0.1469477092138533</v>
       </c>
       <c r="M2">
-        <v>0.1756444877365111</v>
+        <v>0.1756444441583403</v>
       </c>
       <c r="N2">
-        <v>0.1450169612137031</v>
+        <v>0.1450169463925116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5924,16 +5926,16 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K3">
-        <v>0.4654080347652127</v>
+        <v>0.4654079700878584</v>
       </c>
       <c r="L3">
-        <v>0.2386739202845733</v>
+        <v>0.2386738337955482</v>
       </c>
       <c r="M3">
-        <v>0.3492710764801459</v>
+        <v>0.3492710713291273</v>
       </c>
       <c r="N3">
-        <v>0.05047828499734246</v>
+        <v>0.05047827340755043</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5968,16 +5970,16 @@
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.1628332078469771</v>
+        <v>0.1628331541238184</v>
       </c>
       <c r="L4">
-        <v>0.1320230020897537</v>
+        <v>0.1320229694932851</v>
       </c>
       <c r="M4">
-        <v>0.04219011418772672</v>
+        <v>0.04219010616694864</v>
       </c>
       <c r="N4">
-        <v>0.04219011418772672</v>
+        <v>0.04219010616694864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6012,16 +6014,16 @@
         <v>0.25</v>
       </c>
       <c r="K5">
-        <v>0.2794722416824595</v>
+        <v>0.2794721996405171</v>
       </c>
       <c r="L5">
-        <v>0.3038976651782994</v>
+        <v>0.3038976520136495</v>
       </c>
       <c r="M5">
-        <v>0.1737794652721789</v>
+        <v>0.1737794524502498</v>
       </c>
       <c r="N5">
-        <v>0.1737794652721789</v>
+        <v>0.1737794524502498</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6056,16 +6058,16 @@
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>1.010662809332049</v>
+        <v>1.010662730516773</v>
       </c>
       <c r="L6">
-        <v>1.006779181644179</v>
+        <v>1.006779120379018</v>
       </c>
       <c r="M6">
-        <v>0.04902513033779111</v>
+        <v>0.04902512240706199</v>
       </c>
       <c r="N6">
-        <v>0.04902513033779111</v>
+        <v>0.04902512240706199</v>
       </c>
     </row>
   </sheetData>
@@ -6162,13 +6164,13 @@
         <v>0.9866710013003901</v>
       </c>
       <c r="K2">
-        <v>0.1749588403215687</v>
+        <v>0.1749587984476123</v>
       </c>
       <c r="L2">
-        <v>0.1391200318152121</v>
+        <v>0.1391200329075943</v>
       </c>
       <c r="M2">
-        <v>0.1559336097423741</v>
+        <v>0.1559335706403731</v>
       </c>
       <c r="N2">
         <v>0.1302046100409168</v>
@@ -6203,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2520207824399475</v>
+        <v>0.2520207438641841</v>
       </c>
       <c r="L3">
-        <v>0.223392478031377</v>
+        <v>0.2233924530788627</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -6247,16 +6249,16 @@
         <v>0.8181818181818182</v>
       </c>
       <c r="K4">
-        <v>0.683509944591947</v>
+        <v>0.6835098742594243</v>
       </c>
       <c r="L4">
-        <v>0.9305289075801553</v>
+        <v>0.9305288532148155</v>
       </c>
       <c r="M4">
-        <v>0.4005123204151691</v>
+        <v>0.4005123116307691</v>
       </c>
       <c r="N4">
-        <v>0.09805026067558222</v>
+        <v>0.09805024481412397</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6291,16 +6293,16 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="K5">
-        <v>0.2111415727898765</v>
+        <v>0.211141530186815</v>
       </c>
       <c r="L5">
-        <v>0.1873672607545749</v>
+        <v>0.1873672250061337</v>
       </c>
       <c r="M5">
-        <v>0.1421309550852292</v>
+        <v>0.1421309244075263</v>
       </c>
       <c r="N5">
-        <v>0.1240822408267567</v>
+        <v>0.1240822275812801</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6335,10 +6337,10 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>0.281492494351917</v>
+        <v>0.2814924380299825</v>
       </c>
       <c r="L6">
-        <v>0.3028775999020357</v>
+        <v>0.3028775625165977</v>
       </c>
       <c r="M6">
         <v>0.09559224443290654</v>
@@ -6379,16 +6381,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="K7">
-        <v>0.4046695480552144</v>
+        <v>0.4046695106463134</v>
       </c>
       <c r="L7">
-        <v>0.4052672918975163</v>
+        <v>0.4052672687228023</v>
       </c>
       <c r="M7">
-        <v>0.1011111806498615</v>
+        <v>0.1011111433969585</v>
       </c>
       <c r="N7">
-        <v>0.1011111806498615</v>
+        <v>0.1011111433969585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6423,16 +6425,16 @@
         <v>0.4</v>
       </c>
       <c r="K8">
-        <v>0.2084219034810933</v>
+        <v>0.2084218570979496</v>
       </c>
       <c r="L8">
-        <v>0.1859902138467794</v>
+        <v>0.1859901688726517</v>
       </c>
       <c r="M8">
-        <v>0.02525882693072266</v>
+        <v>0.02525881865229977</v>
       </c>
       <c r="N8">
-        <v>0.02525882693072266</v>
+        <v>0.02525881865229977</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6467,16 +6469,16 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="K9">
-        <v>0.2658864859703917</v>
+        <v>0.2658864381180473</v>
       </c>
       <c r="L9">
-        <v>0.2472138389030166</v>
+        <v>0.2472137739869534</v>
       </c>
       <c r="M9">
-        <v>0.04518479846505768</v>
+        <v>0.04518478287402791</v>
       </c>
       <c r="N9">
-        <v>0.03932385649477967</v>
+        <v>0.03932383134907015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6508,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2336468671112241</v>
+        <v>0.2336467650150724</v>
       </c>
       <c r="L10">
-        <v>0.2015730664298399</v>
+        <v>0.2015729444949624</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -6552,16 +6554,16 @@
         <v>0.4</v>
       </c>
       <c r="K11">
-        <v>0.2507281314710365</v>
+        <v>0.2507280931080182</v>
       </c>
       <c r="L11">
-        <v>0.2251031309604903</v>
+        <v>0.2251030840780721</v>
       </c>
       <c r="M11">
-        <v>0.01672676081117042</v>
+        <v>0.01672675365861305</v>
       </c>
       <c r="N11">
-        <v>0.01672676081117042</v>
+        <v>0.01672675365861305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6593,10 +6595,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1936537884570372</v>
+        <v>0.1936537659403774</v>
       </c>
       <c r="L12">
-        <v>0.1634354513373035</v>
+        <v>0.1634354434788141</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -6634,10 +6636,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1467388266549583</v>
+        <v>0.1467387850920845</v>
       </c>
       <c r="L13">
-        <v>0.1155846056458923</v>
+        <v>0.1155845511833336</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -6678,10 +6680,10 @@
         <v>0.2</v>
       </c>
       <c r="K14">
-        <v>0.3330356005667198</v>
+        <v>0.3330355174642778</v>
       </c>
       <c r="L14">
-        <v>0.3580023517470743</v>
+        <v>0.3580021456088553</v>
       </c>
       <c r="M14">
         <v>0.1082584298181966</v>
@@ -6719,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2393847063012746</v>
+        <v>0.239384617563929</v>
       </c>
       <c r="L15">
-        <v>0.2099459673826189</v>
+        <v>0.2099458858256356</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -6763,16 +6765,16 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.5140857450952895</v>
+        <v>0.5140855344451388</v>
       </c>
       <c r="L16">
-        <v>0.4945257707758545</v>
+        <v>0.4945256175236626</v>
       </c>
       <c r="M16">
-        <v>0.02815657119977984</v>
+        <v>0.02815656954409526</v>
       </c>
       <c r="N16">
-        <v>0.02815657119977984</v>
+        <v>0.02815656954409526</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -6804,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3250565025496277</v>
+        <v>0.3250564204102004</v>
       </c>
       <c r="L17">
-        <v>0.2965654655683291</v>
+        <v>0.2965654000999094</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -6848,16 +6850,16 @@
         <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.2541678771340862</v>
+        <v>0.2541678277014131</v>
       </c>
       <c r="L18">
-        <v>0.2409333520731121</v>
+        <v>0.2409333390195125</v>
       </c>
       <c r="M18">
-        <v>0.08658289515981429</v>
+        <v>0.08658286535749191</v>
       </c>
       <c r="N18">
-        <v>0.08658289515981429</v>
+        <v>0.08658286535749191</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6892,10 +6894,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K19">
-        <v>0.2772451367876108</v>
+        <v>0.2772450722960547</v>
       </c>
       <c r="L19">
-        <v>0.308130754253458</v>
+        <v>0.3081306699568387</v>
       </c>
       <c r="M19">
         <v>0.1161872723442131</v>
@@ -6933,10 +6935,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1343018389902638</v>
+        <v>0.134301804877089</v>
       </c>
       <c r="L20">
-        <v>0.1055601719128944</v>
+        <v>0.1055601401781786</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -6974,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2562353412959752</v>
+        <v>0.2562352717910964</v>
       </c>
       <c r="L21">
-        <v>0.2301983144701172</v>
+        <v>0.2301982810520205</v>
       </c>
       <c r="M21">
         <v>0</v>
